--- a/ofc/estimates/khulaltaar baatika truss/V-खुलालटार कार्कीटोल वाटिका निर्माण.xlsx
+++ b/ofc/estimates/khulaltaar baatika truss/V-खुलालटार कार्कीटोल वाटिका निर्माण.xlsx
@@ -38,28 +38,28 @@
     <definedName name="adopted_rate_water">[1]District_Rate!$L$129</definedName>
     <definedName name="concrete_mixer">[1]Equipment_Rate!$J$10</definedName>
     <definedName name="description_1">[2]Abstract!$B$167</definedName>
-    <definedName name="description_103">[7]Abstract!$B$16</definedName>
+    <definedName name="description_103">[3]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="1">#REF!</definedName>
-    <definedName name="description_124">[3]Abstract!$B$18</definedName>
+    <definedName name="description_124">[4]Abstract!$B$18</definedName>
     <definedName name="description_2">[2]Abstract!$B$168</definedName>
-    <definedName name="description_247">[7]Abstract!$B$22</definedName>
-    <definedName name="description_248">[7]Abstract!$B$23</definedName>
-    <definedName name="description_261">[4]Abstract!$B$33</definedName>
-    <definedName name="description_262" localSheetId="1">[7]Abstract!$B$34</definedName>
-    <definedName name="description_262">[5]Abstract!$B$34</definedName>
-    <definedName name="description_3">[7]Abstract!$B$169</definedName>
-    <definedName name="description_310">[8]Abstract!$B$60</definedName>
-    <definedName name="description_312">[9]Abstract!$B$61</definedName>
-    <definedName name="description_5">[7]Abstract!$B$171</definedName>
-    <definedName name="description_6" localSheetId="1">[8]Abstract!$B$172</definedName>
+    <definedName name="description_247">[3]Abstract!$B$22</definedName>
+    <definedName name="description_248">[3]Abstract!$B$23</definedName>
+    <definedName name="description_261">[5]Abstract!$B$33</definedName>
+    <definedName name="description_262" localSheetId="1">[3]Abstract!$B$34</definedName>
+    <definedName name="description_262">[6]Abstract!$B$34</definedName>
+    <definedName name="description_3">[3]Abstract!$B$169</definedName>
+    <definedName name="description_310">[7]Abstract!$B$60</definedName>
+    <definedName name="description_312">[8]Abstract!$B$61</definedName>
+    <definedName name="description_5">[3]Abstract!$B$171</definedName>
+    <definedName name="description_6" localSheetId="1">[7]Abstract!$B$172</definedName>
     <definedName name="description_6">[2]Abstract!$B$172</definedName>
-    <definedName name="description_759">[7]Abstract!$B$278</definedName>
-    <definedName name="description_783">[7]Abstract!$B$301</definedName>
+    <definedName name="description_759">[3]Abstract!$B$278</definedName>
+    <definedName name="description_783">[3]Abstract!$B$301</definedName>
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'as per mistry'!$A$5:$K$95</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$5:$K$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$5:$K$101</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'as per mistry'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -76,8 +76,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="D34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+half quantity as they used stone quantity equal to nearly 14000 rs</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -320,6 +354,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>-for DPC base</t>
+  </si>
+  <si>
+    <t>-for steps</t>
+  </si>
+  <si>
+    <t>-MS square pipe of 2"*2" of 1.8mm thickness for king post member</t>
   </si>
 </sst>
 </file>
@@ -330,7 +373,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +507,32 @@
       <sz val="11"/>
       <name val="Preeti"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -545,7 +614,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -676,83 +745,12 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,6 +781,90 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1038,224 +1120,6 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>Dismantling of existing structures like culverts, bridges, retaining walls and other structure comprising of masonry, cement concrete, wood work, steel work, including scaffolding wherever necessary, sorting the dismantled Material, disposal of unserviceable Material and stacking the serviceable Material with all lifts and lead of 1000 meters, Dismantling Brick / Tile work, In cement mortar</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datasheet"/>
-      <sheetName val="Abstract"/>
-      <sheetName val="Quantity_Sheet"/>
-      <sheetName val="District_Rate"/>
-      <sheetName val="Equipment_Rate"/>
-      <sheetName val="Summary_of_Rates"/>
-      <sheetName val="rate (roadway)"/>
-      <sheetName val="manhole"/>
-      <sheetName val="bistar"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="DWC pipe Rate-analysis"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Loading_Unloading"/>
-      <sheetName val="Collection"/>
-      <sheetName val="Transportation"/>
-      <sheetName val="References"/>
-      <sheetName val="BOQ"/>
-      <sheetName val="PPMO_BOQ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datasheet"/>
-      <sheetName val="Abstract"/>
-      <sheetName val="Quantity_Sheet"/>
-      <sheetName val="District_Rate"/>
-      <sheetName val="Equipment_Rate"/>
-      <sheetName val="Summary_of_Rates"/>
-      <sheetName val="rate (roadway)"/>
-      <sheetName val="manhole"/>
-      <sheetName val="bistar"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="DWC pipe Rate-analysis"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Loading_Unloading"/>
-      <sheetName val="Collection"/>
-      <sheetName val="Transportation"/>
-      <sheetName val="References"/>
-      <sheetName val="BOQ"/>
-      <sheetName val="PPMO_BOQ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet4 (2)"/>
-      <sheetName val="WCR"/>
-      <sheetName val="Valuated"/>
-      <sheetName val="M"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Project:- ૐ शान्ति भवन निर्माण तथा मर्मत</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Location:- Shankharapur Municipality 9</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>VAT calculation</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="24">
-          <cell r="G24">
-            <v>19.912400000000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Datasheet"/>
-      <sheetName val="Abstract"/>
-      <sheetName val="Quantity_Sheet"/>
-      <sheetName val="District_Rate"/>
-      <sheetName val="Equipment_Rate"/>
-      <sheetName val="Summary_of_Rates"/>
-      <sheetName val="rate (roadway)"/>
-      <sheetName val="manhole"/>
-      <sheetName val="bistar"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="DWC pipe Rate-analysis"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Loading_Unloading"/>
-      <sheetName val="Collection"/>
-      <sheetName val="Transportation"/>
-      <sheetName val="References"/>
-      <sheetName val="BOQ"/>
-      <sheetName val="PPMO_BOQ"/>
-    </sheetNames>
-    <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1">
         <row r="16">
@@ -1323,7 +1187,184 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Dismantling of existing structures like culverts, bridges, retaining walls and other structure comprising of masonry, cement concrete, wood work, steel work, including scaffolding wherever necessary, sorting the dismantled Material, disposal of unserviceable Material and stacking the serviceable Material with all lifts and lead of 1000 meters, Dismantling Brick / Tile work, In cement mortar</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1387,7 +1428,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1441,6 +1482,47 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet4 (2)"/>
+      <sheetName val="WCR"/>
+      <sheetName val="Valuated"/>
+      <sheetName val="M"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Project:- ૐ शान्ति भवन निर्माण तथा मर्मत</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Location:- Shankharapur Municipality 9</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>VAT calculation</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="24">
+          <cell r="G24">
+            <v>19.912400000000005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1711,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE95"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A76" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,113 +1817,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
     </row>
     <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -3734,11 +3816,11 @@
       <c r="B90" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="64">
+      <c r="C90" s="72">
         <f>J88</f>
         <v>469525.83899755881</v>
       </c>
-      <c r="D90" s="65"/>
+      <c r="D90" s="73"/>
       <c r="E90" s="10">
         <v>100</v>
       </c>
@@ -3772,10 +3854,10 @@
       <c r="B91" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="67">
+      <c r="C91" s="76">
         <v>400000</v>
       </c>
-      <c r="D91" s="68"/>
+      <c r="D91" s="77"/>
       <c r="E91" s="10"/>
       <c r="M91" s="29"/>
       <c r="N91" s="30"/>
@@ -3801,11 +3883,11 @@
       <c r="B92" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="67">
+      <c r="C92" s="76">
         <f>C91-C94-C95</f>
         <v>380000</v>
       </c>
-      <c r="D92" s="68"/>
+      <c r="D92" s="77"/>
       <c r="E92" s="10">
         <f>C92/C90*100</f>
         <v>80.932713056070099</v>
@@ -3834,11 +3916,11 @@
       <c r="B93" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="69">
+      <c r="C93" s="78">
         <f>C90-C92</f>
         <v>89525.838997558807</v>
       </c>
-      <c r="D93" s="69"/>
+      <c r="D93" s="78"/>
       <c r="E93" s="10">
         <f>100-E92</f>
         <v>19.067286943929901</v>
@@ -3867,11 +3949,11 @@
       <c r="B94" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="64">
+      <c r="C94" s="72">
         <f>C91*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D94" s="65"/>
+      <c r="D94" s="73"/>
       <c r="E94" s="10">
         <v>3</v>
       </c>
@@ -3899,11 +3981,11 @@
       <c r="B95" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="64">
+      <c r="C95" s="72">
         <f>C91*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D95" s="65"/>
+      <c r="D95" s="73"/>
       <c r="E95" s="10">
         <v>2</v>
       </c>
@@ -3929,6 +4011,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="A7:F7"/>
@@ -3937,13 +4026,6 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1"/>
@@ -3959,10 +4041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3980,209 +4062,209 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+    </row>
+    <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="72" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74">
+      <c r="B6" s="58"/>
+      <c r="C6" s="95">
         <f>F50</f>
         <v>469525.83899755881</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74">
+      <c r="I6" s="58"/>
+      <c r="J6" s="95">
         <f>I50</f>
-        <v>469597.70601489022</v>
-      </c>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="77" t="s">
+        <v>459614.29448570864</v>
+      </c>
+      <c r="K6" s="96"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="I7" s="79" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="I7" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="str">
-        <f>'[6]Sheet4 (2)'!A6:F6</f>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="89" t="str">
+        <f>'[9]Sheet4 (2)'!A6:F6</f>
         <v>Project:- ૐ शान्ति भवन निर्माण तथा मर्मत</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="I8" s="81" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="I8" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="str">
-        <f>'[6]Sheet4 (2)'!A7:F7</f>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="91" t="str">
+        <f>'[9]Sheet4 (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="I9" s="81" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="I9" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="83" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84" t="s">
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="83" t="s">
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="85" t="s">
+      <c r="K11" s="84" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="86" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="85"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87">
+      <c r="J12" s="85"/>
+      <c r="K12" s="84"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62">
         <f>'as per mistry'!A9</f>
         <v>1</v>
       </c>
-      <c r="B13" s="88" t="str">
+      <c r="B13" s="63" t="str">
         <f>'as per mistry'!B9</f>
         <v>sfnf] kmnfd] kfO{ksf] 6«; agfO{ h8fg ug]{ sfd</v>
       </c>
@@ -4203,26 +4285,30 @@
         <v>84657.225827125876</v>
       </c>
       <c r="G13" s="10">
-        <f>V!G19</f>
-        <v>467.65101725083821</v>
+        <f>V!G20</f>
+        <v>439.00701725083815</v>
       </c>
       <c r="H13" s="10">
-        <f>V!I19</f>
+        <f>V!I20</f>
         <v>181.17</v>
       </c>
       <c r="I13" s="10">
         <f>G13*H13</f>
-        <v>84724.334795334347</v>
-      </c>
-      <c r="J13" s="89">
+        <v>79534.90131533434</v>
+      </c>
+      <c r="J13" s="64">
         <f>I13-F13</f>
-        <v>67.108968208471197</v>
-      </c>
-      <c r="K13" s="90"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
-      <c r="B14" s="91" t="str">
+        <v>-5122.3245117915358</v>
+      </c>
+      <c r="K13" s="65"/>
+      <c r="M13" s="1">
+        <f>1.25*F13</f>
+        <v>105821.53228390735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="66" t="str">
         <f>'as per mistry'!B22</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -4236,18 +4322,22 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10">
-        <f>V!J20</f>
-        <v>6006.9847239420951</v>
-      </c>
-      <c r="J14" s="89">
+        <f>V!J21</f>
+        <v>5639.0520902356529</v>
+      </c>
+      <c r="J14" s="64">
         <f>I14-F14</f>
-        <v>4.7580491229782638</v>
-      </c>
-      <c r="K14" s="90"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
-      <c r="B15" s="92"/>
+        <v>-363.17458458346391</v>
+      </c>
+      <c r="K14" s="65"/>
+      <c r="M14" s="1">
+        <f>1.25*F14</f>
+        <v>7502.7833435238963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -4255,15 +4345,15 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="87">
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="62">
         <f>'as per mistry'!A24</f>
         <v>2</v>
       </c>
-      <c r="B16" s="88" t="str">
+      <c r="B16" s="63" t="str">
         <f>'as per mistry'!B24</f>
         <v xml:space="preserve">).#^ lblv ).$ dL.dL.afSnf] sf]?u]6]8 /+lug ss{6 kftfsf] 5fgf 5fpg] sfd </v>
       </c>
@@ -4284,26 +4374,30 @@
         <v>52525.52238693666</v>
       </c>
       <c r="G16" s="10">
-        <f>V!G24</f>
-        <v>49.048017916646423</v>
+        <f>V!G25</f>
+        <v>37.667999999999999</v>
       </c>
       <c r="H16" s="10">
-        <f>V!I24</f>
+        <f>V!I25</f>
         <v>1070.9000000000001</v>
       </c>
       <c r="I16" s="10">
         <f>G16*H16</f>
-        <v>52525.52238693666</v>
-      </c>
-      <c r="J16" s="89">
+        <v>40338.661200000002</v>
+      </c>
+      <c r="J16" s="64">
         <f>I16-F16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="90"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-      <c r="B17" s="91" t="str">
+        <v>-12186.861186936658</v>
+      </c>
+      <c r="K16" s="65"/>
+      <c r="M16" s="1">
+        <f t="shared" ref="M16:M48" si="0">1.25*F16</f>
+        <v>65656.902983670821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="62"/>
+      <c r="B17" s="66" t="str">
         <f>'as per mistry'!B27</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -4317,18 +4411,22 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10">
-        <f>V!J25</f>
-        <v>5475.680991319894</v>
-      </c>
-      <c r="J17" s="89">
+        <f>V!J26</f>
+        <v>4205.2250089199997</v>
+      </c>
+      <c r="J17" s="64">
         <f>I17-F17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="90"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="92"/>
+        <v>-1270.4559823998943</v>
+      </c>
+      <c r="K17" s="65"/>
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>6844.601239149868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="62"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -4336,15 +4434,15 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="87">
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="62">
         <f>'as per mistry'!A29</f>
         <v>3</v>
       </c>
-      <c r="B19" s="88" t="str">
+      <c r="B19" s="63" t="str">
         <f>'as per mistry'!B29</f>
         <v xml:space="preserve">g/d k|sf/sf] Sn] / l;N6L df6f]df ;j} lsl;dsf] vGg] sfd </v>
       </c>
@@ -4365,26 +4463,30 @@
         <v>717.2481615361171</v>
       </c>
       <c r="G19" s="10">
-        <f>V!G29</f>
+        <f>V!G30</f>
         <v>1.0813166717464189</v>
       </c>
       <c r="H19" s="10">
-        <f>V!I29</f>
+        <f>V!I30</f>
         <v>663.31</v>
       </c>
       <c r="I19" s="10">
         <f>G19*H19</f>
         <v>717.2481615361171</v>
       </c>
-      <c r="J19" s="89">
+      <c r="J19" s="64">
         <f>I19-F19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="90"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
-      <c r="B20" s="92"/>
+      <c r="K19" s="65"/>
+      <c r="M19" s="1">
+        <f t="shared" ref="M19:M48" si="1">1.25*F19</f>
+        <v>896.56020192014637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="62"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -4392,15 +4494,15 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87">
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62">
         <f>'as per mistry'!A33</f>
         <v>4</v>
       </c>
-      <c r="B21" s="88" t="str">
+      <c r="B21" s="63" t="str">
         <f>'as per mistry'!B33</f>
         <v>;'Vvf O{6f RofK6f] 5fKg] sfd</v>
       </c>
@@ -4421,26 +4523,30 @@
         <v>20570.110650321589</v>
       </c>
       <c r="G21" s="10">
-        <f>V!G34</f>
-        <v>20.266717883604034</v>
+        <f>V!G35</f>
+        <v>14.463359374999998</v>
       </c>
       <c r="H21" s="10">
-        <f>V!I34</f>
+        <f>V!I35</f>
         <v>1014.97</v>
       </c>
       <c r="I21" s="10">
         <f>G21*H21</f>
-        <v>20570.110650321589</v>
-      </c>
-      <c r="J21" s="89">
+        <v>14679.875864843749</v>
+      </c>
+      <c r="J21" s="64">
         <f>I21-F21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="90"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
-      <c r="B22" s="91" t="str">
+        <v>-5890.23478547784</v>
+      </c>
+      <c r="K21" s="65"/>
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>25712.638312901985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="62"/>
+      <c r="B22" s="66" t="str">
         <f>'as per mistry'!B37</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -4454,18 +4560,22 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10">
-        <f>V!J35</f>
-        <v>2270.3506975057053</v>
-      </c>
-      <c r="J22" s="89">
+        <f>V!J36</f>
+        <v>1620.2375852812499</v>
+      </c>
+      <c r="J22" s="64">
         <f>I22-F22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="90"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
-      <c r="B23" s="92"/>
+        <v>-650.11311222445534</v>
+      </c>
+      <c r="K22" s="65"/>
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>2837.9383718821318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="62"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -4473,15 +4583,15 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="87">
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="62">
         <f>'as per mistry'!A39</f>
         <v>5</v>
       </c>
-      <c r="B24" s="88" t="str">
+      <c r="B24" s="63" t="str">
         <f>'as per mistry'!B39</f>
         <v xml:space="preserve">hu leQf kvf{ndf l;d]G6 s+lqm6 ug]{ sfd -lk=;L=;L= !M@M$_  </v>
       </c>
@@ -4502,26 +4612,30 @@
         <v>1183.0849874999999</v>
       </c>
       <c r="G24" s="10">
-        <f>V!G39</f>
+        <f>V!G40</f>
         <v>9.1124999999999998E-2</v>
       </c>
       <c r="H24" s="10">
-        <f>V!I39</f>
+        <f>V!I40</f>
         <v>12983.1</v>
       </c>
       <c r="I24" s="10">
         <f>G24*H24</f>
         <v>1183.0849874999999</v>
       </c>
-      <c r="J24" s="89">
+      <c r="J24" s="64">
         <f>I24-F24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="90"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
-      <c r="B25" s="91" t="str">
+      <c r="K24" s="65"/>
+      <c r="M24" s="1">
+        <f t="shared" si="0"/>
+        <v>1478.856234375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="62"/>
+      <c r="B25" s="66" t="str">
         <f>'as per mistry'!B42</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -4535,18 +4649,22 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10">
-        <f>V!J40</f>
+        <f>V!J41</f>
         <v>95.695310587500003</v>
       </c>
-      <c r="J25" s="89">
+      <c r="J25" s="64">
         <f>I25-F25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="90"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="92"/>
+      <c r="K25" s="65"/>
+      <c r="M25" s="1">
+        <f t="shared" si="0"/>
+        <v>119.619138234375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="62"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -4554,15 +4672,15 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="87">
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="62">
         <f>'as per mistry'!A44</f>
         <v>6</v>
       </c>
-      <c r="B27" s="88" t="str">
+      <c r="B27" s="63" t="str">
         <f>'as per mistry'!B44</f>
         <v xml:space="preserve">d]lzgsf] k|of]u u/L ;'k/ :6«Sr/df l;d]G6 s+lqm6 ug]{ sfd -!M!=%M#_ </v>
       </c>
@@ -4583,26 +4701,30 @@
         <v>35050.216934312608</v>
       </c>
       <c r="G27" s="10">
-        <f>V!G46</f>
-        <v>2.5831288412703026</v>
+        <f>V!G47</f>
+        <v>2.1478769531249999</v>
       </c>
       <c r="H27" s="10">
-        <f>V!I46</f>
+        <f>V!I47</f>
         <v>13568.9</v>
       </c>
       <c r="I27" s="10">
         <f>G27*H27</f>
-        <v>35050.216934312608</v>
-      </c>
-      <c r="J27" s="89">
+        <v>29144.327589257809</v>
+      </c>
+      <c r="J27" s="64">
         <f>I27-F27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="90"/>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="87"/>
-      <c r="B28" s="91" t="str">
+        <v>-5905.8893450547985</v>
+      </c>
+      <c r="K27" s="65"/>
+      <c r="M27" s="1">
+        <f t="shared" si="0"/>
+        <v>43812.771167890758</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="62"/>
+      <c r="B28" s="66" t="str">
         <f>'as per mistry'!B49</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -4616,18 +4738,22 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10">
-        <f>V!J47</f>
-        <v>3198.2906423034606</v>
-      </c>
-      <c r="J28" s="89">
+        <f>V!J48</f>
+        <v>2659.3852580039065</v>
+      </c>
+      <c r="J28" s="64">
         <f>I28-F28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="90"/>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
-      <c r="B29" s="92"/>
+        <v>-538.90538429955404</v>
+      </c>
+      <c r="K28" s="65"/>
+      <c r="M28" s="1">
+        <f t="shared" si="0"/>
+        <v>3997.8633028793256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="62"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -4635,15 +4761,15 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="87">
+      <c r="J29" s="64"/>
+      <c r="K29" s="65"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="62">
         <f>'as per mistry'!A51</f>
         <v>7</v>
       </c>
-      <c r="B30" s="88" t="str">
+      <c r="B30" s="63" t="str">
         <f>'as per mistry'!B51</f>
         <v>e'O{+tNnfdf lrDgL e§fsf] O{+6fsf] uf/f] l;d]G6 d;nf -!M^_ df</v>
       </c>
@@ -4664,26 +4790,30 @@
         <v>83950.33657755563</v>
       </c>
       <c r="G30" s="10">
-        <f>V!G54</f>
-        <v>5.8450003047851267</v>
+        <f>V!G56</f>
+        <v>5.8524646144468164</v>
       </c>
       <c r="H30" s="10">
-        <f>V!I54</f>
+        <f>V!I56</f>
         <v>14362.76</v>
       </c>
       <c r="I30" s="10">
         <f>G30*H30</f>
-        <v>83950.33657755563</v>
-      </c>
-      <c r="J30" s="89">
+        <v>84057.544665792157</v>
+      </c>
+      <c r="J30" s="64">
         <f>I30-F30</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="90"/>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
-      <c r="B31" s="91" t="str">
+        <v>107.20808823652624</v>
+      </c>
+      <c r="K30" s="65"/>
+      <c r="M30" s="1">
+        <f t="shared" si="0"/>
+        <v>104937.92072194454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="62"/>
+      <c r="B31" s="66" t="str">
         <f>'as per mistry'!B57</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -4697,18 +4827,22 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10">
-        <f>V!J55</f>
-        <v>7835.3760475724484</v>
-      </c>
-      <c r="J31" s="89">
+        <f>V!J57</f>
+        <v>7845.3821502388555</v>
+      </c>
+      <c r="J31" s="64">
         <f>I31-F31</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="90"/>
-    </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="92"/>
+        <v>10.00610266640706</v>
+      </c>
+      <c r="K31" s="65"/>
+      <c r="M31" s="1">
+        <f t="shared" si="0"/>
+        <v>9794.2200594655606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="62"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -4716,15 +4850,15 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="90"/>
-    </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87">
+      <c r="J32" s="64"/>
+      <c r="K32" s="65"/>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="62">
         <f>'as per mistry'!A59</f>
         <v>8</v>
       </c>
-      <c r="B33" s="88" t="str">
+      <c r="B33" s="63" t="str">
         <f>'as per mistry'!B59</f>
         <v>!@=% dL=dL= l;d]G6 afn'jf -!M$_ Knfi6/</v>
       </c>
@@ -4745,26 +4879,30 @@
         <v>14027.590368790003</v>
       </c>
       <c r="G33" s="10">
-        <f>V!G60</f>
-        <v>34.562633343492834</v>
+        <f>V!G62</f>
+        <v>39.710999999999999</v>
       </c>
       <c r="H33" s="10">
-        <f>V!I60</f>
+        <f>V!I62</f>
         <v>405.86</v>
       </c>
       <c r="I33" s="10">
         <f>G33*H33</f>
-        <v>14027.590368790003</v>
-      </c>
-      <c r="J33" s="89">
+        <v>16117.106459999999</v>
+      </c>
+      <c r="J33" s="64">
         <f>I33-F33</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="90"/>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
-      <c r="B34" s="91" t="str">
+        <v>2089.5160912099964</v>
+      </c>
+      <c r="K33" s="65"/>
+      <c r="M33" s="1">
+        <f t="shared" si="0"/>
+        <v>17534.487960987502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="62"/>
+      <c r="B34" s="66" t="str">
         <f>'as per mistry'!B63</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -4778,18 +4916,22 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10">
-        <f>V!J61</f>
-        <v>501.71325937214266</v>
-      </c>
-      <c r="J34" s="89">
+        <f>V!J63</f>
+        <v>576.44725865999999</v>
+      </c>
+      <c r="J34" s="64">
         <f>I34-F34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="90"/>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="92"/>
+        <v>74.73399928785733</v>
+      </c>
+      <c r="K34" s="65"/>
+      <c r="M34" s="1">
+        <f t="shared" si="0"/>
+        <v>627.14157421517837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="62"/>
+      <c r="B35" s="67"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -4797,15 +4939,15 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="90"/>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="156" x14ac:dyDescent="0.3">
-      <c r="A36" s="87">
+      <c r="J35" s="64"/>
+      <c r="K35" s="65"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+      <c r="A36" s="62">
         <f>'as per mistry'!A65</f>
         <v>9</v>
       </c>
-      <c r="B36" s="93" t="str">
+      <c r="B36" s="68" t="str">
         <f>'as per mistry'!B65</f>
         <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer. (खन्ने पुर्ने कार्य)</v>
       </c>
@@ -4826,27 +4968,31 @@
         <v>484.72499999999997</v>
       </c>
       <c r="G36" s="10">
-        <f>V!G65</f>
-        <v>7.5</v>
+        <f>V!G68</f>
+        <v>6.7615917403230732</v>
       </c>
       <c r="H36" s="10">
-        <f>V!I65</f>
+        <f>V!I68</f>
         <v>64.63</v>
       </c>
       <c r="I36" s="10">
         <f>G36*H36</f>
-        <v>484.72499999999997</v>
-      </c>
-      <c r="J36" s="89">
+        <v>437.00167417708019</v>
+      </c>
+      <c r="J36" s="64">
         <f>I36-F36</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="90"/>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="87"/>
-      <c r="B37" s="91" t="str">
-        <f>'[6]Sheet4 (2)'!B56</f>
+        <v>-47.723325822919776</v>
+      </c>
+      <c r="K36" s="65"/>
+      <c r="M36" s="1">
+        <f t="shared" si="0"/>
+        <v>605.90625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="62"/>
+      <c r="B37" s="66" t="str">
+        <f>'[9]Sheet4 (2)'!B56</f>
         <v>VAT calculation</v>
       </c>
       <c r="C37" s="10"/>
@@ -4859,18 +5005,22 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10">
-        <f>V!J66</f>
-        <v>52.227500000000006</v>
-      </c>
-      <c r="J37" s="89">
+        <f>V!J69</f>
+        <v>47.085471015696434</v>
+      </c>
+      <c r="J37" s="64">
         <f>I37-F37</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="90"/>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
-      <c r="B38" s="92"/>
+        <v>-5.1420289843035718</v>
+      </c>
+      <c r="K37" s="65"/>
+      <c r="M37" s="1">
+        <f t="shared" si="0"/>
+        <v>65.284375000000011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="62"/>
+      <c r="B38" s="67"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -4878,15 +5028,15 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="90"/>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="87">
+      <c r="J38" s="64"/>
+      <c r="K38" s="65"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="62">
         <f>'as per mistry'!A70</f>
         <v>10</v>
       </c>
-      <c r="B39" s="92" t="str">
+      <c r="B39" s="67" t="str">
         <f>'as per mistry'!B70</f>
         <v>Providing and laying of hand pack locally available Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
       </c>
@@ -4907,26 +5057,30 @@
         <v>4988.8350000000009</v>
       </c>
       <c r="G39" s="10">
-        <f>V!G70</f>
-        <v>1.125</v>
+        <f>V!G75</f>
+        <v>1.4336498018896677</v>
       </c>
       <c r="H39" s="10">
-        <f>V!I70</f>
+        <f>V!I75</f>
         <v>4434.5200000000004</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="97">
         <f>G39*H39</f>
-        <v>4988.8350000000009</v>
-      </c>
-      <c r="J39" s="89">
+        <v>6357.5487194757698</v>
+      </c>
+      <c r="J39" s="64">
         <f>I39-F39</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="90"/>
-    </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
-      <c r="B40" s="91" t="str">
+        <v>1368.7137194757688</v>
+      </c>
+      <c r="K39" s="65"/>
+      <c r="M39" s="1">
+        <f t="shared" si="0"/>
+        <v>6236.0437500000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="62"/>
+      <c r="B40" s="66" t="str">
         <f>'as per mistry'!B73</f>
         <v>VAT calculation</v>
       </c>
@@ -4939,19 +5093,23 @@
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="10">
-        <f>V!J71</f>
-        <v>433.41479999999996</v>
-      </c>
-      <c r="J40" s="89">
+      <c r="I40" s="97">
+        <f>V!J76</f>
+        <v>552.32448191648882</v>
+      </c>
+      <c r="J40" s="64">
         <f>I40-F40</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="90"/>
-    </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
-      <c r="B41" s="92"/>
+        <v>118.90968191648886</v>
+      </c>
+      <c r="K40" s="65"/>
+      <c r="M40" s="1">
+        <f t="shared" si="0"/>
+        <v>541.7684999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="62"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -4959,15 +5117,15 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="90"/>
-    </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A42" s="87">
+      <c r="J41" s="64"/>
+      <c r="K41" s="65"/>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A42" s="62">
         <f>'as per mistry'!A75</f>
         <v>11</v>
       </c>
-      <c r="B42" s="92" t="str">
+      <c r="B42" s="67" t="str">
         <f>'as per mistry'!B75</f>
         <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
       </c>
@@ -4988,26 +5146,30 @@
         <v>7577.0812500000002</v>
       </c>
       <c r="G42" s="10">
-        <f>V!G76</f>
-        <v>0.71250000000000002</v>
+        <f>V!G83</f>
+        <v>0.76288326729655598</v>
       </c>
       <c r="H42" s="10">
-        <f>V!I76</f>
+        <f>V!I83</f>
         <v>10634.5</v>
       </c>
       <c r="I42" s="10">
         <f>G42*H42</f>
-        <v>7577.0812500000002</v>
-      </c>
-      <c r="J42" s="89">
+        <v>8112.8821060652244</v>
+      </c>
+      <c r="J42" s="64">
         <f>I42-F42</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="90"/>
-    </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="87"/>
-      <c r="B43" s="91" t="str">
+        <v>535.80085606522425</v>
+      </c>
+      <c r="K42" s="65"/>
+      <c r="M42" s="1">
+        <f t="shared" si="0"/>
+        <v>9471.3515625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="62"/>
+      <c r="B43" s="66" t="str">
         <f>'as per mistry'!B79</f>
         <v>VAT calculation</v>
       </c>
@@ -5021,16 +5183,20 @@
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10">
-        <f>V!J77</f>
-        <v>747.43805500000019</v>
-      </c>
-      <c r="J43" s="89">
+        <f>V!J84</f>
+        <v>800.29190947394102</v>
+      </c>
+      <c r="J43" s="64">
         <f>I43-F43</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="90"/>
-    </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>52.853854473940828</v>
+      </c>
+      <c r="K43" s="65"/>
+      <c r="M43" s="1">
+        <f t="shared" si="0"/>
+        <v>934.29756875000021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="10"/>
@@ -5040,15 +5206,15 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="90"/>
-    </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A45" s="87">
+      <c r="J44" s="64"/>
+      <c r="K44" s="65"/>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A45" s="62">
         <f>'as per mistry'!A81</f>
         <v>12</v>
       </c>
-      <c r="B45" s="92" t="str">
+      <c r="B45" s="67" t="str">
         <f>'as per mistry'!B81</f>
         <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
       </c>
@@ -5069,26 +5235,30 @@
         <v>127436.26875</v>
       </c>
       <c r="G45" s="10">
-        <f>V!G81</f>
-        <v>13.125</v>
+        <f>V!G89</f>
+        <v>14.825771620677493</v>
       </c>
       <c r="H45" s="10">
-        <f>V!I81</f>
+        <f>V!I89</f>
         <v>9709.43</v>
       </c>
       <c r="I45" s="10">
         <f>G45*H45</f>
-        <v>127436.26875</v>
-      </c>
-      <c r="J45" s="89">
+        <v>143949.79174695467</v>
+      </c>
+      <c r="J45" s="64">
         <f>I45-F45</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="90"/>
-    </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="87"/>
-      <c r="B46" s="91" t="str">
+        <v>16513.522996954664</v>
+      </c>
+      <c r="K45" s="65"/>
+      <c r="M45" s="1">
+        <f t="shared" si="0"/>
+        <v>159295.3359375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="62"/>
+      <c r="B46" s="66" t="str">
         <f>'as per mistry'!B84</f>
         <v>VAT calculation</v>
       </c>
@@ -5102,16 +5272,20 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10">
-        <f>V!J82</f>
-        <v>9245.1791250000006</v>
-      </c>
-      <c r="J46" s="89">
+        <f>V!J90</f>
+        <v>10443.193470438475</v>
+      </c>
+      <c r="J46" s="64">
         <f>I46-F46</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="90"/>
-    </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1198.0143454384743</v>
+      </c>
+      <c r="K46" s="65"/>
+      <c r="M46" s="1">
+        <f t="shared" si="0"/>
+        <v>11556.473906250001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="10"/>
@@ -5121,15 +5295,15 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="90"/>
-    </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="87">
+      <c r="J47" s="64"/>
+      <c r="K47" s="65"/>
+    </row>
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="62">
         <f>'as per mistry'!A86</f>
         <v>13</v>
       </c>
-      <c r="B48" s="94" t="str">
+      <c r="B48" s="69" t="str">
         <f>'as per mistry'!B86</f>
         <v>Information board</v>
       </c>
@@ -5150,22 +5324,26 @@
         <v>500</v>
       </c>
       <c r="G48" s="10">
-        <f>V!G84</f>
+        <f>V!G92</f>
         <v>1</v>
       </c>
       <c r="H48" s="10">
-        <f>V!I84</f>
+        <f>V!I92</f>
         <v>500</v>
       </c>
       <c r="I48" s="10">
         <f>G48*H48</f>
         <v>500</v>
       </c>
-      <c r="J48" s="89">
+      <c r="J48" s="64">
         <f>I48-F48</f>
         <v>0</v>
       </c>
-      <c r="K48" s="90"/>
+      <c r="K48" s="65"/>
+      <c r="M48" s="1">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="42"/>
@@ -5177,15 +5355,15 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="90"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="95"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7">
@@ -5196,16 +5374,29 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7">
         <f>SUM(I13:I48)</f>
-        <v>469597.70601489022</v>
-      </c>
-      <c r="J50" s="96">
+        <v>459614.29448570864</v>
+      </c>
+      <c r="J50" s="71">
         <f>I50-F50</f>
-        <v>71.867017331416719</v>
+        <v>-9911.5445118501666</v>
       </c>
       <c r="K50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -5213,19 +5404,6 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5240,11 +5418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5260,122 +5438,120 @@
     <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -5410,7 +5586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -5435,406 +5611,405 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="10">
-        <f>(2.5+1.917+11.583)/3.281</f>
-        <v>4.8765620237732392</v>
+        <f>14/3.281</f>
+        <v>4.2669917708015843</v>
       </c>
       <c r="E10" s="10">
         <v>3.97</v>
       </c>
       <c r="F10" s="10">
         <f>PRODUCT(C10:E10)</f>
-        <v>116.15970740627857</v>
+        <v>50.819871990246867</v>
       </c>
       <c r="G10" s="36">
         <f>F10</f>
-        <v>116.15970740627857</v>
+        <v>50.819871990246867</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="11"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
-      <c r="B11" s="39" t="s">
-        <v>41</v>
-      </c>
+      <c r="B11" s="39"/>
       <c r="C11" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="10">
-        <f>(1+20+1)/3.281</f>
-        <v>6.7052727826882048</v>
+        <f>18/3.281</f>
+        <v>5.486132276744895</v>
       </c>
       <c r="E11" s="10">
-        <v>2.72</v>
+        <v>3.97</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" ref="F11:F18" si="0">PRODUCT(C11:E11)</f>
-        <v>91.191709844559597</v>
+        <f>PRODUCT(C11:E11)</f>
+        <v>65.33983541603169</v>
       </c>
       <c r="G11" s="36">
-        <f t="shared" ref="G11:G18" si="1">F11</f>
-        <v>91.191709844559597</v>
+        <f>F11</f>
+        <v>65.33983541603169</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="11"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" s="40">
-        <f>2*3</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="10">
-        <v>2.58</v>
+        <f>(1+20+1)/3.281</f>
+        <v>6.7052727826882048</v>
       </c>
       <c r="E12" s="10">
         <v>2.72</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="0"/>
-        <v>42.105600000000003</v>
+        <f t="shared" ref="F12:F19" si="0">PRODUCT(C12:E12)</f>
+        <v>91.191709844559597</v>
       </c>
       <c r="G12" s="36">
-        <f t="shared" si="1"/>
-        <v>42.105600000000003</v>
+        <f t="shared" ref="G12:G19" si="1">F12</f>
+        <v>91.191709844559597</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="11"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="40">
-        <v>3</v>
+        <f>2*3</f>
+        <v>6</v>
       </c>
       <c r="D13" s="10">
-        <v>0.56000000000000005</v>
+        <v>2.58</v>
       </c>
       <c r="E13" s="10">
-        <v>2.4300000000000002</v>
+        <v>2.72</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>4.0824000000000007</v>
+        <v>42.105600000000003</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" si="1"/>
-        <v>4.0824000000000007</v>
+        <v>42.105600000000003</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="11"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C14" s="40">
-        <f t="shared" ref="C14:C18" si="2">2*3</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" s="10">
-        <v>0.95</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E14" s="10">
-        <v>3.87</v>
+        <v>2.72</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>22.058999999999997</v>
+        <v>4.5696000000000003</v>
       </c>
       <c r="G14" s="36">
         <f t="shared" si="1"/>
-        <v>22.058999999999997</v>
+        <v>4.5696000000000003</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="11"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
+      <c r="B15" s="39" t="s">
+        <v>44</v>
+      </c>
       <c r="C15" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C15:C18" si="2">2*3</f>
         <v>6</v>
       </c>
       <c r="D15" s="10">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="E15" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>19.969200000000001</v>
+        <v>10.430999999999999</v>
       </c>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>19.969200000000001</v>
+        <v>10.430999999999999</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="11"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
-      <c r="B16" s="39" t="s">
-        <v>43</v>
-      </c>
+      <c r="B16" s="39"/>
       <c r="C16" s="40">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D16" s="10">
-        <v>0.38</v>
+        <v>0.86</v>
       </c>
       <c r="E16" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>8.8236000000000008</v>
+        <v>9.4428000000000001</v>
       </c>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>8.8236000000000008</v>
+        <v>9.4428000000000001</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="11"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="40">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D17" s="10">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="E17" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>4.4118000000000004</v>
+        <v>4.1724000000000006</v>
       </c>
       <c r="G17" s="36">
         <f t="shared" si="1"/>
-        <v>4.4118000000000004</v>
+        <v>4.1724000000000006</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
       <c r="K17" s="11"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
-      <c r="B18" s="39" t="s">
-        <v>46</v>
-      </c>
+      <c r="B18" s="39"/>
       <c r="C18" s="40">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="D18" s="10">
-        <v>7.3</v>
+        <v>0.19</v>
       </c>
       <c r="E18" s="10">
-        <v>2.72</v>
+        <v>1.83</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>158.84800000000001</v>
+        <v>2.0862000000000003</v>
       </c>
       <c r="G18" s="36">
         <f t="shared" si="1"/>
-        <v>158.84800000000001</v>
+        <v>2.0862000000000003</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="11"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="27">
-        <f>SUM(G10:G18)</f>
-        <v>467.65101725083821</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="26">
-        <v>181.17</v>
-      </c>
-      <c r="J19" s="27">
-        <f>G19*I19</f>
-        <v>84724.334795334347</v>
-      </c>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C19" s="40">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>158.84800000000001</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="1"/>
+        <v>158.84800000000001</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="39" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="G20" s="27">
+        <f>SUM(G10:G19)</f>
+        <v>439.00701725083815</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="26">
+        <v>181.17</v>
+      </c>
       <c r="J20" s="27">
-        <f>0.13*G19*(1871.42/18.94)</f>
-        <v>6006.9847239420951</v>
+        <f>G20*I20</f>
+        <v>79534.90131533434</v>
       </c>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="37"/>
+      <c r="B21" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="25"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="27">
+        <f>0.13*G20*(1871.42/18.94)</f>
+        <v>5639.0520902356529</v>
+      </c>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
         <v>2</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B23" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="11"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40">
-        <v>2</v>
-      </c>
-      <c r="D23" s="10">
-        <f>22/3.281</f>
-        <v>6.7052727826882048</v>
-      </c>
-      <c r="E23" s="10">
-        <f>12/3.281</f>
-        <v>3.6574215178299299</v>
-      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="36">
-        <f>PRODUCT(C23:F23)</f>
-        <v>49.048017916646423</v>
-      </c>
+      <c r="G23" s="36"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="11"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="27">
-        <f>SUM(G23:G23)</f>
-        <v>49.048017916646423</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="26">
-        <v>1070.9000000000001</v>
-      </c>
-      <c r="J24" s="27">
-        <f>G24*I24</f>
-        <v>52525.52238693666</v>
-      </c>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10">
+        <f>D19</f>
+        <v>7.3</v>
+      </c>
+      <c r="E24" s="10">
+        <f>D13</f>
+        <v>2.58</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="36">
+        <f>PRODUCT(C24:F24)</f>
+        <v>37.667999999999999</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="39" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="G25" s="27">
+        <f>SUM(G24:G24)</f>
+        <v>37.667999999999999</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="26">
+        <v>1070.9000000000001</v>
+      </c>
       <c r="J25" s="27">
-        <f>0.13*G24*8587.63/10</f>
-        <v>5475.680991319894</v>
+        <f>G25*I25</f>
+        <v>40338.661200000002</v>
       </c>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
-      <c r="B26" s="39"/>
+      <c r="B26" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="22"/>
       <c r="D26" s="23"/>
       <c r="E26" s="24"/>
@@ -5842,16 +6017,15 @@
       <c r="G26" s="27"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
+      <c r="J26" s="27">
+        <f>0.13*G25*8587.63/10</f>
+        <v>4205.2250089199997</v>
+      </c>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <v>3</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>35</v>
-      </c>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="24"/>
@@ -5862,78 +6036,78 @@
       <c r="J27" s="27"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="22">
-        <v>6</v>
-      </c>
-      <c r="D28" s="23">
-        <v>0.45</v>
-      </c>
-      <c r="E28" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="F28" s="24">
-        <f>(2.5+0.25+0.17)/3.281</f>
-        <v>0.88997256933861624</v>
-      </c>
-      <c r="G28" s="36">
-        <f>PRODUCT(C28:F28)</f>
-        <v>1.0813166717464189</v>
-      </c>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>3</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="25"/>
       <c r="I28" s="26"/>
       <c r="J28" s="27"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="22">
+        <v>6</v>
+      </c>
+      <c r="D29" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="F29" s="24">
+        <f>(2.5+0.25+0.17)/3.281</f>
+        <v>0.88997256933861624</v>
+      </c>
+      <c r="G29" s="36">
+        <f>PRODUCT(C29:F29)</f>
+        <v>1.0813166717464189</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="27">
-        <f>SUM(G28:G28)</f>
-        <v>1.0813166717464189</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="26">
-        <v>663.31</v>
-      </c>
-      <c r="J29" s="27">
-        <f>G29*I29</f>
-        <v>717.2481615361171</v>
-      </c>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="39"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="G30" s="27">
+        <f>SUM(G29:G29)</f>
+        <v>1.0813166717464189</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J30" s="27">
+        <f>G30*I30</f>
+        <v>717.2481615361171</v>
+      </c>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
-        <v>4</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>48</v>
-      </c>
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="22"/>
       <c r="D31" s="23"/>
       <c r="E31" s="24"/>
@@ -5944,105 +6118,114 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="22">
-        <f>C28</f>
-        <v>6</v>
-      </c>
-      <c r="D32" s="23">
-        <f>D28</f>
-        <v>0.45</v>
-      </c>
-      <c r="E32" s="24">
-        <f>E28</f>
-        <v>0.45</v>
-      </c>
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>4</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="24"/>
-      <c r="G32" s="36">
-        <f>PRODUCT(C32:F32)</f>
-        <v>1.2150000000000001</v>
-      </c>
+      <c r="G32" s="27"/>
       <c r="H32" s="25"/>
       <c r="I32" s="26"/>
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C33" s="22">
-        <v>2</v>
+        <f>C29</f>
+        <v>6</v>
       </c>
       <c r="D33" s="23">
-        <f>(11.5)/3.281</f>
-        <v>3.5050289545870159</v>
+        <f>D29</f>
+        <v>0.45</v>
       </c>
       <c r="E33" s="24">
-        <f>(8.917)/3.281</f>
-        <v>2.7177689728741234</v>
+        <f>E29</f>
+        <v>0.45</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="36">
         <f>PRODUCT(C33:F33)</f>
-        <v>19.051717883604034</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="26"/>
       <c r="J33" s="27"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="C34" s="22">
+        <v>1</v>
+      </c>
+      <c r="D34" s="23">
+        <f>((5.83+5.785)/2)/1.6</f>
+        <v>3.6296874999999997</v>
+      </c>
+      <c r="E34" s="24">
+        <f>3.65</f>
+        <v>3.65</v>
+      </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="27">
-        <f>SUM(G32:G33)</f>
-        <v>20.266717883604034</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="26">
-        <v>1014.97</v>
-      </c>
-      <c r="J34" s="27">
-        <f>G34*I34</f>
-        <v>20570.110650321589</v>
-      </c>
+      <c r="G34" s="36">
+        <f>PRODUCT(C34:F34)</f>
+        <v>13.248359374999998</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
       <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="1">
+        <f>G34*I35</f>
+        <v>13446.687314843748</v>
+      </c>
+      <c r="O34" s="1">
+        <f>5.83*3.6*0.15*I75</f>
+        <v>13960.755864000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="39" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
+      <c r="G35" s="27">
+        <f>SUM(G33:G34)</f>
+        <v>14.463359374999998</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="26">
+        <v>1014.97</v>
+      </c>
       <c r="J35" s="27">
-        <f>0.13*G34*8617.2/10</f>
-        <v>2270.3506975057053</v>
+        <f>G35*I35</f>
+        <v>14679.875864843749</v>
       </c>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
-      <c r="B36" s="39"/>
+      <c r="B36" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="C36" s="22"/>
       <c r="D36" s="23"/>
       <c r="E36" s="24"/>
@@ -6050,16 +6233,15 @@
       <c r="G36" s="27"/>
       <c r="H36" s="25"/>
       <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
+      <c r="J36" s="27">
+        <f>0.13*G35*8617.2/10</f>
+        <v>1620.2375852812499</v>
+      </c>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
-        <v>5</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>38</v>
-      </c>
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="22"/>
       <c r="D37" s="23"/>
       <c r="E37" s="24"/>
@@ -6070,81 +6252,82 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="22">
-        <f>C32</f>
-        <v>6</v>
-      </c>
-      <c r="D38" s="23">
-        <f>D32</f>
-        <v>0.45</v>
-      </c>
-      <c r="E38" s="24">
-        <f>E32</f>
-        <v>0.45</v>
-      </c>
-      <c r="F38" s="24">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G38" s="36">
-        <f>PRODUCT(C38:F38)</f>
-        <v>9.1124999999999998E-2</v>
-      </c>
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>5</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="25"/>
       <c r="I38" s="26"/>
       <c r="J38" s="27"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="27">
-        <f>SUM(G38:G38)</f>
+        <v>36</v>
+      </c>
+      <c r="C39" s="22">
+        <f>C33</f>
+        <v>6</v>
+      </c>
+      <c r="D39" s="23">
+        <f>D33</f>
+        <v>0.45</v>
+      </c>
+      <c r="E39" s="24">
+        <f>E33</f>
+        <v>0.45</v>
+      </c>
+      <c r="F39" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G39" s="36">
+        <f>PRODUCT(C39:F39)</f>
         <v>9.1124999999999998E-2</v>
       </c>
-      <c r="H39" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="26">
-        <v>12983.1</v>
-      </c>
-      <c r="J39" s="27">
-        <f>G39*I39</f>
-        <v>1183.0849874999999</v>
-      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="39" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="23"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="26"/>
+      <c r="G40" s="27">
+        <f>SUM(G39:G39)</f>
+        <v>9.1124999999999998E-2</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="26">
+        <v>12983.1</v>
+      </c>
       <c r="J40" s="27">
-        <f>0.13*G39*8078.11</f>
-        <v>95.695310587500003</v>
+        <f>G40*I40</f>
+        <v>1183.0849874999999</v>
       </c>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
-      <c r="B41" s="39"/>
+      <c r="B41" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="C41" s="22"/>
       <c r="D41" s="23"/>
       <c r="E41" s="24"/>
@@ -6152,16 +6335,15 @@
       <c r="G41" s="27"/>
       <c r="H41" s="25"/>
       <c r="I41" s="26"/>
-      <c r="J41" s="27"/>
+      <c r="J41" s="27">
+        <f>0.13*G40*8078.11</f>
+        <v>95.695310587500003</v>
+      </c>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
-        <v>6</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>39</v>
-      </c>
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="22"/>
       <c r="D42" s="23"/>
       <c r="E42" s="24"/>
@@ -6172,134 +6354,135 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="22">
-        <f>C38</f>
+    <row r="43" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
         <v>6</v>
       </c>
-      <c r="D43" s="23">
-        <f>D38</f>
-        <v>0.45</v>
-      </c>
-      <c r="E43" s="24">
-        <f>E38</f>
-        <v>0.45</v>
-      </c>
-      <c r="F43" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="G43" s="36">
-        <f>PRODUCT(C43:F43)</f>
-        <v>0.91125000000000012</v>
-      </c>
+      <c r="B43" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="25"/>
       <c r="I43" s="26"/>
       <c r="J43" s="27"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
-      <c r="B44" s="39"/>
+      <c r="B44" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="C44" s="22">
-        <f>C43</f>
+        <f>C39</f>
         <v>6</v>
       </c>
       <c r="D44" s="23">
-        <v>0.3</v>
+        <f>D39</f>
+        <v>0.45</v>
       </c>
       <c r="E44" s="24">
-        <v>0.3</v>
+        <f>E39</f>
+        <v>0.45</v>
       </c>
       <c r="F44" s="24">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="G44" s="36">
         <f>PRODUCT(C44:F44)</f>
-        <v>0.24299999999999997</v>
+        <v>0.91125000000000012</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="26"/>
       <c r="J44" s="27"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="39" t="s">
-        <v>50</v>
-      </c>
+      <c r="B45" s="39"/>
       <c r="C45" s="22">
-        <v>2</v>
+        <f>C44</f>
+        <v>6</v>
       </c>
       <c r="D45" s="23">
-        <f>D33</f>
-        <v>3.5050289545870159</v>
+        <v>0.3</v>
       </c>
       <c r="E45" s="24">
-        <f>E33</f>
-        <v>2.7177689728741234</v>
+        <v>0.3</v>
       </c>
       <c r="F45" s="24">
-        <v>7.4999999999999997E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G45" s="36">
         <f>PRODUCT(C45:F45)</f>
-        <v>1.4288788412703026</v>
+        <v>0.24299999999999997</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="26"/>
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="27">
-        <f>SUM(G43:G45)</f>
-        <v>2.5831288412703026</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="26">
-        <v>13568.9</v>
-      </c>
-      <c r="J46" s="27">
-        <f>G46*I46</f>
-        <v>35050.216934312608</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C46" s="22">
+        <v>1</v>
+      </c>
+      <c r="D46" s="23">
+        <f>D34</f>
+        <v>3.6296874999999997</v>
+      </c>
+      <c r="E46" s="24">
+        <f>E34</f>
+        <v>3.65</v>
+      </c>
+      <c r="F46" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G46" s="36">
+        <f>PRODUCT(C46:F46)</f>
+        <v>0.99362695312499982</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="23"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="26"/>
+      <c r="G47" s="27">
+        <f>SUM(G44:G46)</f>
+        <v>2.1478769531249999</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="26">
+        <v>13568.9</v>
+      </c>
       <c r="J47" s="27">
-        <f>0.13*G46*9524.2</f>
-        <v>3198.2906423034606</v>
+        <f>G47*I47</f>
+        <v>29144.327589257809</v>
       </c>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
-      <c r="B48" s="39"/>
+      <c r="B48" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
       <c r="E48" s="24"/>
@@ -6307,16 +6490,15 @@
       <c r="G48" s="27"/>
       <c r="H48" s="25"/>
       <c r="I48" s="26"/>
-      <c r="J48" s="27"/>
+      <c r="J48" s="27">
+        <f>0.13*G47*9524.2</f>
+        <v>2659.3852580039065</v>
+      </c>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
-        <v>7</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>47</v>
-      </c>
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="22"/>
       <c r="D49" s="23"/>
       <c r="E49" s="24"/>
@@ -6327,43 +6509,35 @@
       <c r="J49" s="27"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="22">
-        <f>2*2</f>
-        <v>4</v>
-      </c>
-      <c r="D50" s="23">
-        <f>8.42/3.281</f>
-        <v>2.5662907650106672</v>
-      </c>
-      <c r="E50" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="F50" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="G50" s="36">
-        <f>PRODUCT(C50:F50)</f>
-        <v>0.70829625114294414</v>
-      </c>
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
+        <v>7</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="25"/>
       <c r="I50" s="26"/>
       <c r="J50" s="27"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
-      <c r="B51" s="39"/>
+      <c r="B51" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="C51" s="22">
-        <v>3</v>
+        <f>2*2</f>
+        <v>4</v>
       </c>
       <c r="D51" s="23">
-        <f>11.25/3.281</f>
-        <v>3.4288326729655592</v>
+        <f>8.42/3.281</f>
+        <v>2.5662907650106672</v>
       </c>
       <c r="E51" s="24">
         <v>0.23</v>
@@ -6373,127 +6547,144 @@
       </c>
       <c r="G51" s="36">
         <f>PRODUCT(C51:F51)</f>
-        <v>0.70976836330387083</v>
+        <v>0.70829625114294414</v>
       </c>
       <c r="H51" s="25"/>
       <c r="I51" s="26"/>
       <c r="J51" s="27"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
-      <c r="B52" s="39" t="s">
-        <v>52</v>
-      </c>
+      <c r="B52" s="39"/>
       <c r="C52" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" s="23">
-        <f>8.917/3.281</f>
-        <v>2.7177689728741234</v>
+        <f>11.25/3.281</f>
+        <v>3.4288326729655592</v>
       </c>
       <c r="E52" s="24">
         <v>0.23</v>
       </c>
       <c r="F52" s="24">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="G52" s="36">
-        <f t="shared" ref="G52:G53" si="3">PRODUCT(C52:F52)</f>
-        <v>2.2503127095397741</v>
+        <f>PRODUCT(C52:F52)</f>
+        <v>0.70976836330387083</v>
       </c>
       <c r="H52" s="25"/>
       <c r="I52" s="26"/>
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
-      <c r="B53" s="39"/>
+      <c r="B53" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="C53" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53" s="23">
-        <f>(11.5)/3.281</f>
-        <v>3.5050289545870159</v>
+        <f>3.67+0.9+0.94+3.14+3.24+3.14+3.17</f>
+        <v>18.200000000000003</v>
       </c>
       <c r="E53" s="24">
         <v>0.23</v>
       </c>
       <c r="F53" s="24">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G53" s="36">
-        <f t="shared" si="3"/>
-        <v>2.1766229807985376</v>
+        <f t="shared" ref="G53:G55" si="3">PRODUCT(C53:F53)</f>
+        <v>4.1860000000000008</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="26"/>
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="27">
-        <f>SUM(G50:G53)</f>
-        <v>5.8450003047851267</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I54" s="26">
-        <v>14362.76</v>
-      </c>
-      <c r="J54" s="27">
-        <f>G54*I54</f>
-        <v>83950.33657755563</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C54" s="22">
+        <v>1</v>
+      </c>
+      <c r="D54" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F54" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G54" s="36">
+        <f t="shared" si="3"/>
+        <v>0.12420000000000002</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
-      <c r="B55" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="27"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="22">
+        <v>1</v>
+      </c>
+      <c r="D55" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="E55" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F55" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G55" s="36">
+        <f t="shared" si="3"/>
+        <v>0.12420000000000002</v>
+      </c>
       <c r="H55" s="25"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="27">
-        <f>0.13*G54*10311.74</f>
-        <v>7835.3760475724484</v>
-      </c>
+      <c r="J55" s="27"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
-      <c r="B56" s="39"/>
+      <c r="B56" s="39" t="s">
+        <v>25</v>
+      </c>
       <c r="C56" s="22"/>
       <c r="D56" s="23"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="27"/>
+      <c r="G56" s="27">
+        <f>SUM(G51:G55)</f>
+        <v>5.8524646144468164</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="26">
+        <v>14362.76</v>
+      </c>
+      <c r="J56" s="27">
+        <f>G56*I56</f>
+        <v>84057.544665792157</v>
+      </c>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A57" s="21">
-        <v>8</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>53</v>
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="23"/>
@@ -6502,486 +6693,435 @@
       <c r="G57" s="27"/>
       <c r="H57" s="25"/>
       <c r="I57" s="26"/>
-      <c r="J57" s="27"/>
+      <c r="J57" s="27">
+        <f>0.13*G56*10311.74</f>
+        <v>7845.3821502388555</v>
+      </c>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
-      <c r="B58" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="22">
-        <f>2*2</f>
-        <v>4</v>
-      </c>
-      <c r="D58" s="23">
-        <f>20/3.281</f>
-        <v>6.0957025297165499</v>
-      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="G58" s="36">
-        <f t="shared" ref="G58:G59" si="4">PRODUCT(C58:F58)</f>
-        <v>21.94452910697958</v>
-      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="25"/>
       <c r="I58" s="26"/>
       <c r="J58" s="27"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="22">
-        <f>2*2</f>
-        <v>4</v>
-      </c>
-      <c r="D59" s="23">
-        <f>(13-1.5)/3.281</f>
-        <v>3.5050289545870159</v>
-      </c>
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A59" s="21">
+        <v>8</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="G59" s="36">
-        <f t="shared" si="4"/>
-        <v>12.618104236513258</v>
-      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="25"/>
       <c r="I59" s="26"/>
       <c r="J59" s="27"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="C60" s="22">
+        <v>1</v>
+      </c>
+      <c r="D60" s="23">
+        <f>5.83+5.785+3.67+0.94+0.9+0.23*2</f>
+        <v>17.585000000000001</v>
+      </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="27">
-        <f>SUM(G56:G59)</f>
-        <v>34.562633343492834</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="26">
-        <v>405.86</v>
-      </c>
-      <c r="J60" s="27">
-        <f>G60*I60</f>
-        <v>14027.590368790003</v>
-      </c>
+      <c r="F60" s="24">
+        <v>1</v>
+      </c>
+      <c r="G60" s="36">
+        <f t="shared" ref="G60:G61" si="4">PRODUCT(C60:F60)</f>
+        <v>17.585000000000001</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
-      <c r="B61" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="22">
+        <v>1</v>
+      </c>
+      <c r="D61" s="23">
+        <f>3.17+3.14+4.18+3.14+3.24+1.2+1.17</f>
+        <v>19.240000000000002</v>
+      </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="27"/>
+      <c r="F61" s="24">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G61" s="36">
+        <f t="shared" si="4"/>
+        <v>22.126000000000001</v>
+      </c>
       <c r="H61" s="25"/>
       <c r="I61" s="26"/>
-      <c r="J61" s="27">
-        <f>0.13*G60*11166.2/100</f>
-        <v>501.71325937214266</v>
-      </c>
+      <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
-      <c r="B62" s="37"/>
+      <c r="B62" s="39" t="s">
+        <v>25</v>
+      </c>
       <c r="C62" s="22"/>
       <c r="D62" s="23"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="27"/>
+      <c r="G62" s="27">
+        <f>SUM(G60:G61)</f>
+        <v>39.710999999999999</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="26">
+        <v>405.86</v>
+      </c>
+      <c r="J62" s="27">
+        <f>G62*I62</f>
+        <v>16117.106459999999</v>
+      </c>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:19" ht="138" x14ac:dyDescent="0.3">
-      <c r="A63" s="42">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27">
+        <f>0.13*G62*11166.2/100</f>
+        <v>576.44725865999999</v>
+      </c>
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+      <c r="A65" s="42">
         <v>9</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B65" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="N63" t="s">
-        <v>55</v>
-      </c>
-      <c r="O63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="D64" s="46">
-        <f>D80</f>
-        <v>6</v>
-      </c>
-      <c r="E64" s="46">
-        <f>F80/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="F64" s="46">
-        <v>2</v>
-      </c>
-      <c r="G64" s="47">
-        <f>PRODUCT(C64:F64)</f>
-        <v>7.5</v>
-      </c>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="24"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-    </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="26">
-        <f>SUM(G64:G64)</f>
-        <v>7.5</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I65" s="26">
-        <v>64.63</v>
-      </c>
-      <c r="J65" s="50">
-        <f>G65*I65</f>
-        <v>484.72499999999997</v>
-      </c>
-      <c r="K65" s="24"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-    </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="50">
-        <f>0.13*G65*19284/360</f>
-        <v>52.227500000000006</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C66" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="46">
+        <f>D87</f>
+        <v>6</v>
+      </c>
+      <c r="E66" s="46">
+        <f>F87/2</f>
+        <v>1.1746926749974602</v>
+      </c>
+      <c r="F66" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="G66" s="47">
+        <f>PRODUCT(C66:F66)</f>
+        <v>5.2861170374885713</v>
+      </c>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
       <c r="K66" s="24"/>
-      <c r="M66" s="49"/>
+      <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-    </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="45"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="50"/>
+      <c r="C67" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="46">
+        <f>D88</f>
+        <v>5.4</v>
+      </c>
+      <c r="E67" s="46">
+        <f>E73</f>
+        <v>0.5</v>
+      </c>
+      <c r="F67" s="46">
+        <f>F88</f>
+        <v>1.092944224321853</v>
+      </c>
+      <c r="G67" s="47">
+        <f>PRODUCT(C67:F67)</f>
+        <v>1.4754747028345017</v>
+      </c>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
       <c r="K67" s="24"/>
-      <c r="M67" s="49"/>
+      <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
-    </row>
-    <row r="68" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="21">
-        <v>10</v>
-      </c>
-      <c r="B68" s="43" t="s">
-        <v>64</v>
+    </row>
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="23"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="50"/>
+      <c r="G68" s="26">
+        <f>SUM(G66:G67)</f>
+        <v>6.7615917403230732</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" s="26">
+        <v>64.63</v>
+      </c>
+      <c r="J68" s="50">
+        <f>G68*I68</f>
+        <v>437.00167417708019</v>
+      </c>
       <c r="K68" s="24"/>
-      <c r="M68" s="49"/>
+      <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
-    </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
       <c r="B69" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="50">
+        <f>0.13*G68*19284/360</f>
+        <v>47.085471015696434</v>
+      </c>
+      <c r="K69" s="24"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="21"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="24"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="21">
+        <v>10</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="24"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="44">
+      <c r="C72" s="44">
         <v>1</v>
       </c>
-      <c r="D69" s="46">
-        <f>D74</f>
+      <c r="D72" s="46">
+        <f>D79</f>
         <v>6</v>
       </c>
-      <c r="E69" s="46">
-        <f>E74</f>
-        <v>1.25</v>
-      </c>
-      <c r="F69" s="46">
+      <c r="E72" s="46">
+        <f>E79</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="F72" s="46">
         <v>0.15</v>
       </c>
-      <c r="G69" s="47">
-        <f>PRODUCT(C69:F69)</f>
-        <v>1.125</v>
-      </c>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="24"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
-    </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="48"/>
-      <c r="B70" s="45" t="s">
+      <c r="G72" s="47">
+        <f>PRODUCT(C72:F72)</f>
+        <v>1.0286498018896677</v>
+      </c>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="24"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="21"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="44">
+        <f>C81</f>
+        <v>1</v>
+      </c>
+      <c r="D73" s="46">
+        <f>D81</f>
+        <v>5.4</v>
+      </c>
+      <c r="E73" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F73" s="46">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="G73" s="47">
+        <f>PRODUCT(C73:F73)</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="24"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="99">
+        <v>0</v>
+      </c>
+      <c r="D74" s="100">
+        <f>3.14+3.24+3.17+3.14+3.67+0.9+0.94+1.8</f>
+        <v>20</v>
+      </c>
+      <c r="E74" s="101">
+        <v>0.23</v>
+      </c>
+      <c r="F74" s="101">
+        <v>0.15</v>
+      </c>
+      <c r="G74" s="97">
+        <f>PRODUCT(C74:F74)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="25"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="48"/>
+      <c r="B75" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53">
-        <f>SUM(G69:G69)</f>
-        <v>1.125</v>
-      </c>
-      <c r="H70" s="53" t="s">
+      <c r="C75" s="51"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="53">
+        <f>SUM(G72:G74)</f>
+        <v>1.4336498018896677</v>
+      </c>
+      <c r="H75" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I70" s="53">
+      <c r="I75" s="53">
         <v>4434.5200000000004</v>
       </c>
-      <c r="J70" s="54">
-        <f>G70*I70</f>
-        <v>4988.8350000000009</v>
-      </c>
-      <c r="K70" s="44"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="48"/>
-      <c r="B71" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="55">
-        <f>0.13*G70*(14817.6/5)</f>
-        <v>433.41479999999996</v>
-      </c>
-      <c r="K71" s="44"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="48"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="44"/>
-    </row>
-    <row r="73" spans="1:19" ht="69" x14ac:dyDescent="0.3">
-      <c r="A73" s="21">
-        <v>11</v>
-      </c>
-      <c r="B73" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="24"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="49"/>
-    </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="44">
-        <v>1</v>
-      </c>
-      <c r="D74" s="46">
-        <f>D80</f>
-        <v>6</v>
-      </c>
-      <c r="E74" s="46">
-        <f>F80/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="F74" s="46">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G74" s="47">
-        <f>PRODUCT(C74:F74)</f>
-        <v>0.5625</v>
-      </c>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="24"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
-    </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="44">
-        <v>1</v>
-      </c>
-      <c r="D75" s="46">
-        <f>D74</f>
-        <v>6</v>
-      </c>
-      <c r="E75" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="F75" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="G75" s="47">
-        <f>PRODUCT(C75:F75)</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="24"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="49"/>
-    </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J75" s="54">
+        <f>G75*I75</f>
+        <v>6357.5487194757698</v>
+      </c>
+      <c r="K75" s="44"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="48"/>
       <c r="B76" s="45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
       <c r="E76" s="52"/>
       <c r="F76" s="52"/>
-      <c r="G76" s="53">
-        <f>SUM(G74:G75)</f>
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="H76" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="I76" s="53">
-        <v>10634.5</v>
-      </c>
-      <c r="J76" s="54">
-        <f>G76*I76</f>
-        <v>7577.0812500000002</v>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="55">
+        <f>0.13*G75*(14817.6/5)</f>
+        <v>552.32448191648882</v>
       </c>
       <c r="K76" s="44"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="48"/>
-      <c r="B77" s="45" t="s">
-        <v>60</v>
-      </c>
+      <c r="B77" s="45"/>
       <c r="C77" s="51"/>
       <c r="D77" s="52"/>
       <c r="E77" s="52"/>
@@ -6989,432 +7129,576 @@
       <c r="G77" s="52"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
-      <c r="J77" s="55">
-        <f>0.13*G76*((114907.3+6135.3)/15)</f>
-        <v>747.43805500000019</v>
-      </c>
+      <c r="J77" s="55"/>
       <c r="K77" s="44"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="48"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="52"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="44"/>
-    </row>
-    <row r="79" spans="1:19" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="56">
-        <v>12</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="57"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="42"/>
-    </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+      <c r="A78" s="21">
+        <v>11</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="24"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
+      <c r="B79" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="44">
+        <v>1</v>
+      </c>
+      <c r="D79" s="46">
+        <f>D87</f>
+        <v>6</v>
+      </c>
+      <c r="E79" s="46">
+        <f>((3.5+4)/2/3.281)</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="F79" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G79" s="47">
+        <f>PRODUCT(C79:F79)</f>
+        <v>0.34288326729655594</v>
+      </c>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="24"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
-      <c r="B80" s="45" t="s">
-        <v>57</v>
-      </c>
+      <c r="B80" s="45"/>
       <c r="C80" s="44">
         <v>1</v>
       </c>
       <c r="D80" s="46">
+        <f>D79</f>
         <v>6</v>
       </c>
       <c r="E80" s="46">
-        <f>((F80/2+0.5)/2)</f>
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="F80" s="46">
-        <v>2.5</v>
+        <v>0.05</v>
       </c>
       <c r="G80" s="47">
         <f>PRODUCT(C80:F80)</f>
-        <v>13.125</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="H80" s="48"/>
       <c r="I80" s="48"/>
       <c r="J80" s="48"/>
       <c r="K80" s="24"/>
-      <c r="M80" s="49"/>
+      <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="49"/>
-    </row>
-    <row r="81" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="48"/>
-      <c r="B81" s="45" t="s">
+    </row>
+    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="44">
+        <v>1</v>
+      </c>
+      <c r="D81" s="46">
+        <f>D88</f>
+        <v>5.4</v>
+      </c>
+      <c r="E81" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F81" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G81" s="47">
+        <f>PRODUCT(C81:F81)</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="24"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="44">
+        <v>1</v>
+      </c>
+      <c r="D82" s="46">
+        <f>D81</f>
+        <v>5.4</v>
+      </c>
+      <c r="E82" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F82" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G82" s="47">
+        <f>PRODUCT(C82:F82)</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="24"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="48"/>
+      <c r="B83" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="53">
-        <f>SUM(G80:G80)</f>
-        <v>13.125</v>
-      </c>
-      <c r="H81" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="I81" s="53">
-        <v>9709.43</v>
-      </c>
-      <c r="J81" s="54">
-        <f>G81*I81</f>
-        <v>127436.26875</v>
-      </c>
-      <c r="K81" s="44"/>
-    </row>
-    <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="48"/>
-      <c r="B82" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" s="51"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="55">
-        <f>0.13*G81*((27092.1)/5)</f>
-        <v>9245.1791250000006</v>
-      </c>
-      <c r="K82" s="44"/>
-    </row>
-    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="48"/>
-      <c r="B83" s="45"/>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
       <c r="E83" s="52"/>
       <c r="F83" s="52"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="54"/>
+      <c r="G83" s="53">
+        <f>SUM(G79:G82)</f>
+        <v>0.76288326729655598</v>
+      </c>
+      <c r="H83" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="I83" s="53">
+        <v>10634.5</v>
+      </c>
+      <c r="J83" s="54">
+        <f>G83*I83</f>
+        <v>8112.8821060652244</v>
+      </c>
       <c r="K83" s="44"/>
     </row>
-    <row r="84" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21">
+    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="48"/>
+      <c r="B84" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="51"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="55">
+        <f>0.13*G83*((114907.3+6135.3)/15)</f>
+        <v>800.29190947394102</v>
+      </c>
+      <c r="K84" s="44"/>
+    </row>
+    <row r="85" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="48"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="44"/>
+    </row>
+    <row r="86" spans="1:22" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="56">
+        <v>12</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="57"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="42"/>
+    </row>
+    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="21"/>
+      <c r="B87" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="44">
+        <v>1</v>
+      </c>
+      <c r="D87" s="46">
+        <v>6</v>
+      </c>
+      <c r="E87" s="46">
+        <f>((((3.5+4)/2)/3.281)+0.5)/2</f>
+        <v>0.82147211216092653</v>
+      </c>
+      <c r="F87" s="46">
+        <f>(((89/12)+8)/2)/3.281</f>
+        <v>2.3493853499949204</v>
+      </c>
+      <c r="G87" s="47">
+        <f>PRODUCT(C87:F87)</f>
+        <v>11.579727274441588</v>
+      </c>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="24"/>
+      <c r="M87" s="1">
+        <f>89/12</f>
+        <v>7.416666666666667</v>
+      </c>
+      <c r="N87" s="1">
+        <f>7.5/2</f>
+        <v>3.75</v>
+      </c>
+      <c r="O87">
+        <f>N87/3.281</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="P87">
+        <f>(O87+0.5)/2</f>
+        <v>0.82147211216092653</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="21"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="44">
+        <v>1</v>
+      </c>
+      <c r="D88" s="46">
+        <v>5.4</v>
+      </c>
+      <c r="E88" s="46">
+        <f>(0.6+0.5)/2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F88" s="46">
+        <f>((3.5+4)/2/3.281)-0.05</f>
+        <v>1.092944224321853</v>
+      </c>
+      <c r="G88" s="47">
+        <f>PRODUCT(C88:F88)</f>
+        <v>3.2460443462359043</v>
+      </c>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="24"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="48"/>
+      <c r="B89" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="51"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="53">
+        <f>SUM(G87:G88)</f>
+        <v>14.825771620677493</v>
+      </c>
+      <c r="H89" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="I89" s="53">
+        <v>9709.43</v>
+      </c>
+      <c r="J89" s="54">
+        <f>G89*I89</f>
+        <v>143949.79174695467</v>
+      </c>
+      <c r="K89" s="44"/>
+    </row>
+    <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="48"/>
+      <c r="B90" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="51"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="55">
+        <f>0.13*G89*((27092.1)/5)</f>
+        <v>10443.193470438475</v>
+      </c>
+      <c r="K90" s="44"/>
+    </row>
+    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="48"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="44"/>
+    </row>
+    <row r="92" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="21">
         <v>13</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B92" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="22">
+      <c r="C92" s="22">
         <v>1</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="36">
-        <f>PRODUCT(C84:F84)</f>
+      <c r="D92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="36">
+        <f>PRODUCT(C92:F92)</f>
         <v>1</v>
       </c>
-      <c r="H84" s="25" t="s">
+      <c r="H92" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I84" s="26">
+      <c r="I92" s="26">
         <v>500</v>
       </c>
-      <c r="J84" s="27">
-        <f>G84*I84</f>
+      <c r="J92" s="27">
+        <f>G92*I92</f>
         <v>500</v>
       </c>
-      <c r="K84" s="24"/>
-    </row>
-    <row r="85" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="24"/>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A86" s="9"/>
-      <c r="B86" s="20" t="s">
+      <c r="K92" s="24"/>
+    </row>
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="21"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="24"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A94" s="9"/>
+      <c r="B94" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7">
-        <f>SUM(J10:J85)</f>
-        <v>469597.70601489022</v>
-      </c>
-      <c r="K86" s="4"/>
-      <c r="M86" s="29"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="M87" s="29"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="31"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="30"/>
-      <c r="T87" s="30"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="29"/>
-      <c r="Y87" s="29"/>
-      <c r="Z87" s="29"/>
-      <c r="AA87" s="29"/>
-      <c r="AB87" s="29"/>
-      <c r="AC87" s="29"/>
-      <c r="AD87" s="29"/>
-      <c r="AE87" s="29"/>
-    </row>
-    <row r="88" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="11" t="s">
+      <c r="C94" s="8"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7">
+        <f>SUM(J10:J93)</f>
+        <v>459614.29448570864</v>
+      </c>
+      <c r="K94" s="4"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M95" s="31"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+    </row>
+    <row r="96" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="64">
-        <f>J86</f>
-        <v>469597.70601489022</v>
-      </c>
-      <c r="D88" s="65"/>
-      <c r="E88" s="10">
+      <c r="C96" s="72">
+        <f>J94</f>
+        <v>459614.29448570864</v>
+      </c>
+      <c r="D96" s="73"/>
+      <c r="E96" s="10">
         <v>100</v>
       </c>
-      <c r="F88" s="12"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="16"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="30"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="30"/>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30"/>
-      <c r="T88" s="30"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="12"/>
-      <c r="Y88" s="12"/>
-      <c r="Z88" s="12"/>
-      <c r="AA88" s="12"/>
-      <c r="AB88" s="12"/>
-      <c r="AC88" s="12"/>
-      <c r="AD88" s="12"/>
-      <c r="AE88" s="12"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B89" s="11" t="s">
+      <c r="F96" s="12"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="16"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B97" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="67">
+      <c r="C97" s="76">
         <v>400000</v>
       </c>
-      <c r="D89" s="68"/>
-      <c r="E89" s="10"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="29"/>
-      <c r="V89" s="29"/>
-      <c r="W89" s="29"/>
-      <c r="X89" s="29"/>
-      <c r="Y89" s="29"/>
-      <c r="Z89" s="29"/>
-      <c r="AA89" s="29"/>
-      <c r="AB89" s="29"/>
-      <c r="AC89" s="29"/>
-      <c r="AD89" s="29"/>
-      <c r="AE89" s="29"/>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B90" s="11" t="s">
+      <c r="D97" s="77"/>
+      <c r="E97" s="10"/>
+      <c r="M97" s="30"/>
+      <c r="N97" s="30"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="29"/>
+      <c r="V97" s="29"/>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B98" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="67">
-        <f>C89-C92-C93</f>
+      <c r="C98" s="76">
+        <f>C97-C100-C101</f>
         <v>380000</v>
       </c>
-      <c r="D90" s="68"/>
-      <c r="E90" s="10">
-        <f>C90/C88*100</f>
-        <v>80.920327150821052</v>
-      </c>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="29"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="29"/>
-      <c r="W90" s="29"/>
-      <c r="X90" s="29"/>
-      <c r="Y90" s="29"/>
-      <c r="Z90" s="29"/>
-      <c r="AA90" s="29"/>
-      <c r="AB90" s="29"/>
-      <c r="AC90" s="29"/>
-      <c r="AD90" s="29"/>
-      <c r="AE90" s="29"/>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B91" s="11" t="s">
+      <c r="D98" s="77"/>
+      <c r="E98" s="10">
+        <f>C98/C96*100</f>
+        <v>82.678020366012746</v>
+      </c>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B99" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="69">
-        <f>C88-C90</f>
-        <v>89597.706014890224</v>
-      </c>
-      <c r="D91" s="69"/>
-      <c r="E91" s="10">
-        <f>100-E90</f>
-        <v>19.079672849178948</v>
-      </c>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="29"/>
-      <c r="V91" s="29"/>
-      <c r="W91" s="29"/>
-      <c r="X91" s="29"/>
-      <c r="Y91" s="29"/>
-      <c r="Z91" s="29"/>
-      <c r="AA91" s="29"/>
-      <c r="AB91" s="29"/>
-      <c r="AC91" s="29"/>
-      <c r="AD91" s="29"/>
-      <c r="AE91" s="29"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B92" s="11" t="s">
+      <c r="C99" s="78">
+        <f>C96-C98</f>
+        <v>79614.29448570864</v>
+      </c>
+      <c r="D99" s="78"/>
+      <c r="E99" s="10">
+        <f>100-E98</f>
+        <v>17.321979633987254</v>
+      </c>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B100" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="64">
-        <f>C89*0.03</f>
+      <c r="C100" s="72">
+        <f>C97*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D92" s="65"/>
-      <c r="E92" s="10">
+      <c r="D100" s="73"/>
+      <c r="E100" s="10">
         <v>3</v>
       </c>
-      <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="29"/>
-      <c r="V92" s="29"/>
-      <c r="W92" s="29"/>
-      <c r="X92" s="29"/>
-      <c r="Y92" s="29"/>
-      <c r="Z92" s="29"/>
-      <c r="AA92" s="29"/>
-      <c r="AB92" s="29"/>
-      <c r="AC92" s="29"/>
-      <c r="AD92" s="29"/>
-      <c r="AE92" s="29"/>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B93" s="11" t="s">
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="29"/>
+      <c r="V100" s="29"/>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B101" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="64">
-        <f>C89*0.02</f>
+      <c r="C101" s="72">
+        <f>C97*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D93" s="65"/>
-      <c r="E93" s="10">
+      <c r="D101" s="73"/>
+      <c r="E101" s="10">
         <v>2</v>
       </c>
-      <c r="M93" s="29"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="29"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="29"/>
-      <c r="V93" s="29"/>
-      <c r="W93" s="29"/>
-      <c r="X93" s="29"/>
-      <c r="Y93" s="29"/>
-      <c r="Z93" s="29"/>
-      <c r="AA93" s="29"/>
-      <c r="AB93" s="29"/>
-      <c r="AC93" s="29"/>
-      <c r="AD93" s="29"/>
-      <c r="AE93" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="29"/>
+      <c r="U101" s="29"/>
+      <c r="V101" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B57" r:id="rId1"/>
+    <hyperlink ref="B59" r:id="rId1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7422,5 +7706,6 @@
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By: </oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ofc/estimates/khulaltaar baatika truss/V-खुलालटार कार्कीटोल वाटिका निर्माण.xlsx
+++ b/ofc/estimates/khulaltaar baatika truss/V-खुलालटार कार्कीटोल वाटिका निर्माण.xlsx
@@ -15,9 +15,9 @@
     <sheet name="as per mistry" sheetId="19" r:id="rId1"/>
     <sheet name="WCR" sheetId="21" r:id="rId2"/>
     <sheet name="V" sheetId="20" r:id="rId3"/>
+    <sheet name="as per mistry (2)" sheetId="22" state="hidden" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
@@ -26,6 +26,7 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="adopted_rate_aggregate_10_20_mm">[1]District_Rate!$L$6</definedName>
@@ -59,8 +60,10 @@
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'as per mistry'!$A$5:$K$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'as per mistry (2)'!$A$5:$K$95</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$5:$K$101</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'as per mistry'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'as per mistry (2)'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
     <definedName name="skilled">[1]District_Rate!$D$148</definedName>
@@ -76,42 +79,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DELL</author>
-  </authors>
-  <commentList>
-    <comment ref="D34" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DELL:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-half quantity as they used stone quantity equal to nearly 14000 rs</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="82">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -239,9 +208,6 @@
     <t>-MS square pipe of 2"*2" of 1.8mm thickness for horizontal member</t>
   </si>
   <si>
-    <t>-MS square pipe of 2"*2" of 1.6mm thickness for king post member</t>
-  </si>
-  <si>
     <t>-MS square pipe of 1.5"*1.5" of 1.6mm thickness for vertical member</t>
   </si>
   <si>
@@ -356,9 +322,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>-for DPC base</t>
-  </si>
-  <si>
     <t>-for steps</t>
   </si>
   <si>
@@ -373,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,25 +477,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -614,7 +558,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -781,26 +725,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,13 +744,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -837,33 +790,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1793,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE95"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A77" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,113 +1751,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -2020,7 +1954,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="10">
         <f>(1+20+1)/3.281</f>
@@ -2031,11 +1965,11 @@
       </c>
       <c r="F11" s="10">
         <f t="shared" ref="F11:F19" si="0">PRODUCT(C11:E11)</f>
-        <v>91.191709844559597</v>
+        <v>54.715025906735754</v>
       </c>
       <c r="G11" s="36">
         <f t="shared" ref="G11:G19" si="1">F11</f>
-        <v>91.191709844559597</v>
+        <v>54.715025906735754</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -2046,7 +1980,7 @@
     <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="40">
         <f>2*3</f>
@@ -2076,7 +2010,7 @@
     <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C13" s="40">
         <v>3</v>
@@ -2086,15 +2020,15 @@
         <v>0.99055166107893933</v>
       </c>
       <c r="E13" s="10">
-        <v>2.4300000000000002</v>
+        <v>2.72</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>7.2211216092654684</v>
+        <v>8.0829015544041454</v>
       </c>
       <c r="G13" s="36">
         <f t="shared" si="1"/>
-        <v>7.2211216092654684</v>
+        <v>8.0829015544041454</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -2105,7 +2039,7 @@
     <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="40">
         <f t="shared" ref="C14:C20" si="2">2*3</f>
@@ -2116,15 +2050,15 @@
         <v>0.99055166107893933</v>
       </c>
       <c r="E14" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>23.000609570252973</v>
+        <v>10.876257238646755</v>
       </c>
       <c r="G14" s="36">
         <f t="shared" si="1"/>
-        <v>23.000609570252973</v>
+        <v>10.876257238646755</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -2144,15 +2078,15 @@
         <v>0.8381590978360256</v>
       </c>
       <c r="E15" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>19.462054251752516</v>
+        <v>9.2029868942395616</v>
       </c>
       <c r="G15" s="36">
         <f t="shared" si="1"/>
-        <v>19.462054251752516</v>
+        <v>9.2029868942395616</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -2172,15 +2106,15 @@
         <v>0.73758000609570251</v>
       </c>
       <c r="E16" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>17.126607741542212</v>
+        <v>8.0986284669308137</v>
       </c>
       <c r="G16" s="36">
         <f t="shared" si="1"/>
-        <v>17.126607741542212</v>
+        <v>8.0986284669308137</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -2191,7 +2125,7 @@
     <row r="17" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="40">
         <f t="shared" si="2"/>
@@ -2202,15 +2136,15 @@
         <v>0.68576653459311188</v>
       </c>
       <c r="E17" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>15.923498933252057</v>
+        <v>7.5297165498323677</v>
       </c>
       <c r="G17" s="36">
         <f t="shared" si="1"/>
-        <v>15.923498933252057</v>
+        <v>7.5297165498323677</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -2230,15 +2164,15 @@
         <v>0.45717768972874123</v>
       </c>
       <c r="E18" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>10.615665955501372</v>
+        <v>5.0198110332215791</v>
       </c>
       <c r="G18" s="36">
         <f t="shared" si="1"/>
-        <v>10.615665955501372</v>
+        <v>5.0198110332215791</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -2258,15 +2192,15 @@
         <v>0.20329167936604695</v>
       </c>
       <c r="E19" s="10">
-        <v>3.87</v>
+        <v>1.83</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
-        <v>4.7204327948796099</v>
+        <v>2.2321426394391954</v>
       </c>
       <c r="G19" s="36">
         <f t="shared" si="1"/>
-        <v>4.7204327948796099</v>
+        <v>2.2321426394391954</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -2277,11 +2211,10 @@
     <row r="20" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="40">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="10">
         <f>D11</f>
@@ -2292,11 +2225,11 @@
       </c>
       <c r="F20" s="10">
         <f t="shared" ref="F20" si="3">PRODUCT(C20:E20)</f>
-        <v>109.43005181347151</v>
+        <v>145.90673575129534</v>
       </c>
       <c r="G20" s="36">
         <f t="shared" ref="G20" si="4">F20</f>
-        <v>109.43005181347151</v>
+        <v>145.90673575129534</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -2315,7 +2248,7 @@
       <c r="F21" s="24"/>
       <c r="G21" s="27">
         <f>SUM(G10:G20)</f>
-        <v>467.28059737884792</v>
+        <v>420.25305089911609</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>30</v>
@@ -2325,7 +2258,7 @@
       </c>
       <c r="J21" s="27">
         <f>G21*I21</f>
-        <v>84657.225827125876</v>
+        <v>76137.245231392852</v>
       </c>
       <c r="K21" s="24"/>
     </row>
@@ -2343,7 +2276,7 @@
       <c r="I22" s="26"/>
       <c r="J22" s="27">
         <f>0.13*G21*(1871.42/18.94)</f>
-        <v>6002.2266748191169</v>
+        <v>5398.1570953944611</v>
       </c>
       <c r="K22" s="24"/>
     </row>
@@ -2441,8 +2374,8 @@
       <c r="H27" s="25"/>
       <c r="I27" s="26"/>
       <c r="J27" s="27">
-        <f>0.13*G26*8587.63/10</f>
-        <v>5475.680991319894</v>
+        <f>0.13*G26*8211.62/10</f>
+        <v>5235.9279035009986</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -2546,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="23"/>
@@ -2588,7 +2521,7 @@
     <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="22">
         <v>2</v>
@@ -2789,7 +2722,7 @@
     <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="22">
         <f>C40</f>
@@ -2843,7 +2776,7 @@
     <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="22">
         <v>2</v>
@@ -2929,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="23"/>
@@ -2944,7 +2877,7 @@
     <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="22">
         <f>2*2</f>
@@ -2997,7 +2930,7 @@
     <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="22">
         <v>4</v>
@@ -3107,7 +3040,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="23"/>
@@ -3122,7 +3055,7 @@
     <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="22">
         <f>2*2</f>
@@ -3230,7 +3163,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
@@ -3242,23 +3175,23 @@
       <c r="J65" s="44"/>
       <c r="K65" s="44"/>
       <c r="N65" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" t="s">
         <v>55</v>
-      </c>
-      <c r="O65" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" s="44">
         <v>0.5</v>
       </c>
       <c r="D66" s="46">
         <f>D82</f>
-        <v>6</v>
+        <v>6.3721576999999998</v>
       </c>
       <c r="E66" s="46">
         <f>F82/2</f>
@@ -3269,7 +3202,7 @@
       </c>
       <c r="G66" s="47">
         <f>PRODUCT(C66:F66)</f>
-        <v>7.5</v>
+        <v>7.9651971249999995</v>
       </c>
       <c r="H66" s="48"/>
       <c r="I66" s="48"/>
@@ -3286,7 +3219,7 @@
     <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="23"/>
@@ -3294,17 +3227,17 @@
       <c r="F67" s="24"/>
       <c r="G67" s="26">
         <f>SUM(G66:G66)</f>
-        <v>7.5</v>
+        <v>7.9651971249999995</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I67" s="26">
         <v>64.63</v>
       </c>
       <c r="J67" s="50">
         <f>G67*I67</f>
-        <v>484.72499999999997</v>
+        <v>514.79069018874998</v>
       </c>
       <c r="K67" s="24"/>
       <c r="M67" s="49"/>
@@ -3318,7 +3251,7 @@
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="23"/>
@@ -3329,7 +3262,7 @@
       <c r="I68" s="26"/>
       <c r="J68" s="50">
         <f>0.13*G67*19284/360</f>
-        <v>52.227500000000006</v>
+        <v>55.466977712791667</v>
       </c>
       <c r="K68" s="24"/>
       <c r="M68" s="49"/>
@@ -3365,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="23"/>
@@ -3387,14 +3320,14 @@
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="44">
         <v>1</v>
       </c>
       <c r="D71" s="46">
         <f>D76</f>
-        <v>6</v>
+        <v>6.3721576999999998</v>
       </c>
       <c r="E71" s="46">
         <f>E76</f>
@@ -3405,7 +3338,7 @@
       </c>
       <c r="G71" s="47">
         <f>PRODUCT(C71:F71)</f>
-        <v>1.125</v>
+        <v>1.1947795687499998</v>
       </c>
       <c r="H71" s="48"/>
       <c r="I71" s="48"/>
@@ -3422,7 +3355,7 @@
     <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="48"/>
       <c r="B72" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
@@ -3430,24 +3363,24 @@
       <c r="F72" s="52"/>
       <c r="G72" s="53">
         <f>SUM(G71:G71)</f>
-        <v>1.125</v>
+        <v>1.1947795687499998</v>
       </c>
       <c r="H72" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I72" s="53">
         <v>4434.5200000000004</v>
       </c>
       <c r="J72" s="54">
         <f>G72*I72</f>
-        <v>4988.8350000000009</v>
+        <v>5298.2738932132497</v>
       </c>
       <c r="K72" s="44"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="48"/>
       <c r="B73" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C73" s="51"/>
       <c r="D73" s="52"/>
@@ -3458,7 +3391,7 @@
       <c r="I73" s="52"/>
       <c r="J73" s="55">
         <f>0.13*G72*(14817.6/5)</f>
-        <v>433.41479999999996</v>
+        <v>460.29790918565988</v>
       </c>
       <c r="K73" s="44"/>
     </row>
@@ -3480,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="23"/>
@@ -3502,14 +3435,14 @@
     <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
       <c r="B76" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="44">
         <v>1</v>
       </c>
       <c r="D76" s="46">
         <f>D82</f>
-        <v>6</v>
+        <v>6.3721576999999998</v>
       </c>
       <c r="E76" s="46">
         <f>F82/2</f>
@@ -3520,7 +3453,7 @@
       </c>
       <c r="G76" s="47">
         <f>PRODUCT(C76:F76)</f>
-        <v>0.5625</v>
+        <v>0.5973897843749999</v>
       </c>
       <c r="H76" s="48"/>
       <c r="I76" s="48"/>
@@ -3542,7 +3475,7 @@
       </c>
       <c r="D77" s="46">
         <f>D76</f>
-        <v>6</v>
+        <v>6.3721576999999998</v>
       </c>
       <c r="E77" s="46">
         <v>0.5</v>
@@ -3552,7 +3485,7 @@
       </c>
       <c r="G77" s="47">
         <f>PRODUCT(C77:F77)</f>
-        <v>0.15000000000000002</v>
+        <v>0.15930394250000002</v>
       </c>
       <c r="H77" s="48"/>
       <c r="I77" s="48"/>
@@ -3569,7 +3502,7 @@
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="51"/>
       <c r="D78" s="52"/>
@@ -3577,24 +3510,24 @@
       <c r="F78" s="52"/>
       <c r="G78" s="53">
         <f>SUM(G76:G77)</f>
-        <v>0.71250000000000002</v>
+        <v>0.75669372687499992</v>
       </c>
       <c r="H78" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I78" s="53">
         <v>10634.5</v>
       </c>
       <c r="J78" s="54">
         <f>G78*I78</f>
-        <v>7577.0812500000002</v>
+        <v>8047.0594384521864</v>
       </c>
       <c r="K78" s="44"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="48"/>
       <c r="B79" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="51"/>
       <c r="D79" s="52"/>
@@ -3605,7 +3538,7 @@
       <c r="I79" s="52"/>
       <c r="J79" s="55">
         <f>0.13*G78*((114907.3+6135.3)/15)</f>
-        <v>747.43805500000019</v>
+        <v>793.79885957354566</v>
       </c>
       <c r="K79" s="44"/>
     </row>
@@ -3627,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C81" s="57"/>
       <c r="D81" s="47"/>
@@ -3642,13 +3575,13 @@
     <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" s="44">
         <v>1</v>
       </c>
       <c r="D82" s="46">
-        <v>6</v>
+        <v>6.3721576999999998</v>
       </c>
       <c r="E82" s="46">
         <f>((F82/2+0.5)/2)</f>
@@ -3659,7 +3592,7 @@
       </c>
       <c r="G82" s="47">
         <f>PRODUCT(C82:F82)</f>
-        <v>13.125</v>
+        <v>13.939094968749998</v>
       </c>
       <c r="H82" s="48"/>
       <c r="I82" s="48"/>
@@ -3676,7 +3609,7 @@
     <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="48"/>
       <c r="B83" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
@@ -3684,24 +3617,24 @@
       <c r="F83" s="52"/>
       <c r="G83" s="53">
         <f>SUM(G82:G82)</f>
-        <v>13.125</v>
+        <v>13.939094968749998</v>
       </c>
       <c r="H83" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I83" s="53">
         <v>9709.43</v>
       </c>
       <c r="J83" s="54">
         <f>G83*I83</f>
-        <v>127436.26875</v>
+        <v>135340.66686243031</v>
       </c>
       <c r="K83" s="44"/>
     </row>
     <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="48"/>
       <c r="B84" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
@@ -3712,7 +3645,7 @@
       <c r="I84" s="52"/>
       <c r="J84" s="55">
         <f>0.13*G83*((27092.1)/5)</f>
-        <v>9245.1791250000006</v>
+        <v>9818.6232248746692</v>
       </c>
       <c r="K84" s="44"/>
     </row>
@@ -3747,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I86" s="26">
         <v>500</v>
@@ -3785,7 +3718,7 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7">
         <f>SUM(J10:J87)</f>
-        <v>469525.83899755881</v>
+        <v>469525.84411021339</v>
       </c>
       <c r="K88" s="4"/>
       <c r="M88" s="29"/>
@@ -3816,11 +3749,11 @@
       <c r="B90" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="72">
+      <c r="C90" s="79">
         <f>J88</f>
-        <v>469525.83899755881</v>
-      </c>
-      <c r="D90" s="73"/>
+        <v>469525.84411021339</v>
+      </c>
+      <c r="D90" s="80"/>
       <c r="E90" s="10">
         <v>100</v>
       </c>
@@ -3854,10 +3787,10 @@
       <c r="B91" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="76">
+      <c r="C91" s="82">
         <v>400000</v>
       </c>
-      <c r="D91" s="77"/>
+      <c r="D91" s="83"/>
       <c r="E91" s="10"/>
       <c r="M91" s="29"/>
       <c r="N91" s="30"/>
@@ -3883,14 +3816,14 @@
       <c r="B92" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="76">
+      <c r="C92" s="82">
         <f>C91-C94-C95</f>
         <v>380000</v>
       </c>
-      <c r="D92" s="77"/>
+      <c r="D92" s="83"/>
       <c r="E92" s="10">
         <f>C92/C90*100</f>
-        <v>80.932713056070099</v>
+        <v>80.932712174795924</v>
       </c>
       <c r="M92" s="29"/>
       <c r="N92" s="29"/>
@@ -3916,14 +3849,14 @@
       <c r="B93" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="78">
+      <c r="C93" s="84">
         <f>C90-C92</f>
-        <v>89525.838997558807</v>
-      </c>
-      <c r="D93" s="78"/>
+        <v>89525.844110213395</v>
+      </c>
+      <c r="D93" s="84"/>
       <c r="E93" s="10">
         <f>100-E92</f>
-        <v>19.067286943929901</v>
+        <v>19.067287825204076</v>
       </c>
       <c r="M93" s="29"/>
       <c r="N93" s="29"/>
@@ -3949,11 +3882,11 @@
       <c r="B94" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="72">
+      <c r="C94" s="79">
         <f>C91*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D94" s="73"/>
+      <c r="D94" s="80"/>
       <c r="E94" s="10">
         <v>3</v>
       </c>
@@ -3981,11 +3914,11 @@
       <c r="B95" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="72">
+      <c r="C95" s="79">
         <f>C91*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D95" s="73"/>
+      <c r="D95" s="80"/>
       <c r="E95" s="10">
         <v>2</v>
       </c>
@@ -4011,13 +3944,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="A7:F7"/>
@@ -4026,6 +3952,13 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1"/>
@@ -4043,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4063,183 +3996,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
+      <c r="A5" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="58"/>
-      <c r="C6" s="95">
+      <c r="C6" s="85">
         <f>F50</f>
-        <v>469525.83899755881</v>
-      </c>
-      <c r="D6" s="96"/>
+        <v>469525.84411021339</v>
+      </c>
+      <c r="D6" s="86"/>
       <c r="E6" s="59"/>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
       <c r="H6" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="58"/>
-      <c r="J6" s="95">
+      <c r="J6" s="85">
         <f>I50</f>
-        <v>459614.29448570864</v>
-      </c>
-      <c r="K6" s="96"/>
+        <v>469988.02996661171</v>
+      </c>
+      <c r="K6" s="86"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="I7" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="I7" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="str">
+      <c r="A8" s="92" t="str">
         <f>'[9]Sheet4 (2)'!A6:F6</f>
         <v>Project:- ૐ शान्ति भवन निर्माण तथा मर्मत</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="I8" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="I8" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="str">
+      <c r="A9" s="94" t="str">
         <f>'[9]Sheet4 (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="I9" s="90" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="I9" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="B11" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="C11" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="86" t="s">
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86" t="s">
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="85" t="s">
+      <c r="K11" s="95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="61" t="s">
         <v>78</v>
-      </c>
-      <c r="K11" s="84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="61" t="s">
-        <v>79</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>13</v>
@@ -4248,7 +4181,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" s="61" t="s">
         <v>13</v>
@@ -4256,8 +4189,8 @@
       <c r="I12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="85"/>
-      <c r="K12" s="84"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="95"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
@@ -4274,7 +4207,7 @@
       </c>
       <c r="D13" s="10">
         <f>'as per mistry'!G21</f>
-        <v>467.28059737884792</v>
+        <v>420.25305089911609</v>
       </c>
       <c r="E13" s="10">
         <f>'as per mistry'!I21</f>
@@ -4282,11 +4215,11 @@
       </c>
       <c r="F13" s="10">
         <f>D13*E13</f>
-        <v>84657.225827125876</v>
+        <v>76137.245231392852</v>
       </c>
       <c r="G13" s="10">
         <f>V!G20</f>
-        <v>439.00701725083815</v>
+        <v>402.53033331301435</v>
       </c>
       <c r="H13" s="10">
         <f>V!I20</f>
@@ -4294,16 +4227,16 @@
       </c>
       <c r="I13" s="10">
         <f>G13*H13</f>
-        <v>79534.90131533434</v>
+        <v>72926.420486318806</v>
       </c>
       <c r="J13" s="64">
         <f>I13-F13</f>
-        <v>-5122.3245117915358</v>
+        <v>-3210.8247450740455</v>
       </c>
       <c r="K13" s="65"/>
       <c r="M13" s="1">
         <f>1.25*F13</f>
-        <v>105821.53228390735</v>
+        <v>95171.556539241064</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4317,22 +4250,22 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10">
         <f>'as per mistry'!J22</f>
-        <v>6002.2266748191169</v>
+        <v>5398.1570953944611</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10">
         <f>V!J21</f>
-        <v>5639.0520902356529</v>
+        <v>5170.5085072821221</v>
       </c>
       <c r="J14" s="64">
         <f>I14-F14</f>
-        <v>-363.17458458346391</v>
+        <v>-227.64858811233898</v>
       </c>
       <c r="K14" s="65"/>
       <c r="M14" s="1">
         <f>1.25*F14</f>
-        <v>7502.7833435238963</v>
+        <v>6747.6963692430763</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4406,22 +4339,22 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10">
         <f>'as per mistry'!J27</f>
-        <v>5475.680991319894</v>
+        <v>5235.9279035009986</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10">
         <f>V!J26</f>
-        <v>4205.2250089199997</v>
+        <v>4021.0989280800009</v>
       </c>
       <c r="J17" s="64">
         <f>I17-F17</f>
-        <v>-1270.4559823998943</v>
+        <v>-1214.8289754209977</v>
       </c>
       <c r="K17" s="65"/>
       <c r="M17" s="1">
         <f t="shared" si="0"/>
-        <v>6844.601239149868</v>
+        <v>6544.9098793762478</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4480,7 +4413,7 @@
       </c>
       <c r="K19" s="65"/>
       <c r="M19" s="1">
-        <f t="shared" ref="M19:M48" si="1">1.25*F19</f>
+        <f t="shared" ref="M19" si="1">1.25*F19</f>
         <v>896.56020192014637</v>
       </c>
     </row>
@@ -4524,7 +4457,7 @@
       </c>
       <c r="G21" s="10">
         <f>V!G35</f>
-        <v>14.463359374999998</v>
+        <v>21.572875</v>
       </c>
       <c r="H21" s="10">
         <f>V!I35</f>
@@ -4532,11 +4465,11 @@
       </c>
       <c r="I21" s="10">
         <f>G21*H21</f>
-        <v>14679.875864843749</v>
+        <v>21895.820938749999</v>
       </c>
       <c r="J21" s="64">
         <f>I21-F21</f>
-        <v>-5890.23478547784</v>
+        <v>1325.7102884284104</v>
       </c>
       <c r="K21" s="65"/>
       <c r="M21" s="1">
@@ -4561,11 +4494,11 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10">
         <f>V!J36</f>
-        <v>1620.2375852812499</v>
+        <v>2416.6711198500007</v>
       </c>
       <c r="J22" s="64">
         <f>I22-F22</f>
-        <v>-650.11311222445534</v>
+        <v>146.32042234429537</v>
       </c>
       <c r="K22" s="65"/>
       <c r="M22" s="1">
@@ -4702,7 +4635,7 @@
       </c>
       <c r="G27" s="10">
         <f>V!G47</f>
-        <v>2.1478769531249999</v>
+        <v>2.6438831250000003</v>
       </c>
       <c r="H27" s="10">
         <f>V!I47</f>
@@ -4710,11 +4643,11 @@
       </c>
       <c r="I27" s="10">
         <f>G27*H27</f>
-        <v>29144.327589257809</v>
+        <v>35874.585734812506</v>
       </c>
       <c r="J27" s="64">
         <f>I27-F27</f>
-        <v>-5905.8893450547985</v>
+        <v>824.3688004998985</v>
       </c>
       <c r="K27" s="65"/>
       <c r="M27" s="1">
@@ -4739,11 +4672,11 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10">
         <f>V!J48</f>
-        <v>2659.3852580039065</v>
+        <v>3273.5133156862507</v>
       </c>
       <c r="J28" s="64">
         <f>I28-F28</f>
-        <v>-538.90538429955404</v>
+        <v>75.222673382790163</v>
       </c>
       <c r="K28" s="65"/>
       <c r="M28" s="1">
@@ -4957,7 +4890,7 @@
       </c>
       <c r="D36" s="10">
         <f>'as per mistry'!G67</f>
-        <v>7.5</v>
+        <v>7.9651971249999995</v>
       </c>
       <c r="E36" s="10">
         <f>'as per mistry'!I67</f>
@@ -4965,7 +4898,7 @@
       </c>
       <c r="F36" s="10">
         <f>D36*E36</f>
-        <v>484.72499999999997</v>
+        <v>514.79069018874998</v>
       </c>
       <c r="G36" s="10">
         <f>V!G68</f>
@@ -4981,12 +4914,12 @@
       </c>
       <c r="J36" s="64">
         <f>I36-F36</f>
-        <v>-47.723325822919776</v>
+        <v>-77.789016011669787</v>
       </c>
       <c r="K36" s="65"/>
       <c r="M36" s="1">
         <f t="shared" si="0"/>
-        <v>605.90625</v>
+        <v>643.48836273593747</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5000,7 +4933,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10">
         <f>'as per mistry'!J68</f>
-        <v>52.227500000000006</v>
+        <v>55.466977712791667</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -5010,12 +4943,12 @@
       </c>
       <c r="J37" s="64">
         <f>I37-F37</f>
-        <v>-5.1420289843035718</v>
+        <v>-8.381506697095233</v>
       </c>
       <c r="K37" s="65"/>
       <c r="M37" s="1">
         <f t="shared" si="0"/>
-        <v>65.284375000000011</v>
+        <v>69.333722140989579</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5046,7 +4979,7 @@
       </c>
       <c r="D39" s="10">
         <f>'as per mistry'!G72</f>
-        <v>1.125</v>
+        <v>1.1947795687499998</v>
       </c>
       <c r="E39" s="10">
         <f>'as per mistry'!I72</f>
@@ -5054,28 +4987,28 @@
       </c>
       <c r="F39" s="10">
         <f>D39*E39</f>
-        <v>4988.8350000000009</v>
+        <v>5298.2738932132497</v>
       </c>
       <c r="G39" s="10">
-        <f>V!G75</f>
-        <v>1.4336498018896677</v>
+        <f>V!G74</f>
+        <v>1.3661498018896676</v>
       </c>
       <c r="H39" s="10">
-        <f>V!I75</f>
+        <f>V!I74</f>
         <v>4434.5200000000004</v>
       </c>
-      <c r="I39" s="97">
+      <c r="I39" s="72">
         <f>G39*H39</f>
-        <v>6357.5487194757698</v>
+        <v>6058.2186194757696</v>
       </c>
       <c r="J39" s="64">
         <f>I39-F39</f>
-        <v>1368.7137194757688</v>
+        <v>759.94472626251991</v>
       </c>
       <c r="K39" s="65"/>
       <c r="M39" s="1">
         <f t="shared" si="0"/>
-        <v>6236.0437500000007</v>
+        <v>6622.8423665165619</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5089,22 +5022,22 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10">
         <f>'as per mistry'!J73</f>
-        <v>433.41479999999996</v>
+        <v>460.29790918565988</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="97">
-        <f>V!J76</f>
-        <v>552.32448191648882</v>
+      <c r="I40" s="72">
+        <f>V!J75</f>
+        <v>526.31959391648888</v>
       </c>
       <c r="J40" s="64">
         <f>I40-F40</f>
-        <v>118.90968191648886</v>
+        <v>66.021684730829008</v>
       </c>
       <c r="K40" s="65"/>
       <c r="M40" s="1">
         <f t="shared" si="0"/>
-        <v>541.7684999999999</v>
+        <v>575.37238648207483</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5135,7 +5068,7 @@
       </c>
       <c r="D42" s="10">
         <f>'as per mistry'!G78</f>
-        <v>0.71250000000000002</v>
+        <v>0.75669372687499992</v>
       </c>
       <c r="E42" s="10">
         <f>'as per mistry'!I78</f>
@@ -5143,14 +5076,14 @@
       </c>
       <c r="F42" s="10">
         <f>D42*E42</f>
-        <v>7577.0812500000002</v>
+        <v>8047.0594384521864</v>
       </c>
       <c r="G42" s="10">
-        <f>V!G83</f>
+        <f>V!G82</f>
         <v>0.76288326729655598</v>
       </c>
       <c r="H42" s="10">
-        <f>V!I83</f>
+        <f>V!I82</f>
         <v>10634.5</v>
       </c>
       <c r="I42" s="10">
@@ -5159,12 +5092,12 @@
       </c>
       <c r="J42" s="64">
         <f>I42-F42</f>
-        <v>535.80085606522425</v>
+        <v>65.822667613037993</v>
       </c>
       <c r="K42" s="65"/>
       <c r="M42" s="1">
         <f t="shared" si="0"/>
-        <v>9471.3515625</v>
+        <v>10058.824298065232</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5178,22 +5111,22 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10">
         <f>'as per mistry'!J79</f>
-        <v>747.43805500000019</v>
+        <v>793.79885957354566</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10">
-        <f>V!J84</f>
+        <f>V!J83</f>
         <v>800.29190947394102</v>
       </c>
       <c r="J43" s="64">
         <f>I43-F43</f>
-        <v>52.853854473940828</v>
+        <v>6.4930499003953628</v>
       </c>
       <c r="K43" s="65"/>
       <c r="M43" s="1">
         <f t="shared" si="0"/>
-        <v>934.29756875000021</v>
+        <v>992.24857446693204</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5224,7 +5157,7 @@
       </c>
       <c r="D45" s="10">
         <f>'as per mistry'!G83</f>
-        <v>13.125</v>
+        <v>13.939094968749998</v>
       </c>
       <c r="E45" s="10">
         <f>'as per mistry'!I83</f>
@@ -5232,11 +5165,11 @@
       </c>
       <c r="F45" s="10">
         <f>D45*E45</f>
-        <v>127436.26875</v>
+        <v>135340.66686243031</v>
       </c>
       <c r="G45" s="10">
         <f>V!G89</f>
-        <v>14.825771620677493</v>
+        <v>15.075771620677493</v>
       </c>
       <c r="H45" s="10">
         <f>V!I89</f>
@@ -5244,16 +5177,16 @@
       </c>
       <c r="I45" s="10">
         <f>G45*H45</f>
-        <v>143949.79174695467</v>
+        <v>146377.14924695468</v>
       </c>
       <c r="J45" s="64">
         <f>I45-F45</f>
-        <v>16513.522996954664</v>
+        <v>11036.482384524366</v>
       </c>
       <c r="K45" s="65"/>
       <c r="M45" s="1">
         <f t="shared" si="0"/>
-        <v>159295.3359375</v>
+        <v>169175.83357803788</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5267,22 +5200,22 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10">
         <f>'as per mistry'!J84</f>
-        <v>9245.1791250000006</v>
+        <v>9818.6232248746692</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10">
         <f>V!J90</f>
-        <v>10443.193470438475</v>
+        <v>10619.292120438475</v>
       </c>
       <c r="J46" s="64">
         <f>I46-F46</f>
-        <v>1198.0143454384743</v>
+        <v>800.66889556380556</v>
       </c>
       <c r="K46" s="65"/>
       <c r="M46" s="1">
         <f t="shared" si="0"/>
-        <v>11556.473906250001</v>
+        <v>12273.279031093336</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5361,29 +5294,42 @@
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="70"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7">
         <f>SUM(F13:F48)</f>
-        <v>469525.83899755881</v>
+        <v>469525.84411021339</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7">
         <f>SUM(I13:I48)</f>
-        <v>459614.29448570864</v>
+        <v>469988.02996661171</v>
       </c>
       <c r="J50" s="71">
         <f>I50-F50</f>
-        <v>-9911.5445118501666</v>
+        <v>462.18585639831144</v>
       </c>
       <c r="K50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -5391,19 +5337,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5418,11 +5351,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5443,113 +5376,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -5671,7 +5604,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10">
         <f>(1+20+1)/3.281</f>
@@ -5682,11 +5615,11 @@
       </c>
       <c r="F12" s="10">
         <f t="shared" ref="F12:F19" si="0">PRODUCT(C12:E12)</f>
-        <v>91.191709844559597</v>
+        <v>54.715025906735754</v>
       </c>
       <c r="G12" s="36">
         <f t="shared" ref="G12:G19" si="1">F12</f>
-        <v>91.191709844559597</v>
+        <v>54.715025906735754</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -5696,7 +5629,7 @@
     <row r="13" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="40">
         <f>2*3</f>
@@ -5724,7 +5657,7 @@
     <row r="14" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="40">
         <v>3</v>
@@ -5751,7 +5684,7 @@
     <row r="15" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f t="shared" ref="C15:C18" si="2">2*3</f>
@@ -5805,7 +5738,7 @@
     <row r="17" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="40">
         <f t="shared" si="2"/>
@@ -5859,7 +5792,7 @@
     <row r="19" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <v>8</v>
@@ -5894,7 +5827,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="27">
         <f>SUM(G10:G19)</f>
-        <v>439.00701725083815</v>
+        <v>402.53033331301435</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>30</v>
@@ -5904,7 +5837,7 @@
       </c>
       <c r="J20" s="27">
         <f>G20*I20</f>
-        <v>79534.90131533434</v>
+        <v>72926.420486318806</v>
       </c>
       <c r="K20" s="24"/>
     </row>
@@ -5922,7 +5855,7 @@
       <c r="I21" s="26"/>
       <c r="J21" s="27">
         <f>0.13*G20*(1871.42/18.94)</f>
-        <v>5639.0520902356529</v>
+        <v>5170.5085072821221</v>
       </c>
       <c r="K21" s="24"/>
     </row>
@@ -6018,8 +5951,8 @@
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
       <c r="J26" s="27">
-        <f>0.13*G25*8587.63/10</f>
-        <v>4205.2250089199997</v>
+        <f>0.13*G25*8211.62/10</f>
+        <v>4021.0989280800009</v>
       </c>
       <c r="K26" s="24"/>
     </row>
@@ -6123,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
@@ -6165,14 +6098,14 @@
     <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="22">
         <v>1</v>
       </c>
       <c r="D34" s="23">
-        <f>((5.83+5.785)/2)/1.6</f>
-        <v>3.6296874999999997</v>
+        <f>((5.83+5.785)/2)-0.23</f>
+        <v>5.5774999999999997</v>
       </c>
       <c r="E34" s="24">
         <f>3.65</f>
@@ -6181,7 +6114,7 @@
       <c r="F34" s="24"/>
       <c r="G34" s="36">
         <f>PRODUCT(C34:F34)</f>
-        <v>13.248359374999998</v>
+        <v>20.357875</v>
       </c>
       <c r="H34" s="25"/>
       <c r="I34" s="26"/>
@@ -6189,10 +6122,10 @@
       <c r="K34" s="24"/>
       <c r="N34" s="1">
         <f>G34*I35</f>
-        <v>13446.687314843748</v>
+        <v>20662.63238875</v>
       </c>
       <c r="O34" s="1">
-        <f>5.83*3.6*0.15*I75</f>
+        <f>5.83*3.6*0.15*I74</f>
         <v>13960.755864000001</v>
       </c>
     </row>
@@ -6207,7 +6140,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="27">
         <f>SUM(G33:G34)</f>
-        <v>14.463359374999998</v>
+        <v>21.572875</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>32</v>
@@ -6217,7 +6150,7 @@
       </c>
       <c r="J35" s="27">
         <f>G35*I35</f>
-        <v>14679.875864843749</v>
+        <v>21895.820938749999</v>
       </c>
       <c r="K35" s="24"/>
     </row>
@@ -6235,7 +6168,7 @@
       <c r="I36" s="26"/>
       <c r="J36" s="27">
         <f>0.13*G35*8617.2/10</f>
-        <v>1620.2375852812499</v>
+        <v>2416.6711198500007</v>
       </c>
       <c r="K36" s="24"/>
     </row>
@@ -6374,7 +6307,7 @@
     <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="22">
         <f>C39</f>
@@ -6408,17 +6341,17 @@
         <v>6</v>
       </c>
       <c r="D45" s="23">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="E45" s="24">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="F45" s="24">
         <v>0.45</v>
       </c>
       <c r="G45" s="36">
         <f>PRODUCT(C45:F45)</f>
-        <v>0.24299999999999997</v>
+        <v>0.14283000000000001</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="26"/>
@@ -6428,14 +6361,14 @@
     <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="22">
         <v>1</v>
       </c>
       <c r="D46" s="23">
-        <f>D34</f>
-        <v>3.6296874999999997</v>
+        <f>D34+0.23</f>
+        <v>5.8075000000000001</v>
       </c>
       <c r="E46" s="24">
         <f>E34</f>
@@ -6446,7 +6379,7 @@
       </c>
       <c r="G46" s="36">
         <f>PRODUCT(C46:F46)</f>
-        <v>0.99362695312499982</v>
+        <v>1.589803125</v>
       </c>
       <c r="H46" s="25"/>
       <c r="I46" s="26"/>
@@ -6464,7 +6397,7 @@
       <c r="F47" s="24"/>
       <c r="G47" s="27">
         <f>SUM(G44:G46)</f>
-        <v>2.1478769531249999</v>
+        <v>2.6438831250000003</v>
       </c>
       <c r="H47" s="25" t="s">
         <v>37</v>
@@ -6474,7 +6407,7 @@
       </c>
       <c r="J47" s="27">
         <f>G47*I47</f>
-        <v>29144.327589257809</v>
+        <v>35874.585734812506</v>
       </c>
       <c r="K47" s="24"/>
     </row>
@@ -6492,7 +6425,7 @@
       <c r="I48" s="26"/>
       <c r="J48" s="27">
         <f>0.13*G47*9524.2</f>
-        <v>2659.3852580039065</v>
+        <v>3273.5133156862507</v>
       </c>
       <c r="K48" s="24"/>
     </row>
@@ -6514,7 +6447,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
@@ -6529,7 +6462,7 @@
     <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="22">
         <f>2*2</f>
@@ -6582,7 +6515,7 @@
     <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="22">
         <v>1</v>
@@ -6609,7 +6542,7 @@
     <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C54" s="22">
         <v>1</v>
@@ -6717,7 +6650,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="23"/>
@@ -6732,7 +6665,7 @@
     <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="22">
         <v>1</v>
@@ -6838,7 +6771,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
@@ -6853,17 +6786,17 @@
     <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" s="44">
         <v>0.5</v>
       </c>
       <c r="D66" s="46">
-        <f>D87</f>
+        <f>D86</f>
         <v>6</v>
       </c>
       <c r="E66" s="46">
-        <f>F87/2</f>
+        <f>F86/2</f>
         <v>1.1746926749974602</v>
       </c>
       <c r="F66" s="46">
@@ -6887,7 +6820,7 @@
         <v>0.5</v>
       </c>
       <c r="D67" s="46">
-        <f>D88</f>
+        <f>D87</f>
         <v>5.4</v>
       </c>
       <c r="E67" s="46">
@@ -6895,7 +6828,7 @@
         <v>0.5</v>
       </c>
       <c r="F67" s="46">
-        <f>F88</f>
+        <f>F87</f>
         <v>1.092944224321853</v>
       </c>
       <c r="G67" s="47">
@@ -6912,7 +6845,7 @@
     <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="23"/>
@@ -6923,7 +6856,7 @@
         <v>6.7615917403230732</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I68" s="26">
         <v>64.63</v>
@@ -6939,7 +6872,7 @@
     <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
       <c r="B69" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="23"/>
@@ -6976,7 +6909,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="23"/>
@@ -6993,17 +6926,17 @@
     <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="44">
         <v>1</v>
       </c>
       <c r="D72" s="46">
-        <f>D79</f>
+        <f>D78</f>
         <v>6</v>
       </c>
       <c r="E72" s="46">
-        <f>E79</f>
+        <f>E78</f>
         <v>1.1429442243218531</v>
       </c>
       <c r="F72" s="46">
@@ -7024,23 +6957,22 @@
       <c r="A73" s="21"/>
       <c r="B73" s="45"/>
       <c r="C73" s="44">
-        <f>C81</f>
+        <f>C80</f>
         <v>1</v>
       </c>
       <c r="D73" s="46">
-        <f>D81</f>
+        <f>D80</f>
         <v>5.4</v>
       </c>
       <c r="E73" s="46">
         <v>0.5</v>
       </c>
       <c r="F73" s="46">
-        <f>0.15</f>
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="G73" s="47">
         <f>PRODUCT(C73:F73)</f>
-        <v>0.40500000000000003</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="H73" s="48"/>
       <c r="I73" s="48"/>
@@ -7049,63 +6981,52 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="99">
-        <v>0</v>
-      </c>
-      <c r="D74" s="100">
-        <f>3.14+3.24+3.17+3.14+3.67+0.9+0.94+1.8</f>
-        <v>20</v>
-      </c>
-      <c r="E74" s="101">
-        <v>0.23</v>
-      </c>
-      <c r="F74" s="101">
-        <v>0.15</v>
-      </c>
-      <c r="G74" s="97">
-        <f>PRODUCT(C74:F74)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="24"/>
-    </row>
-    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="48"/>
+      <c r="B74" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="51"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53">
+        <f>SUM(G72:G73)</f>
+        <v>1.3661498018896676</v>
+      </c>
+      <c r="H74" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I74" s="53">
+        <v>4434.5200000000004</v>
+      </c>
+      <c r="J74" s="54">
+        <f>G74*I74</f>
+        <v>6058.2186194757696</v>
+      </c>
+      <c r="K74" s="44"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="48"/>
       <c r="B75" s="45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C75" s="51"/>
       <c r="D75" s="52"/>
       <c r="E75" s="52"/>
       <c r="F75" s="52"/>
-      <c r="G75" s="53">
-        <f>SUM(G72:G74)</f>
-        <v>1.4336498018896677</v>
-      </c>
-      <c r="H75" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="I75" s="53">
-        <v>4434.5200000000004</v>
-      </c>
-      <c r="J75" s="54">
-        <f>G75*I75</f>
-        <v>6357.5487194757698</v>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="55">
+        <f>0.13*G74*(14817.6/5)</f>
+        <v>526.31959391648888</v>
       </c>
       <c r="K75" s="44"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="48"/>
-      <c r="B76" s="45" t="s">
-        <v>60</v>
-      </c>
+      <c r="B76" s="45"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
       <c r="E76" s="52"/>
@@ -7113,66 +7034,77 @@
       <c r="G76" s="52"/>
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
-      <c r="J76" s="55">
-        <f>0.13*G75*(14817.6/5)</f>
-        <v>552.32448191648882</v>
-      </c>
+      <c r="J76" s="55"/>
       <c r="K76" s="44"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="48"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="44"/>
-    </row>
-    <row r="78" spans="1:14" ht="69" x14ac:dyDescent="0.3">
-      <c r="A78" s="21">
+    <row r="77" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+      <c r="A77" s="21">
         <v>11</v>
       </c>
-      <c r="B78" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="50"/>
+      <c r="B77" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="24"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="21"/>
+      <c r="B78" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="44">
+        <v>1</v>
+      </c>
+      <c r="D78" s="46">
+        <f>D86</f>
+        <v>6</v>
+      </c>
+      <c r="E78" s="46">
+        <f>((3.5+4)/2/3.281)</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="F78" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G78" s="47">
+        <f>PRODUCT(C78:F78)</f>
+        <v>0.34288326729655594</v>
+      </c>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
       <c r="K78" s="24"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="B79" s="45" t="s">
-        <v>57</v>
-      </c>
+      <c r="B79" s="45"/>
       <c r="C79" s="44">
         <v>1</v>
       </c>
       <c r="D79" s="46">
-        <f>D87</f>
+        <f>D78</f>
         <v>6</v>
       </c>
       <c r="E79" s="46">
-        <f>((3.5+4)/2/3.281)</f>
-        <v>1.1429442243218531</v>
+        <v>0.5</v>
       </c>
       <c r="F79" s="46">
         <v>0.05</v>
       </c>
       <c r="G79" s="47">
         <f>PRODUCT(C79:F79)</f>
-        <v>0.34288326729655594</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="H79" s="48"/>
       <c r="I79" s="48"/>
@@ -7188,8 +7120,8 @@
         <v>1</v>
       </c>
       <c r="D80" s="46">
-        <f>D79</f>
-        <v>6</v>
+        <f>D87</f>
+        <v>5.4</v>
       </c>
       <c r="E80" s="46">
         <v>0.5</v>
@@ -7199,7 +7131,7 @@
       </c>
       <c r="G80" s="47">
         <f>PRODUCT(C80:F80)</f>
-        <v>0.15000000000000002</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="H80" s="48"/>
       <c r="I80" s="48"/>
@@ -7215,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="46">
-        <f>D88</f>
+        <f>D80</f>
         <v>5.4</v>
       </c>
       <c r="E81" s="46">
@@ -7236,62 +7168,51 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="44">
-        <v>1</v>
-      </c>
-      <c r="D82" s="46">
-        <f>D81</f>
-        <v>5.4</v>
-      </c>
-      <c r="E82" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="F82" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="G82" s="47">
-        <f>PRODUCT(C82:F82)</f>
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="24"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="51"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53">
+        <f>SUM(G78:G81)</f>
+        <v>0.76288326729655598</v>
+      </c>
+      <c r="H82" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I82" s="53">
+        <v>10634.5</v>
+      </c>
+      <c r="J82" s="54">
+        <f>G82*I82</f>
+        <v>8112.8821060652244</v>
+      </c>
+      <c r="K82" s="44"/>
     </row>
     <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="48"/>
       <c r="B83" s="45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C83" s="51"/>
       <c r="D83" s="52"/>
       <c r="E83" s="52"/>
       <c r="F83" s="52"/>
-      <c r="G83" s="53">
-        <f>SUM(G79:G82)</f>
-        <v>0.76288326729655598</v>
-      </c>
-      <c r="H83" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="I83" s="53">
-        <v>10634.5</v>
-      </c>
-      <c r="J83" s="54">
-        <f>G83*I83</f>
-        <v>8112.8821060652244</v>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="55">
+        <f>0.13*G82*((114907.3+6135.3)/15)</f>
+        <v>800.29190947394102</v>
       </c>
       <c r="K83" s="44"/>
     </row>
     <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="48"/>
-      <c r="B84" s="45" t="s">
-        <v>60</v>
-      </c>
+      <c r="B84" s="45"/>
       <c r="C84" s="51"/>
       <c r="D84" s="52"/>
       <c r="E84" s="52"/>
@@ -7299,85 +7220,97 @@
       <c r="G84" s="52"/>
       <c r="H84" s="52"/>
       <c r="I84" s="52"/>
-      <c r="J84" s="55">
-        <f>0.13*G83*((114907.3+6135.3)/15)</f>
-        <v>800.29190947394102</v>
-      </c>
+      <c r="J84" s="55"/>
       <c r="K84" s="44"/>
     </row>
-    <row r="85" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="48"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
+    <row r="85" spans="1:22" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="56">
+        <v>12</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="57"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
       <c r="J85" s="55"/>
-      <c r="K85" s="44"/>
-    </row>
-    <row r="86" spans="1:22" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="56">
-        <v>12</v>
-      </c>
-      <c r="B86" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="57"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="42"/>
+      <c r="K85" s="42"/>
+    </row>
+    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="21"/>
+      <c r="B86" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="44">
+        <v>1</v>
+      </c>
+      <c r="D86" s="46">
+        <v>6</v>
+      </c>
+      <c r="E86" s="46">
+        <f>((((3.5+4)/2)/3.281)+0.5)/2</f>
+        <v>0.82147211216092653</v>
+      </c>
+      <c r="F86" s="46">
+        <f>(((89/12)+8)/2)/3.281</f>
+        <v>2.3493853499949204</v>
+      </c>
+      <c r="G86" s="47">
+        <f>PRODUCT(C86:F86)</f>
+        <v>11.579727274441588</v>
+      </c>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="24"/>
+      <c r="M86" s="1">
+        <f>89/12</f>
+        <v>7.416666666666667</v>
+      </c>
+      <c r="N86" s="1">
+        <f>7.5/2</f>
+        <v>3.75</v>
+      </c>
+      <c r="O86">
+        <f>N86/3.281</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="P86">
+        <f>(O86+0.5)/2</f>
+        <v>0.82147211216092653</v>
+      </c>
     </row>
     <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
-      <c r="B87" s="45" t="s">
-        <v>57</v>
-      </c>
+      <c r="B87" s="45"/>
       <c r="C87" s="44">
         <v>1</v>
       </c>
       <c r="D87" s="46">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="E87" s="46">
-        <f>((((3.5+4)/2)/3.281)+0.5)/2</f>
-        <v>0.82147211216092653</v>
+        <f>(0.6+0.5)/2</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F87" s="46">
-        <f>(((89/12)+8)/2)/3.281</f>
-        <v>2.3493853499949204</v>
+        <f>((3.5+4)/2/3.281)-0.05</f>
+        <v>1.092944224321853</v>
       </c>
       <c r="G87" s="47">
         <f>PRODUCT(C87:F87)</f>
-        <v>11.579727274441588</v>
+        <v>3.2460443462359043</v>
       </c>
       <c r="H87" s="48"/>
       <c r="I87" s="48"/>
       <c r="J87" s="48"/>
       <c r="K87" s="24"/>
-      <c r="M87" s="1">
-        <f>89/12</f>
-        <v>7.416666666666667</v>
-      </c>
-      <c r="N87" s="1">
-        <f>7.5/2</f>
-        <v>3.75</v>
-      </c>
-      <c r="O87">
-        <f>N87/3.281</f>
-        <v>1.1429442243218531</v>
-      </c>
-      <c r="P87">
-        <f>(O87+0.5)/2</f>
-        <v>0.82147211216092653</v>
-      </c>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
@@ -7386,19 +7319,17 @@
         <v>1</v>
       </c>
       <c r="D88" s="46">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="E88" s="46">
-        <f>(0.6+0.5)/2</f>
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="F88" s="46">
-        <f>((3.5+4)/2/3.281)-0.05</f>
-        <v>1.092944224321853</v>
+        <v>0.5</v>
       </c>
       <c r="G88" s="47">
         <f>PRODUCT(C88:F88)</f>
-        <v>3.2460443462359043</v>
+        <v>0.25</v>
       </c>
       <c r="H88" s="48"/>
       <c r="I88" s="48"/>
@@ -7410,32 +7341,32 @@
     <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="48"/>
       <c r="B89" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C89" s="51"/>
       <c r="D89" s="52"/>
       <c r="E89" s="52"/>
       <c r="F89" s="52"/>
       <c r="G89" s="53">
-        <f>SUM(G87:G88)</f>
-        <v>14.825771620677493</v>
+        <f>SUM(G86:G88)</f>
+        <v>15.075771620677493</v>
       </c>
       <c r="H89" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I89" s="53">
         <v>9709.43</v>
       </c>
       <c r="J89" s="54">
         <f>G89*I89</f>
-        <v>143949.79174695467</v>
+        <v>146377.14924695468</v>
       </c>
       <c r="K89" s="44"/>
     </row>
     <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="48"/>
       <c r="B90" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -7446,7 +7377,7 @@
       <c r="I90" s="52"/>
       <c r="J90" s="55">
         <f>0.13*G89*((27092.1)/5)</f>
-        <v>10443.193470438475</v>
+        <v>10619.292120438475</v>
       </c>
       <c r="K90" s="44"/>
     </row>
@@ -7481,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I92" s="26">
         <v>500</v>
@@ -7519,7 +7450,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7">
         <f>SUM(J10:J93)</f>
-        <v>459614.29448570864</v>
+        <v>469988.02996661171</v>
       </c>
       <c r="K94" s="4"/>
       <c r="M94" s="32"/>
@@ -7540,11 +7471,11 @@
       <c r="B96" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="72">
+      <c r="C96" s="79">
         <f>J94</f>
-        <v>459614.29448570864</v>
-      </c>
-      <c r="D96" s="73"/>
+        <v>469988.02996661171</v>
+      </c>
+      <c r="D96" s="80"/>
       <c r="E96" s="10">
         <v>100</v>
       </c>
@@ -7569,10 +7500,10 @@
       <c r="B97" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="76">
+      <c r="C97" s="82">
         <v>400000</v>
       </c>
-      <c r="D97" s="77"/>
+      <c r="D97" s="83"/>
       <c r="E97" s="10"/>
       <c r="M97" s="30"/>
       <c r="N97" s="30"/>
@@ -7589,14 +7520,14 @@
       <c r="B98" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="76">
+      <c r="C98" s="82">
         <f>C97-C100-C101</f>
         <v>380000</v>
       </c>
-      <c r="D98" s="77"/>
+      <c r="D98" s="83"/>
       <c r="E98" s="10">
         <f>C98/C96*100</f>
-        <v>82.678020366012746</v>
+        <v>80.853123009748884</v>
       </c>
       <c r="M98" s="29"/>
       <c r="N98" s="29"/>
@@ -7613,14 +7544,14 @@
       <c r="B99" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="78">
+      <c r="C99" s="84">
         <f>C96-C98</f>
-        <v>79614.29448570864</v>
-      </c>
-      <c r="D99" s="78"/>
+        <v>89988.029966611706</v>
+      </c>
+      <c r="D99" s="84"/>
       <c r="E99" s="10">
         <f>100-E98</f>
-        <v>17.321979633987254</v>
+        <v>19.146876990251116</v>
       </c>
       <c r="M99" s="29"/>
       <c r="N99" s="29"/>
@@ -7637,11 +7568,11 @@
       <c r="B100" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="72">
+      <c r="C100" s="79">
         <f>C97*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D100" s="73"/>
+      <c r="D100" s="80"/>
       <c r="E100" s="10">
         <v>3</v>
       </c>
@@ -7660,11 +7591,11 @@
       <c r="B101" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="72">
+      <c r="C101" s="79">
         <f>C97*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D101" s="73"/>
+      <c r="D101" s="80"/>
       <c r="E101" s="10">
         <v>2</v>
       </c>
@@ -7681,13 +7612,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="A7:F7"/>
@@ -7696,6 +7620,13 @@
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1"/>
@@ -7706,6 +7637,2254 @@
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By: </oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="40">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10">
+        <f>(2.5+1.5+11)/3.281</f>
+        <v>4.5717768972874122</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3.97</v>
+      </c>
+      <c r="F10" s="10">
+        <f>PRODUCT(C10:E10)</f>
+        <v>108.89972569338616</v>
+      </c>
+      <c r="G10" s="36">
+        <f>F10</f>
+        <v>108.89972569338616</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="40">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10">
+        <f>(1+20+1)/3.281</f>
+        <v>6.7052727826882048</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:F20" si="0">PRODUCT(C11:E11)</f>
+        <v>54.715025906735754</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" ref="G11:G20" si="1">F11</f>
+        <v>54.715025906735754</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="11"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="40">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="10">
+        <f>12/3.281</f>
+        <v>3.6574215178299299</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>59.689119170984462</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="1"/>
+        <v>59.689119170984462</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="40">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10">
+        <f>3.25/3.281</f>
+        <v>0.99055166107893933</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>8.0829015544041454</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="1"/>
+        <v>8.0829015544041454</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="40">
+        <f t="shared" ref="C14:C20" si="2">2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D14" s="10">
+        <f>3.25/3.281</f>
+        <v>0.99055166107893933</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>10.876257238646755</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="1"/>
+        <v>10.876257238646755</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="10">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>9.2029868942395616</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="1"/>
+        <v>9.2029868942395616</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="11"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="10">
+        <f>2.42/3.281</f>
+        <v>0.73758000609570251</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>8.0986284669308137</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="1"/>
+        <v>8.0986284669308137</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="10">
+        <f>2.25/3.281</f>
+        <v>0.68576653459311188</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>7.5297165498323677</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="1"/>
+        <v>7.5297165498323677</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="10">
+        <f>1.5/3.281</f>
+        <v>0.45717768972874123</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>5.0198110332215791</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="1"/>
+        <v>5.0198110332215791</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D19" s="10">
+        <f>0.667/3.281</f>
+        <v>0.20329167936604695</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2321426394391954</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="1"/>
+        <v>2.2321426394391954</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="11"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="40">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10">
+        <f>D11</f>
+        <v>6.7052727826882048</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>145.90673575129534</v>
+      </c>
+      <c r="G20" s="36">
+        <f t="shared" si="1"/>
+        <v>145.90673575129534</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="27">
+        <f>SUM(G10:G20)</f>
+        <v>420.25305089911609</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="26">
+        <v>181.17</v>
+      </c>
+      <c r="J21" s="27">
+        <f>G21*I21</f>
+        <v>76137.245231392852</v>
+      </c>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27">
+        <f>0.13*G21*(1871.42/18.94)</f>
+        <v>5398.1570953944611</v>
+      </c>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="A24" s="38">
+        <v>2</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="11"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10">
+        <f>22/3.281</f>
+        <v>6.7052727826882048</v>
+      </c>
+      <c r="E25" s="10">
+        <f>12/3.281</f>
+        <v>3.6574215178299299</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="36">
+        <f>PRODUCT(C25:F25)</f>
+        <v>49.048017916646423</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="11"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="27">
+        <f>SUM(G25:G25)</f>
+        <v>49.048017916646423</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="26">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="J26" s="27">
+        <f>G26*I26</f>
+        <v>52525.52238693666</v>
+      </c>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27">
+        <f>0.13*G26*8587.63/10</f>
+        <v>5475.680991319894</v>
+      </c>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <v>3</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="22">
+        <v>6</v>
+      </c>
+      <c r="D30" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="F30" s="24">
+        <f>(2.5+0.25+0.17)/3.281</f>
+        <v>0.88997256933861624</v>
+      </c>
+      <c r="G30" s="36">
+        <f>PRODUCT(C30:F30)</f>
+        <v>1.0813166717464189</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="27">
+        <f>SUM(G30:G30)</f>
+        <v>1.0813166717464189</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J31" s="27">
+        <f>G31*I31</f>
+        <v>717.2481615361171</v>
+      </c>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>4</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="22">
+        <f>C30</f>
+        <v>6</v>
+      </c>
+      <c r="D34" s="23">
+        <f>D30</f>
+        <v>0.45</v>
+      </c>
+      <c r="E34" s="24">
+        <f>E30</f>
+        <v>0.45</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="36">
+        <f>PRODUCT(C34:F34)</f>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="22">
+        <v>2</v>
+      </c>
+      <c r="D35" s="23">
+        <f>(11.5)/3.281</f>
+        <v>3.5050289545870159</v>
+      </c>
+      <c r="E35" s="24">
+        <f>(8.917)/3.281</f>
+        <v>2.7177689728741234</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="36">
+        <f>PRODUCT(C35:F35)</f>
+        <v>19.051717883604034</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="27">
+        <f>SUM(G34:G35)</f>
+        <v>20.266717883604034</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="26">
+        <v>1014.97</v>
+      </c>
+      <c r="J36" s="27">
+        <f>G36*I36</f>
+        <v>20570.110650321589</v>
+      </c>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27">
+        <f>0.13*G36*8617.2/10</f>
+        <v>2270.3506975057053</v>
+      </c>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <v>5</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="22">
+        <f>C34</f>
+        <v>6</v>
+      </c>
+      <c r="D40" s="23">
+        <f>D34</f>
+        <v>0.45</v>
+      </c>
+      <c r="E40" s="24">
+        <f>E34</f>
+        <v>0.45</v>
+      </c>
+      <c r="F40" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G40" s="36">
+        <f>PRODUCT(C40:F40)</f>
+        <v>9.1124999999999998E-2</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="27">
+        <f>SUM(G40:G40)</f>
+        <v>9.1124999999999998E-2</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="26">
+        <v>12983.1</v>
+      </c>
+      <c r="J41" s="27">
+        <f>G41*I41</f>
+        <v>1183.0849874999999</v>
+      </c>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27">
+        <f>0.13*G41*8078.11</f>
+        <v>95.695310587500003</v>
+      </c>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A44" s="21">
+        <v>6</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="22">
+        <f>C40</f>
+        <v>6</v>
+      </c>
+      <c r="D45" s="23">
+        <f>D40</f>
+        <v>0.45</v>
+      </c>
+      <c r="E45" s="24">
+        <f>E40</f>
+        <v>0.45</v>
+      </c>
+      <c r="F45" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="36">
+        <f>PRODUCT(C45:F45)</f>
+        <v>0.91125000000000012</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="22">
+        <f>C45</f>
+        <v>6</v>
+      </c>
+      <c r="D46" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E46" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F46" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G46" s="36">
+        <f>PRODUCT(C46:F46)</f>
+        <v>0.24299999999999997</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="22">
+        <v>2</v>
+      </c>
+      <c r="D47" s="23">
+        <f>D35</f>
+        <v>3.5050289545870159</v>
+      </c>
+      <c r="E47" s="24">
+        <f>E35</f>
+        <v>2.7177689728741234</v>
+      </c>
+      <c r="F47" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G47" s="36">
+        <f>PRODUCT(C47:F47)</f>
+        <v>1.4288788412703026</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="27">
+        <f>SUM(G45:G47)</f>
+        <v>2.5831288412703026</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="26">
+        <v>13568.9</v>
+      </c>
+      <c r="J48" s="27">
+        <f>G48*I48</f>
+        <v>35050.216934312608</v>
+      </c>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27">
+        <f>0.13*G48*9524.2</f>
+        <v>3198.2906423034606</v>
+      </c>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <v>7</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D52" s="23">
+        <f>8.42/3.281</f>
+        <v>2.5662907650106672</v>
+      </c>
+      <c r="E52" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F52" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G52" s="36">
+        <f>PRODUCT(C52:F52)</f>
+        <v>0.70829625114294414</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="22">
+        <v>3</v>
+      </c>
+      <c r="D53" s="23">
+        <f>11.25/3.281</f>
+        <v>3.4288326729655592</v>
+      </c>
+      <c r="E53" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F53" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G53" s="36">
+        <f>PRODUCT(C53:F53)</f>
+        <v>0.70976836330387083</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="22">
+        <v>4</v>
+      </c>
+      <c r="D54" s="23">
+        <f>8.917/3.281</f>
+        <v>2.7177689728741234</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F54" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G54" s="36">
+        <f t="shared" ref="G54:G55" si="3">PRODUCT(C54:F54)</f>
+        <v>2.2503127095397741</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="22">
+        <v>3</v>
+      </c>
+      <c r="D55" s="23">
+        <f>(11.5)/3.281</f>
+        <v>3.5050289545870159</v>
+      </c>
+      <c r="E55" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F55" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G55" s="36">
+        <f t="shared" si="3"/>
+        <v>2.1766229807985376</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="27">
+        <f>SUM(G52:G55)</f>
+        <v>5.8450003047851267</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="26">
+        <v>14362.76</v>
+      </c>
+      <c r="J56" s="27">
+        <f>G56*I56</f>
+        <v>83950.33657755563</v>
+      </c>
+      <c r="K56" s="24"/>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27">
+        <f>0.13*G56*10311.74</f>
+        <v>7835.3760475724484</v>
+      </c>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A59" s="21">
+        <v>8</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D60" s="23">
+        <f>20/3.281</f>
+        <v>6.0957025297165499</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G60" s="36">
+        <f t="shared" ref="G60:G61" si="4">PRODUCT(C60:F60)</f>
+        <v>21.94452910697958</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D61" s="23">
+        <f>(13-1.5)/3.281</f>
+        <v>3.5050289545870159</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="G61" s="36">
+        <f t="shared" si="4"/>
+        <v>12.618104236513258</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="24"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="27">
+        <f>SUM(G58:G61)</f>
+        <v>34.562633343492834</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="26">
+        <v>405.86</v>
+      </c>
+      <c r="J62" s="27">
+        <f>G62*I62</f>
+        <v>14027.590368790003</v>
+      </c>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27">
+        <f>0.13*G62*11166.2/100</f>
+        <v>501.71325937214266</v>
+      </c>
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="1:19" ht="138" x14ac:dyDescent="0.3">
+      <c r="A65" s="42">
+        <v>9</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="N65" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21"/>
+      <c r="B66" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="46">
+        <f>D82</f>
+        <v>6.3626288999999998</v>
+      </c>
+      <c r="E66" s="46">
+        <f>F82/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F66" s="46">
+        <v>2</v>
+      </c>
+      <c r="G66" s="47">
+        <f>PRODUCT(C66:F66)</f>
+        <v>7.953286125</v>
+      </c>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="24"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+    </row>
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="26">
+        <f>SUM(G66:G66)</f>
+        <v>7.953286125</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" s="26">
+        <v>64.63</v>
+      </c>
+      <c r="J67" s="50">
+        <f>G67*I67</f>
+        <v>514.02088225874991</v>
+      </c>
+      <c r="K67" s="24"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+    </row>
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="50">
+        <f>0.13*G67*19284/360</f>
+        <v>55.384033479125002</v>
+      </c>
+      <c r="K68" s="24"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+    </row>
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="24"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+    </row>
+    <row r="70" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="21">
+        <v>10</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="24"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="21"/>
+      <c r="B71" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="44">
+        <v>1</v>
+      </c>
+      <c r="D71" s="46">
+        <f>D76</f>
+        <v>6.3626288999999998</v>
+      </c>
+      <c r="E71" s="46">
+        <f>E76</f>
+        <v>1.25</v>
+      </c>
+      <c r="F71" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="G71" s="47">
+        <f>PRODUCT(C71:F71)</f>
+        <v>1.1929929187499999</v>
+      </c>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="24"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
+    </row>
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="48"/>
+      <c r="B72" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53">
+        <f>SUM(G71:G71)</f>
+        <v>1.1929929187499999</v>
+      </c>
+      <c r="H72" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I72" s="53">
+        <v>4434.5200000000004</v>
+      </c>
+      <c r="J72" s="54">
+        <f>G72*I72</f>
+        <v>5290.35095805525</v>
+      </c>
+      <c r="K72" s="44"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="48"/>
+      <c r="B73" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="55">
+        <f>0.13*G72*(14817.6/5)</f>
+        <v>459.60958869462002</v>
+      </c>
+      <c r="K73" s="44"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="48"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="44"/>
+    </row>
+    <row r="75" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+      <c r="A75" s="21">
+        <v>11</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="24"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
+    </row>
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="21"/>
+      <c r="B76" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="44">
+        <v>1</v>
+      </c>
+      <c r="D76" s="46">
+        <f>D82</f>
+        <v>6.3626288999999998</v>
+      </c>
+      <c r="E76" s="46">
+        <f>F82/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F76" s="46">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G76" s="47">
+        <f>PRODUCT(C76:F76)</f>
+        <v>0.59649645937499995</v>
+      </c>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="24"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="49"/>
+      <c r="S76" s="49"/>
+    </row>
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="44">
+        <v>1</v>
+      </c>
+      <c r="D77" s="46">
+        <f>D76</f>
+        <v>6.3626288999999998</v>
+      </c>
+      <c r="E77" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G77" s="47">
+        <f>PRODUCT(C77:F77)</f>
+        <v>0.15906572250000001</v>
+      </c>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="24"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="49"/>
+      <c r="S77" s="49"/>
+    </row>
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="48"/>
+      <c r="B78" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="51"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53">
+        <f>SUM(G76:G77)</f>
+        <v>0.75556218187500002</v>
+      </c>
+      <c r="H78" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I78" s="53">
+        <v>10634.5</v>
+      </c>
+      <c r="J78" s="54">
+        <f>G78*I78</f>
+        <v>8035.0260231496877</v>
+      </c>
+      <c r="K78" s="44"/>
+    </row>
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="48"/>
+      <c r="B79" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="51"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="55">
+        <f>0.13*G78*((114907.3+6135.3)/15)</f>
+        <v>792.61182828379833</v>
+      </c>
+      <c r="K79" s="44"/>
+    </row>
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="48"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="44"/>
+    </row>
+    <row r="81" spans="1:31" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="56">
+        <v>12</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="57"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="42"/>
+    </row>
+    <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="44">
+        <v>1</v>
+      </c>
+      <c r="D82" s="46">
+        <v>6.3626288999999998</v>
+      </c>
+      <c r="E82" s="46">
+        <f>((F82/2+0.5)/2)</f>
+        <v>0.875</v>
+      </c>
+      <c r="F82" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="G82" s="47">
+        <f>PRODUCT(C82:F82)</f>
+        <v>13.91825071875</v>
+      </c>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="24"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="49"/>
+      <c r="S82" s="49"/>
+    </row>
+    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="48"/>
+      <c r="B83" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="51"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53">
+        <f>SUM(G82:G82)</f>
+        <v>13.91825071875</v>
+      </c>
+      <c r="H83" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I83" s="53">
+        <v>9709.43</v>
+      </c>
+      <c r="J83" s="54">
+        <f>G83*I83</f>
+        <v>135138.28107615281</v>
+      </c>
+      <c r="K83" s="44"/>
+    </row>
+    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="48"/>
+      <c r="B84" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="51"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="55">
+        <f>0.13*G83*((27092.1)/5)</f>
+        <v>9803.9406477336197</v>
+      </c>
+      <c r="K84" s="44"/>
+    </row>
+    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="48"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="44"/>
+    </row>
+    <row r="86" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="21">
+        <v>13</v>
+      </c>
+      <c r="B86" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="22">
+        <v>1</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="36">
+        <f>PRODUCT(C86:F86)</f>
+        <v>1</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" s="26">
+        <v>500</v>
+      </c>
+      <c r="J86" s="27">
+        <f>G86*I86</f>
+        <v>500</v>
+      </c>
+      <c r="K86" s="24"/>
+    </row>
+    <row r="87" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="21"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="24"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
+      <c r="B88" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7">
+        <f>SUM(J10:J87)</f>
+        <v>469525.84438020881</v>
+      </c>
+      <c r="K88" s="4"/>
+      <c r="M88" s="29"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M89" s="29"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="31"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="29"/>
+      <c r="AA89" s="29"/>
+      <c r="AB89" s="29"/>
+      <c r="AC89" s="29"/>
+      <c r="AD89" s="29"/>
+      <c r="AE89" s="29"/>
+    </row>
+    <row r="90" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="79">
+        <f>J88</f>
+        <v>469525.84438020881</v>
+      </c>
+      <c r="D90" s="80"/>
+      <c r="E90" s="10">
+        <v>100</v>
+      </c>
+      <c r="F90" s="12"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="16"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30"/>
+      <c r="S90" s="30"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="12"/>
+      <c r="AC90" s="12"/>
+      <c r="AD90" s="12"/>
+      <c r="AE90" s="12"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="82">
+        <v>400000</v>
+      </c>
+      <c r="D91" s="83"/>
+      <c r="E91" s="10"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="29"/>
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="29"/>
+      <c r="AE91" s="29"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="82">
+        <f>C91-C94-C95</f>
+        <v>380000</v>
+      </c>
+      <c r="D92" s="83"/>
+      <c r="E92" s="10">
+        <f>C92/C90*100</f>
+        <v>80.932712128256497</v>
+      </c>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
+      <c r="X92" s="29"/>
+      <c r="Y92" s="29"/>
+      <c r="Z92" s="29"/>
+      <c r="AA92" s="29"/>
+      <c r="AB92" s="29"/>
+      <c r="AC92" s="29"/>
+      <c r="AD92" s="29"/>
+      <c r="AE92" s="29"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B93" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="84">
+        <f>C90-C92</f>
+        <v>89525.844380208815</v>
+      </c>
+      <c r="D93" s="84"/>
+      <c r="E93" s="10">
+        <f>100-E92</f>
+        <v>19.067287871743503</v>
+      </c>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="X93" s="29"/>
+      <c r="Y93" s="29"/>
+      <c r="Z93" s="29"/>
+      <c r="AA93" s="29"/>
+      <c r="AB93" s="29"/>
+      <c r="AC93" s="29"/>
+      <c r="AD93" s="29"/>
+      <c r="AE93" s="29"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="79">
+        <f>C91*0.03</f>
+        <v>12000</v>
+      </c>
+      <c r="D94" s="80"/>
+      <c r="E94" s="10">
+        <v>3</v>
+      </c>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+      <c r="AA94" s="29"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="29"/>
+      <c r="AE94" s="29"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B95" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="79">
+        <f>C91*0.02</f>
+        <v>8000</v>
+      </c>
+      <c r="D95" s="80"/>
+      <c r="E95" s="10">
+        <v>2</v>
+      </c>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="29"/>
+      <c r="AA95" s="29"/>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="29"/>
+      <c r="AD95" s="29"/>
+      <c r="AE95" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B59" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By: </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/ofc/estimates/khulaltaar baatika truss/V-खुलालटार कार्कीटोल वाटिका निर्माण.xlsx
+++ b/ofc/estimates/khulaltaar baatika truss/V-खुलालटार कार्कीटोल वाटिका निर्माण.xlsx
@@ -2,23 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\khulaltaar baatika truss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\khulaltaar baatika truss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="as per mistry" sheetId="19" r:id="rId1"/>
     <sheet name="WCR" sheetId="21" r:id="rId2"/>
     <sheet name="V" sheetId="20" r:id="rId3"/>
-    <sheet name="as per mistry (2)" sheetId="22" state="hidden" r:id="rId4"/>
+    <sheet name="M" sheetId="23" r:id="rId4"/>
+    <sheet name="as per mistry (2)" sheetId="22" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
@@ -27,6 +27,7 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="adopted_rate_aggregate_10_20_mm">[1]District_Rate!$L$6</definedName>
@@ -60,17 +61,20 @@
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'as per mistry'!$A$5:$K$95</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'as per mistry (2)'!$A$5:$K$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'as per mistry (2)'!$A$5:$K$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">M!$A$5:$K$101</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$5:$K$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'as per mistry'!$1:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'as per mistry (2)'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'as per mistry (2)'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">M!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
     <definedName name="skilled">[1]District_Rate!$D$148</definedName>
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="86">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -298,9 +302,6 @@
     <t xml:space="preserve">F.Y:2081/2082             </t>
   </si>
   <si>
-    <t xml:space="preserve">Date:2081/12/14       </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -327,14 +328,29 @@
   <si>
     <t>-MS square pipe of 2"*2" of 1.8mm thickness for king post member</t>
   </si>
+  <si>
+    <t>Detail Quantity Measurement Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: 2081/12/26  </t>
+  </si>
+  <si>
+    <t>Detail Valuated Sheet</t>
+  </si>
+  <si>
+    <t>Total Valuated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:2081/12/26       </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -550,9 +566,9 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -563,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,7 +587,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -588,7 +604,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -597,7 +613,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -609,7 +625,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,7 +669,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -676,7 +692,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -686,7 +702,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -703,7 +719,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -724,14 +740,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,23 +776,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -775,30 +812,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1437,11 +1451,6 @@
             <v>Project:- ૐ शान्ति भवन निर्माण तथा मर्मत</v>
           </cell>
         </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Location:- Shankharapur Municipality 9</v>
-          </cell>
-        </row>
         <row r="56">
           <cell r="B56" t="str">
             <v>VAT calculation</v>
@@ -1727,139 +1736,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE95"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1919,7 +1928,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>40</v>
@@ -1948,7 +1957,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>41</v>
@@ -1977,7 +1986,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
         <v>44</v>
@@ -2007,10 +2016,10 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="40">
         <v>3</v>
@@ -2036,13 +2045,13 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="40">
-        <f t="shared" ref="C14:C20" si="2">2*3</f>
+        <f t="shared" ref="C14:C19" si="2">2*3</f>
         <v>6</v>
       </c>
       <c r="D14" s="10">
@@ -2066,7 +2075,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40">
@@ -2094,7 +2103,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -2122,7 +2131,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39" t="s">
         <v>42</v>
@@ -2152,7 +2161,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40">
@@ -2180,7 +2189,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40">
@@ -2208,7 +2217,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39" t="s">
         <v>45</v>
@@ -2237,7 +2246,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="39" t="s">
         <v>25</v>
@@ -2262,7 +2271,7 @@
       </c>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="39" t="s">
         <v>34</v>
@@ -2280,7 +2289,7 @@
       </c>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="37"/>
       <c r="C23" s="22"/>
@@ -2293,7 +2302,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>2</v>
       </c>
@@ -2311,7 +2320,7 @@
       <c r="K24" s="11"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="39"/>
       <c r="C25" s="40">
@@ -2336,7 +2345,7 @@
       <c r="K25" s="11"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="39" t="s">
         <v>25</v>
@@ -2361,7 +2370,7 @@
       </c>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="39" t="s">
         <v>34</v>
@@ -2379,7 +2388,7 @@
       </c>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="39"/>
       <c r="C28" s="22"/>
@@ -2392,7 +2401,7 @@
       <c r="J28" s="27"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>3</v>
       </c>
@@ -2409,7 +2418,7 @@
       <c r="J29" s="27"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="39" t="s">
         <v>36</v>
@@ -2436,7 +2445,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="39" t="s">
         <v>25</v>
@@ -2461,7 +2470,7 @@
       </c>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="39"/>
       <c r="C32" s="22"/>
@@ -2474,7 +2483,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>4</v>
       </c>
@@ -2491,7 +2500,7 @@
       <c r="J33" s="27"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="39" t="s">
         <v>36</v>
@@ -2518,7 +2527,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="39" t="s">
         <v>49</v>
@@ -2544,7 +2553,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="39" t="s">
         <v>25</v>
@@ -2569,7 +2578,7 @@
       </c>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
         <v>34</v>
@@ -2587,7 +2596,7 @@
       </c>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="39"/>
       <c r="C38" s="22"/>
@@ -2600,7 +2609,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>5</v>
       </c>
@@ -2617,7 +2626,7 @@
       <c r="J39" s="27"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="39" t="s">
         <v>36</v>
@@ -2646,7 +2655,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="39" t="s">
         <v>25</v>
@@ -2671,7 +2680,7 @@
       </c>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
         <v>34</v>
@@ -2689,7 +2698,7 @@
       </c>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="39"/>
       <c r="C43" s="22"/>
@@ -2702,7 +2711,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>6</v>
       </c>
@@ -2719,7 +2728,7 @@
       <c r="J44" s="27"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="39" t="s">
         <v>50</v>
@@ -2748,7 +2757,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="39"/>
       <c r="C46" s="22">
@@ -2773,7 +2782,7 @@
       <c r="J46" s="27"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
         <v>49</v>
@@ -2801,7 +2810,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="39" t="s">
         <v>25</v>
@@ -2826,7 +2835,7 @@
       </c>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="39" t="s">
         <v>34</v>
@@ -2844,7 +2853,7 @@
       </c>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="39"/>
       <c r="C50" s="22"/>
@@ -2857,7 +2866,7 @@
       <c r="J50" s="27"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>7</v>
       </c>
@@ -2874,7 +2883,7 @@
       <c r="J51" s="27"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="39" t="s">
         <v>50</v>
@@ -2902,7 +2911,7 @@
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="39"/>
       <c r="C53" s="22">
@@ -2927,7 +2936,7 @@
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
         <v>51</v>
@@ -2954,7 +2963,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="39"/>
       <c r="C55" s="22">
@@ -2979,7 +2988,7 @@
       <c r="J55" s="27"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="39" t="s">
         <v>25</v>
@@ -3004,7 +3013,7 @@
       </c>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="39" t="s">
         <v>34</v>
@@ -3022,7 +3031,7 @@
       </c>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="39"/>
       <c r="C58" s="22"/>
@@ -3035,7 +3044,7 @@
       <c r="J58" s="27"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>8</v>
       </c>
@@ -3052,7 +3061,7 @@
       <c r="J59" s="27"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="39" t="s">
         <v>51</v>
@@ -3078,7 +3087,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="39"/>
       <c r="C61" s="22">
@@ -3102,7 +3111,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="39" t="s">
         <v>25</v>
@@ -3127,7 +3136,7 @@
       </c>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="39" t="s">
         <v>34</v>
@@ -3145,7 +3154,7 @@
       </c>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="37"/>
       <c r="C64" s="22"/>
@@ -3158,7 +3167,7 @@
       <c r="J64" s="27"/>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:19" ht="138" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>9</v>
       </c>
@@ -3181,7 +3190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="45" t="s">
         <v>56</v>
@@ -3216,7 +3225,7 @@
       <c r="R66" s="49"/>
       <c r="S66" s="49"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="45" t="s">
         <v>57</v>
@@ -3248,7 +3257,7 @@
       <c r="R67" s="49"/>
       <c r="S67" s="49"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="45" t="s">
         <v>59</v>
@@ -3273,7 +3282,7 @@
       <c r="R68" s="49"/>
       <c r="S68" s="49"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="45"/>
       <c r="C69" s="22"/>
@@ -3293,7 +3302,7 @@
       <c r="R69" s="49"/>
       <c r="S69" s="49"/>
     </row>
-    <row r="70" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>10</v>
       </c>
@@ -3317,7 +3326,7 @@
       <c r="R70" s="49"/>
       <c r="S70" s="49"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="45" t="s">
         <v>60</v>
@@ -3352,7 +3361,7 @@
       <c r="R71" s="49"/>
       <c r="S71" s="49"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48"/>
       <c r="B72" s="45" t="s">
         <v>57</v>
@@ -3377,7 +3386,7 @@
       </c>
       <c r="K72" s="44"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="48"/>
       <c r="B73" s="45" t="s">
         <v>59</v>
@@ -3395,7 +3404,7 @@
       </c>
       <c r="K73" s="44"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="48"/>
       <c r="B74" s="45"/>
       <c r="C74" s="51"/>
@@ -3408,7 +3417,7 @@
       <c r="J74" s="55"/>
       <c r="K74" s="44"/>
     </row>
-    <row r="75" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>11</v>
       </c>
@@ -3432,7 +3441,7 @@
       <c r="R75" s="49"/>
       <c r="S75" s="49"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="45" t="s">
         <v>56</v>
@@ -3467,7 +3476,7 @@
       <c r="R76" s="49"/>
       <c r="S76" s="49"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="45"/>
       <c r="C77" s="44">
@@ -3499,7 +3508,7 @@
       <c r="R77" s="49"/>
       <c r="S77" s="49"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
       <c r="B78" s="45" t="s">
         <v>57</v>
@@ -3524,7 +3533,7 @@
       </c>
       <c r="K78" s="44"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48"/>
       <c r="B79" s="45" t="s">
         <v>59</v>
@@ -3542,7 +3551,7 @@
       </c>
       <c r="K79" s="44"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48"/>
       <c r="B80" s="45"/>
       <c r="C80" s="51"/>
@@ -3555,7 +3564,7 @@
       <c r="J80" s="55"/>
       <c r="K80" s="44"/>
     </row>
-    <row r="81" spans="1:31" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="56">
         <v>12</v>
       </c>
@@ -3572,7 +3581,7 @@
       <c r="J81" s="55"/>
       <c r="K81" s="42"/>
     </row>
-    <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="45" t="s">
         <v>56</v>
@@ -3606,7 +3615,7 @@
       <c r="R82" s="49"/>
       <c r="S82" s="49"/>
     </row>
-    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="48"/>
       <c r="B83" s="45" t="s">
         <v>57</v>
@@ -3631,7 +3640,7 @@
       </c>
       <c r="K83" s="44"/>
     </row>
-    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48"/>
       <c r="B84" s="45" t="s">
         <v>59</v>
@@ -3649,7 +3658,7 @@
       </c>
       <c r="K84" s="44"/>
     </row>
-    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="48"/>
       <c r="B85" s="45"/>
       <c r="C85" s="51"/>
@@ -3662,7 +3671,7 @@
       <c r="J85" s="54"/>
       <c r="K85" s="44"/>
     </row>
-    <row r="86" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>13</v>
       </c>
@@ -3691,7 +3700,7 @@
       </c>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="39"/>
       <c r="C87" s="22"/>
@@ -3704,7 +3713,7 @@
       <c r="J87" s="27"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="20" t="s">
         <v>16</v>
@@ -3725,7 +3734,7 @@
       <c r="P88" s="32"/>
       <c r="Q88" s="32"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M89" s="29"/>
       <c r="N89" s="30"/>
       <c r="O89" s="30"/>
@@ -3745,15 +3754,15 @@
       <c r="AD89" s="29"/>
       <c r="AE89" s="29"/>
     </row>
-    <row r="90" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="79">
+      <c r="C90" s="73">
         <f>J88</f>
         <v>469525.84411021339</v>
       </c>
-      <c r="D90" s="80"/>
+      <c r="D90" s="74"/>
       <c r="E90" s="10">
         <v>100</v>
       </c>
@@ -3783,14 +3792,14 @@
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="82">
+      <c r="C91" s="77">
         <v>400000</v>
       </c>
-      <c r="D91" s="83"/>
+      <c r="D91" s="78"/>
       <c r="E91" s="10"/>
       <c r="M91" s="29"/>
       <c r="N91" s="30"/>
@@ -3812,15 +3821,15 @@
       <c r="AD91" s="29"/>
       <c r="AE91" s="29"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="82">
+      <c r="C92" s="77">
         <f>C91-C94-C95</f>
         <v>380000</v>
       </c>
-      <c r="D92" s="83"/>
+      <c r="D92" s="78"/>
       <c r="E92" s="10">
         <f>C92/C90*100</f>
         <v>80.932712174795924</v>
@@ -3845,15 +3854,15 @@
       <c r="AD92" s="29"/>
       <c r="AE92" s="29"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="84">
+      <c r="C93" s="79">
         <f>C90-C92</f>
         <v>89525.844110213395</v>
       </c>
-      <c r="D93" s="84"/>
+      <c r="D93" s="79"/>
       <c r="E93" s="10">
         <f>100-E92</f>
         <v>19.067287825204076</v>
@@ -3878,15 +3887,15 @@
       <c r="AD93" s="29"/>
       <c r="AE93" s="29"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="79">
+      <c r="C94" s="73">
         <f>C91*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D94" s="80"/>
+      <c r="D94" s="74"/>
       <c r="E94" s="10">
         <v>3</v>
       </c>
@@ -3910,15 +3919,15 @@
       <c r="AD94" s="29"/>
       <c r="AE94" s="29"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="79">
+      <c r="C95" s="73">
         <f>C91*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D95" s="80"/>
+      <c r="D95" s="74"/>
       <c r="E95" s="10">
         <v>2</v>
       </c>
@@ -3944,6 +3953,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="A7:F7"/>
@@ -3952,13 +3968,6 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1"/>
@@ -3976,110 +3985,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-    </row>
-    <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="88" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="89" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="58"/>
-      <c r="C6" s="85">
+      <c r="C6" s="92">
         <f>F50</f>
         <v>469525.84411021339</v>
       </c>
-      <c r="D6" s="86"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="59"/>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
@@ -4087,92 +4096,92 @@
         <v>68</v>
       </c>
       <c r="I6" s="58"/>
-      <c r="J6" s="85">
+      <c r="J6" s="92">
         <f>I50</f>
         <v>469988.02996661171</v>
       </c>
-      <c r="K6" s="86"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" s="93"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="I7" s="91" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="I7" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="92" t="str">
-        <f>'[9]Sheet4 (2)'!A6:F6</f>
-        <v>Project:- ૐ शान्ति भवन निर्माण तथा मर्मत</v>
-      </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="I8" s="93" t="s">
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="str">
+        <f>'as per mistry'!A6:G6</f>
+        <v>Project:- खुलालटार कार्कीटोल वाटिका निर्माण</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="I8" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="94" t="str">
-        <f>'[9]Sheet4 (2)'!A7:F7</f>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="str">
+        <f>'as per mistry'!A7:G7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="I9" s="93" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="I9" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="96" t="s">
+      <c r="B11" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="C11" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="97" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97" t="s">
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="96" t="s">
+      <c r="K11" s="85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="61" t="s">
         <v>77</v>
-      </c>
-      <c r="K11" s="95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="61" t="s">
-        <v>78</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>13</v>
@@ -4181,7 +4190,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="61" t="s">
         <v>13</v>
@@ -4189,10 +4198,10 @@
       <c r="I12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="96"/>
-      <c r="K12" s="95"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="86"/>
+      <c r="K12" s="85"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <f>'as per mistry'!A9</f>
         <v>1</v>
@@ -4239,7 +4248,7 @@
         <v>95171.556539241064</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="66" t="str">
         <f>'as per mistry'!B22</f>
@@ -4268,7 +4277,7 @@
         <v>6747.6963692430763</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="67"/>
       <c r="C15" s="10"/>
@@ -4281,7 +4290,7 @@
       <c r="J15" s="64"/>
       <c r="K15" s="65"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
         <f>'as per mistry'!A24</f>
         <v>2</v>
@@ -4328,7 +4337,7 @@
         <v>65656.902983670821</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="66" t="str">
         <f>'as per mistry'!B27</f>
@@ -4357,7 +4366,7 @@
         <v>6544.9098793762478</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="67"/>
       <c r="C18" s="10"/>
@@ -4370,7 +4379,7 @@
       <c r="J18" s="64"/>
       <c r="K18" s="65"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="62">
         <f>'as per mistry'!A29</f>
         <v>3</v>
@@ -4417,7 +4426,7 @@
         <v>896.56020192014637</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
       <c r="B20" s="67"/>
       <c r="C20" s="10"/>
@@ -4430,7 +4439,7 @@
       <c r="J20" s="64"/>
       <c r="K20" s="65"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62">
         <f>'as per mistry'!A33</f>
         <v>4</v>
@@ -4477,7 +4486,7 @@
         <v>25712.638312901985</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
       <c r="B22" s="66" t="str">
         <f>'as per mistry'!B37</f>
@@ -4506,7 +4515,7 @@
         <v>2837.9383718821318</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="62"/>
       <c r="B23" s="67"/>
       <c r="C23" s="10"/>
@@ -4519,7 +4528,7 @@
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="62">
         <f>'as per mistry'!A39</f>
         <v>5</v>
@@ -4566,7 +4575,7 @@
         <v>1478.856234375</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="62"/>
       <c r="B25" s="66" t="str">
         <f>'as per mistry'!B42</f>
@@ -4595,7 +4604,7 @@
         <v>119.619138234375</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="62"/>
       <c r="B26" s="67"/>
       <c r="C26" s="10"/>
@@ -4608,7 +4617,7 @@
       <c r="J26" s="64"/>
       <c r="K26" s="65"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="62">
         <f>'as per mistry'!A44</f>
         <v>6</v>
@@ -4655,7 +4664,7 @@
         <v>43812.771167890758</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="66" t="str">
         <f>'as per mistry'!B49</f>
@@ -4684,7 +4693,7 @@
         <v>3997.8633028793256</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="62"/>
       <c r="B29" s="67"/>
       <c r="C29" s="10"/>
@@ -4697,7 +4706,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="65"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="62">
         <f>'as per mistry'!A51</f>
         <v>7</v>
@@ -4744,7 +4753,7 @@
         <v>104937.92072194454</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="66" t="str">
         <f>'as per mistry'!B57</f>
@@ -4773,7 +4782,7 @@
         <v>9794.2200594655606</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="62"/>
       <c r="B32" s="67"/>
       <c r="C32" s="10"/>
@@ -4786,7 +4795,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="65"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="62">
         <f>'as per mistry'!A59</f>
         <v>8</v>
@@ -4833,7 +4842,7 @@
         <v>17534.487960987502</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="62"/>
       <c r="B34" s="66" t="str">
         <f>'as per mistry'!B63</f>
@@ -4862,7 +4871,7 @@
         <v>627.14157421517837</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="62"/>
       <c r="B35" s="67"/>
       <c r="C35" s="10"/>
@@ -4875,7 +4884,7 @@
       <c r="J35" s="64"/>
       <c r="K35" s="65"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A36" s="62">
         <f>'as per mistry'!A65</f>
         <v>9</v>
@@ -4922,7 +4931,7 @@
         <v>643.48836273593747</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="62"/>
       <c r="B37" s="66" t="str">
         <f>'[9]Sheet4 (2)'!B56</f>
@@ -4951,7 +4960,7 @@
         <v>69.333722140989579</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="62"/>
       <c r="B38" s="67"/>
       <c r="C38" s="10"/>
@@ -4964,7 +4973,7 @@
       <c r="J38" s="64"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="62">
         <f>'as per mistry'!A70</f>
         <v>10</v>
@@ -5011,7 +5020,7 @@
         <v>6622.8423665165619</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="62"/>
       <c r="B40" s="66" t="str">
         <f>'as per mistry'!B73</f>
@@ -5040,7 +5049,7 @@
         <v>575.37238648207483</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="67"/>
       <c r="C41" s="10"/>
@@ -5053,7 +5062,7 @@
       <c r="J41" s="64"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="62">
         <f>'as per mistry'!A75</f>
         <v>11</v>
@@ -5100,7 +5109,7 @@
         <v>10058.824298065232</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="62"/>
       <c r="B43" s="66" t="str">
         <f>'as per mistry'!B79</f>
@@ -5129,7 +5138,7 @@
         <v>992.24857446693204</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="10"/>
@@ -5142,7 +5151,7 @@
       <c r="J44" s="64"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="62">
         <f>'as per mistry'!A81</f>
         <v>12</v>
@@ -5189,7 +5198,7 @@
         <v>169175.83357803788</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="62"/>
       <c r="B46" s="66" t="str">
         <f>'as per mistry'!B84</f>
@@ -5218,7 +5227,7 @@
         <v>12273.279031093336</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="10"/>
@@ -5231,7 +5240,7 @@
       <c r="J47" s="64"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62">
         <f>'as per mistry'!A86</f>
         <v>13</v>
@@ -5278,7 +5287,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="10"/>
@@ -5291,10 +5300,10 @@
       <c r="J49" s="64"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="70"/>
       <c r="D50" s="7"/>
@@ -5317,6 +5326,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -5324,19 +5346,6 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5354,137 +5363,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView topLeftCell="A84" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -5519,7 +5528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -5544,7 +5553,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>40</v>
@@ -5572,7 +5581,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="40">
@@ -5598,7 +5607,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
         <v>41</v>
@@ -5626,7 +5635,7 @@
       <c r="J12" s="27"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>44</v>
@@ -5654,10 +5663,10 @@
       <c r="J13" s="27"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="40">
         <v>3</v>
@@ -5681,7 +5690,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39" t="s">
         <v>43</v>
@@ -5709,7 +5718,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -5735,7 +5744,7 @@
       <c r="J16" s="27"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39" t="s">
         <v>42</v>
@@ -5763,7 +5772,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40">
@@ -5789,7 +5798,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39" t="s">
         <v>45</v>
@@ -5816,7 +5825,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="39" t="s">
         <v>25</v>
@@ -5841,7 +5850,7 @@
       </c>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="39" t="s">
         <v>34</v>
@@ -5859,7 +5868,7 @@
       </c>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="37"/>
       <c r="C22" s="22"/>
@@ -5872,7 +5881,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>2</v>
       </c>
@@ -5889,7 +5898,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="40">
@@ -5913,7 +5922,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="39" t="s">
         <v>25</v>
@@ -5938,7 +5947,7 @@
       </c>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="39" t="s">
         <v>34</v>
@@ -5956,7 +5965,7 @@
       </c>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="39"/>
       <c r="C27" s="22"/>
@@ -5969,7 +5978,7 @@
       <c r="J27" s="27"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>3</v>
       </c>
@@ -5986,7 +5995,7 @@
       <c r="J28" s="27"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>36</v>
@@ -6013,7 +6022,7 @@
       <c r="J29" s="27"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="39" t="s">
         <v>25</v>
@@ -6038,7 +6047,7 @@
       </c>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="39"/>
       <c r="C31" s="22"/>
@@ -6051,7 +6060,7 @@
       <c r="J31" s="27"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>4</v>
       </c>
@@ -6068,7 +6077,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="39" t="s">
         <v>36</v>
@@ -6095,7 +6104,7 @@
       <c r="J33" s="27"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="39" t="s">
         <v>49</v>
@@ -6129,7 +6138,7 @@
         <v>13960.755864000001</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="39" t="s">
         <v>25</v>
@@ -6154,7 +6163,7 @@
       </c>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="39" t="s">
         <v>34</v>
@@ -6172,7 +6181,7 @@
       </c>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="39"/>
       <c r="C37" s="22"/>
@@ -6185,7 +6194,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>5</v>
       </c>
@@ -6202,7 +6211,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="39" t="s">
         <v>36</v>
@@ -6231,7 +6240,7 @@
       <c r="J39" s="27"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="39" t="s">
         <v>25</v>
@@ -6256,7 +6265,7 @@
       </c>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="39" t="s">
         <v>34</v>
@@ -6274,7 +6283,7 @@
       </c>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="39"/>
       <c r="C42" s="22"/>
@@ -6287,7 +6296,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>6</v>
       </c>
@@ -6304,7 +6313,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
         <v>50</v>
@@ -6333,7 +6342,7 @@
       <c r="J44" s="27"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22">
@@ -6358,7 +6367,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="39" t="s">
         <v>49</v>
@@ -6386,7 +6395,7 @@
       <c r="J46" s="27"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
         <v>25</v>
@@ -6411,7 +6420,7 @@
       </c>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="39" t="s">
         <v>34</v>
@@ -6429,7 +6438,7 @@
       </c>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="39"/>
       <c r="C49" s="22"/>
@@ -6442,7 +6451,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>7</v>
       </c>
@@ -6459,7 +6468,7 @@
       <c r="J50" s="27"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="39" t="s">
         <v>50</v>
@@ -6487,7 +6496,7 @@
       <c r="J51" s="27"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="39"/>
       <c r="C52" s="22">
@@ -6512,7 +6521,7 @@
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="39" t="s">
         <v>51</v>
@@ -6539,10 +6548,10 @@
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="22">
         <v>1</v>
@@ -6565,7 +6574,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="39"/>
       <c r="C55" s="22">
@@ -6589,7 +6598,7 @@
       <c r="J55" s="27"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="39" t="s">
         <v>25</v>
@@ -6614,7 +6623,7 @@
       </c>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="39" t="s">
         <v>34</v>
@@ -6632,7 +6641,7 @@
       </c>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="39"/>
       <c r="C58" s="22"/>
@@ -6645,7 +6654,7 @@
       <c r="J58" s="27"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>8</v>
       </c>
@@ -6662,7 +6671,7 @@
       <c r="J59" s="27"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="39" t="s">
         <v>51</v>
@@ -6687,7 +6696,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="39"/>
       <c r="C61" s="22">
@@ -6710,7 +6719,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="39" t="s">
         <v>25</v>
@@ -6735,7 +6744,7 @@
       </c>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="39" t="s">
         <v>34</v>
@@ -6753,7 +6762,7 @@
       </c>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="37"/>
       <c r="C64" s="22"/>
@@ -6766,7 +6775,7 @@
       <c r="J64" s="27"/>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:14" ht="138" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>9</v>
       </c>
@@ -6783,7 +6792,7 @@
       <c r="J65" s="44"/>
       <c r="K65" s="44"/>
     </row>
-    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="45" t="s">
         <v>56</v>
@@ -6813,7 +6822,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="45"/>
       <c r="C67" s="44">
@@ -6842,7 +6851,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="45" t="s">
         <v>57</v>
@@ -6869,7 +6878,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="45" t="s">
         <v>59</v>
@@ -6889,7 +6898,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="45"/>
       <c r="C70" s="22"/>
@@ -6904,7 +6913,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>10</v>
       </c>
@@ -6923,7 +6932,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="45" t="s">
         <v>60</v>
@@ -6953,7 +6962,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="45"/>
       <c r="C73" s="44">
@@ -6981,7 +6990,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48"/>
       <c r="B74" s="45" t="s">
         <v>57</v>
@@ -7006,7 +7015,7 @@
       </c>
       <c r="K74" s="44"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="48"/>
       <c r="B75" s="45" t="s">
         <v>59</v>
@@ -7024,7 +7033,7 @@
       </c>
       <c r="K75" s="44"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="48"/>
       <c r="B76" s="45"/>
       <c r="C76" s="51"/>
@@ -7037,7 +7046,7 @@
       <c r="J76" s="55"/>
       <c r="K76" s="44"/>
     </row>
-    <row r="77" spans="1:14" ht="69" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>11</v>
       </c>
@@ -7056,7 +7065,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="45" t="s">
         <v>56</v>
@@ -7086,7 +7095,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="45"/>
       <c r="C79" s="44">
@@ -7113,7 +7122,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="45"/>
       <c r="C80" s="44">
@@ -7140,7 +7149,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="45"/>
       <c r="C81" s="44">
@@ -7167,7 +7176,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="48"/>
       <c r="B82" s="45" t="s">
         <v>57</v>
@@ -7192,7 +7201,7 @@
       </c>
       <c r="K82" s="44"/>
     </row>
-    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="48"/>
       <c r="B83" s="45" t="s">
         <v>59</v>
@@ -7210,7 +7219,7 @@
       </c>
       <c r="K83" s="44"/>
     </row>
-    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48"/>
       <c r="B84" s="45"/>
       <c r="C84" s="51"/>
@@ -7223,7 +7232,7 @@
       <c r="J84" s="55"/>
       <c r="K84" s="44"/>
     </row>
-    <row r="85" spans="1:22" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="56">
         <v>12</v>
       </c>
@@ -7240,7 +7249,7 @@
       <c r="J85" s="55"/>
       <c r="K85" s="42"/>
     </row>
-    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="45" t="s">
         <v>56</v>
@@ -7284,7 +7293,7 @@
         <v>0.82147211216092653</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="45"/>
       <c r="C87" s="44">
@@ -7312,7 +7321,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="45"/>
       <c r="C88" s="44">
@@ -7338,7 +7347,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="48"/>
       <c r="B89" s="45" t="s">
         <v>57</v>
@@ -7363,7 +7372,7 @@
       </c>
       <c r="K89" s="44"/>
     </row>
-    <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="48"/>
       <c r="B90" s="45" t="s">
         <v>59</v>
@@ -7381,7 +7390,7 @@
       </c>
       <c r="K90" s="44"/>
     </row>
-    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="48"/>
       <c r="B91" s="45"/>
       <c r="C91" s="51"/>
@@ -7394,7 +7403,7 @@
       <c r="J91" s="54"/>
       <c r="K91" s="44"/>
     </row>
-    <row r="92" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>13</v>
       </c>
@@ -7423,7 +7432,7 @@
       </c>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="39"/>
       <c r="C93" s="22"/>
@@ -7436,7 +7445,7 @@
       <c r="J93" s="27"/>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="20" t="s">
         <v>16</v>
@@ -7456,7 +7465,7 @@
       <c r="M94" s="32"/>
       <c r="N94" s="32"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M95" s="31"/>
       <c r="O95" s="29"/>
       <c r="P95" s="29"/>
@@ -7467,15 +7476,15 @@
       <c r="U95" s="29"/>
       <c r="V95" s="29"/>
     </row>
-    <row r="96" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="79">
+        <v>84</v>
+      </c>
+      <c r="C96" s="73">
         <f>J94</f>
         <v>469988.02996661171</v>
       </c>
-      <c r="D96" s="80"/>
+      <c r="D96" s="74"/>
       <c r="E96" s="10">
         <v>100</v>
       </c>
@@ -7496,14 +7505,14 @@
       <c r="U96" s="12"/>
       <c r="V96" s="12"/>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="82">
+      <c r="C97" s="77">
         <v>400000</v>
       </c>
-      <c r="D97" s="83"/>
+      <c r="D97" s="78"/>
       <c r="E97" s="10"/>
       <c r="M97" s="30"/>
       <c r="N97" s="30"/>
@@ -7516,15 +7525,15 @@
       <c r="U97" s="29"/>
       <c r="V97" s="29"/>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B98" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="82">
+      <c r="C98" s="77">
         <f>C97-C100-C101</f>
         <v>380000</v>
       </c>
-      <c r="D98" s="83"/>
+      <c r="D98" s="78"/>
       <c r="E98" s="10">
         <f>C98/C96*100</f>
         <v>80.853123009748884</v>
@@ -7540,15 +7549,15 @@
       <c r="U98" s="29"/>
       <c r="V98" s="29"/>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B99" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="84">
+      <c r="C99" s="79">
         <f>C96-C98</f>
         <v>89988.029966611706</v>
       </c>
-      <c r="D99" s="84"/>
+      <c r="D99" s="79"/>
       <c r="E99" s="10">
         <f>100-E98</f>
         <v>19.146876990251116</v>
@@ -7564,15 +7573,15 @@
       <c r="U99" s="29"/>
       <c r="V99" s="29"/>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B100" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="79">
+      <c r="C100" s="73">
         <f>C97*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D100" s="80"/>
+      <c r="D100" s="74"/>
       <c r="E100" s="10">
         <v>3</v>
       </c>
@@ -7587,15 +7596,15 @@
       <c r="U100" s="29"/>
       <c r="V100" s="29"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="79">
+      <c r="C101" s="73">
         <f>C97*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D101" s="80"/>
+      <c r="D101" s="74"/>
       <c r="E101" s="10">
         <v>2</v>
       </c>
@@ -7612,6 +7621,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="A7:F7"/>
@@ -7620,13 +7636,6 @@
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1"/>
@@ -7642,141 +7651,139 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE95"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -7811,7 +7818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -7836,7 +7843,2297 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="40">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <f>14/3.281</f>
+        <v>4.2669917708015843</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3.97</v>
+      </c>
+      <c r="F10" s="10">
+        <f>PRODUCT(C10:E10)</f>
+        <v>50.819871990246867</v>
+      </c>
+      <c r="G10" s="36">
+        <f>F10</f>
+        <v>50.819871990246867</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10">
+        <f>18/3.281</f>
+        <v>5.486132276744895</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3.97</v>
+      </c>
+      <c r="F11" s="10">
+        <f>PRODUCT(C11:E11)</f>
+        <v>65.33983541603169</v>
+      </c>
+      <c r="G11" s="36">
+        <f>F11</f>
+        <v>65.33983541603169</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="40">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10">
+        <f>(1+20+1)/3.281</f>
+        <v>6.7052727826882048</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F19" si="0">PRODUCT(C12:E12)</f>
+        <v>54.715025906735754</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" ref="G12:G19" si="1">F12</f>
+        <v>54.715025906735754</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="40">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2.58</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>42.105600000000003</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="1"/>
+        <v>42.105600000000003</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="40">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>4.5696000000000003</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="1"/>
+        <v>4.5696000000000003</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="40">
+        <f t="shared" ref="C15:C18" si="2">2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>10.430999999999999</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="1"/>
+        <v>10.430999999999999</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>9.4428000000000001</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="1"/>
+        <v>9.4428000000000001</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>4.1724000000000006</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="1"/>
+        <v>4.1724000000000006</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0862000000000003</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="1"/>
+        <v>2.0862000000000003</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="40">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>158.84800000000001</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="1"/>
+        <v>158.84800000000001</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="27">
+        <f>SUM(G10:G19)</f>
+        <v>402.53033331301435</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="26">
+        <v>181.17</v>
+      </c>
+      <c r="J20" s="27">
+        <f>G20*I20</f>
+        <v>72926.420486318806</v>
+      </c>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27">
+        <f>0.13*G20*(1871.42/18.94)</f>
+        <v>5170.5085072821221</v>
+      </c>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>2</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10">
+        <f>D19</f>
+        <v>7.3</v>
+      </c>
+      <c r="E24" s="10">
+        <f>D13</f>
+        <v>2.58</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="36">
+        <f>PRODUCT(C24:F24)</f>
+        <v>37.667999999999999</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="27">
+        <f>SUM(G24:G24)</f>
+        <v>37.667999999999999</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="26">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="J25" s="27">
+        <f>G25*I25</f>
+        <v>40338.661200000002</v>
+      </c>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27">
+        <f>0.13*G25*8211.62/10</f>
+        <v>4021.0989280800009</v>
+      </c>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>3</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="22">
+        <v>6</v>
+      </c>
+      <c r="D29" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="F29" s="24">
+        <f>(2.5+0.25+0.17)/3.281</f>
+        <v>0.88997256933861624</v>
+      </c>
+      <c r="G29" s="36">
+        <f>PRODUCT(C29:F29)</f>
+        <v>1.0813166717464189</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="27">
+        <f>SUM(G29:G29)</f>
+        <v>1.0813166717464189</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J30" s="27">
+        <f>G30*I30</f>
+        <v>717.2481615361171</v>
+      </c>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>4</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="22">
+        <f>C29</f>
+        <v>6</v>
+      </c>
+      <c r="D33" s="23">
+        <f>D29</f>
+        <v>0.45</v>
+      </c>
+      <c r="E33" s="24">
+        <f>E29</f>
+        <v>0.45</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="36">
+        <f>PRODUCT(C33:F33)</f>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="22">
+        <v>1</v>
+      </c>
+      <c r="D34" s="23">
+        <f>((5.83+5.785)/2)-0.23</f>
+        <v>5.5774999999999997</v>
+      </c>
+      <c r="E34" s="24">
+        <f>3.65</f>
+        <v>3.65</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="36">
+        <f>PRODUCT(C34:F34)</f>
+        <v>20.357875</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="24"/>
+      <c r="N34" s="1">
+        <f>G34*I35</f>
+        <v>20662.63238875</v>
+      </c>
+      <c r="O34" s="1">
+        <f>5.83*3.6*0.15*I74</f>
+        <v>13960.755864000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="27">
+        <f>SUM(G33:G34)</f>
+        <v>21.572875</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="26">
+        <v>1014.97</v>
+      </c>
+      <c r="J35" s="27">
+        <f>G35*I35</f>
+        <v>21895.820938749999</v>
+      </c>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27">
+        <f>0.13*G35*8617.2/10</f>
+        <v>2416.6711198500007</v>
+      </c>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>5</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22">
+        <f>C33</f>
+        <v>6</v>
+      </c>
+      <c r="D39" s="23">
+        <f>D33</f>
+        <v>0.45</v>
+      </c>
+      <c r="E39" s="24">
+        <f>E33</f>
+        <v>0.45</v>
+      </c>
+      <c r="F39" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G39" s="36">
+        <f>PRODUCT(C39:F39)</f>
+        <v>9.1124999999999998E-2</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="27">
+        <f>SUM(G39:G39)</f>
+        <v>9.1124999999999998E-2</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="26">
+        <v>12983.1</v>
+      </c>
+      <c r="J40" s="27">
+        <f>G40*I40</f>
+        <v>1183.0849874999999</v>
+      </c>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27">
+        <f>0.13*G40*8078.11</f>
+        <v>95.695310587500003</v>
+      </c>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>6</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="22">
+        <f>C39</f>
+        <v>6</v>
+      </c>
+      <c r="D44" s="23">
+        <f>D39</f>
+        <v>0.45</v>
+      </c>
+      <c r="E44" s="24">
+        <f>E39</f>
+        <v>0.45</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="G44" s="36">
+        <f>PRODUCT(C44:F44)</f>
+        <v>0.91125000000000012</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="22">
+        <f>C44</f>
+        <v>6</v>
+      </c>
+      <c r="D45" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F45" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="G45" s="36">
+        <f>PRODUCT(C45:F45)</f>
+        <v>0.14283000000000001</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="22">
+        <v>1</v>
+      </c>
+      <c r="D46" s="23">
+        <f>D34+0.23</f>
+        <v>5.8075000000000001</v>
+      </c>
+      <c r="E46" s="24">
+        <f>E34</f>
+        <v>3.65</v>
+      </c>
+      <c r="F46" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G46" s="36">
+        <f>PRODUCT(C46:F46)</f>
+        <v>1.589803125</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="27">
+        <f>SUM(G44:G46)</f>
+        <v>2.6438831250000003</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="26">
+        <v>13568.9</v>
+      </c>
+      <c r="J47" s="27">
+        <f>G47*I47</f>
+        <v>35874.585734812506</v>
+      </c>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27">
+        <f>0.13*G47*9524.2</f>
+        <v>3273.5133156862507</v>
+      </c>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
+        <v>7</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="22">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D51" s="23">
+        <f>8.42/3.281</f>
+        <v>2.5662907650106672</v>
+      </c>
+      <c r="E51" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F51" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G51" s="36">
+        <f>PRODUCT(C51:F51)</f>
+        <v>0.70829625114294414</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="22">
+        <v>3</v>
+      </c>
+      <c r="D52" s="23">
+        <f>11.25/3.281</f>
+        <v>3.4288326729655592</v>
+      </c>
+      <c r="E52" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F52" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G52" s="36">
+        <f>PRODUCT(C52:F52)</f>
+        <v>0.70976836330387083</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="22">
+        <v>1</v>
+      </c>
+      <c r="D53" s="23">
+        <f>3.67+0.9+0.94+3.14+3.24+3.14+3.17</f>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="E53" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F53" s="24">
+        <v>1</v>
+      </c>
+      <c r="G53" s="36">
+        <f t="shared" ref="G53:G55" si="3">PRODUCT(C53:F53)</f>
+        <v>4.1860000000000008</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="22">
+        <v>1</v>
+      </c>
+      <c r="D54" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F54" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G54" s="36">
+        <f t="shared" si="3"/>
+        <v>0.12420000000000002</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="22">
+        <v>1</v>
+      </c>
+      <c r="D55" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="E55" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F55" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G55" s="36">
+        <f t="shared" si="3"/>
+        <v>0.12420000000000002</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="27">
+        <f>SUM(G51:G55)</f>
+        <v>5.8524646144468164</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="26">
+        <v>14362.76</v>
+      </c>
+      <c r="J56" s="27">
+        <f>G56*I56</f>
+        <v>84057.544665792157</v>
+      </c>
+      <c r="K56" s="24"/>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27">
+        <f>0.13*G56*10311.74</f>
+        <v>7845.3821502388555</v>
+      </c>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="21">
+        <v>8</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="22">
+        <v>1</v>
+      </c>
+      <c r="D60" s="23">
+        <f>5.83+5.785+3.67+0.94+0.9+0.23*2</f>
+        <v>17.585000000000001</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24">
+        <v>1</v>
+      </c>
+      <c r="G60" s="36">
+        <f t="shared" ref="G60:G61" si="4">PRODUCT(C60:F60)</f>
+        <v>17.585000000000001</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="22">
+        <v>1</v>
+      </c>
+      <c r="D61" s="23">
+        <f>3.17+3.14+4.18+3.14+3.24+1.2+1.17</f>
+        <v>19.240000000000002</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G61" s="36">
+        <f t="shared" si="4"/>
+        <v>22.126000000000001</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="24"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="27">
+        <f>SUM(G60:G61)</f>
+        <v>39.710999999999999</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="26">
+        <v>405.86</v>
+      </c>
+      <c r="J62" s="27">
+        <f>G62*I62</f>
+        <v>16117.106459999999</v>
+      </c>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27">
+        <f>0.13*G62*11166.2/100</f>
+        <v>576.44725865999999</v>
+      </c>
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="A65" s="42">
+        <v>9</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="46">
+        <f>D86</f>
+        <v>6</v>
+      </c>
+      <c r="E66" s="46">
+        <f>F86/2</f>
+        <v>1.1746926749974602</v>
+      </c>
+      <c r="F66" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="G66" s="47">
+        <f>PRODUCT(C66:F66)</f>
+        <v>5.2861170374885713</v>
+      </c>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="24"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="46">
+        <f>D87</f>
+        <v>5.4</v>
+      </c>
+      <c r="E67" s="46">
+        <f>E73</f>
+        <v>0.5</v>
+      </c>
+      <c r="F67" s="46">
+        <f>F87</f>
+        <v>1.092944224321853</v>
+      </c>
+      <c r="G67" s="47">
+        <f>PRODUCT(C67:F67)</f>
+        <v>1.4754747028345017</v>
+      </c>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="24"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="26">
+        <f>SUM(G66:G67)</f>
+        <v>6.7615917403230732</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="26">
+        <v>64.63</v>
+      </c>
+      <c r="J68" s="50">
+        <f>G68*I68</f>
+        <v>437.00167417708019</v>
+      </c>
+      <c r="K68" s="24"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="50">
+        <f>0.13*G68*19284/360</f>
+        <v>47.085471015696434</v>
+      </c>
+      <c r="K69" s="24"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="24"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A71" s="21">
+        <v>10</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="24"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="44">
+        <v>1</v>
+      </c>
+      <c r="D72" s="46">
+        <f>D78</f>
+        <v>6</v>
+      </c>
+      <c r="E72" s="46">
+        <f>E78</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="F72" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="G72" s="47">
+        <f>PRODUCT(C72:F72)</f>
+        <v>1.0286498018896677</v>
+      </c>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="24"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="44">
+        <f>C80</f>
+        <v>1</v>
+      </c>
+      <c r="D73" s="46">
+        <f>D80</f>
+        <v>5.4</v>
+      </c>
+      <c r="E73" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F73" s="46">
+        <v>0.125</v>
+      </c>
+      <c r="G73" s="47">
+        <f>PRODUCT(C73:F73)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="24"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="48"/>
+      <c r="B74" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="51"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53">
+        <f>SUM(G72:G73)</f>
+        <v>1.3661498018896676</v>
+      </c>
+      <c r="H74" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I74" s="53">
+        <v>4434.5200000000004</v>
+      </c>
+      <c r="J74" s="54">
+        <f>G74*I74</f>
+        <v>6058.2186194757696</v>
+      </c>
+      <c r="K74" s="44"/>
+    </row>
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="48"/>
+      <c r="B75" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="51"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="55">
+        <f>0.13*G74*(14817.6/5)</f>
+        <v>526.31959391648888</v>
+      </c>
+      <c r="K75" s="44"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="48"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="44"/>
+    </row>
+    <row r="77" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>11</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="24"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="44">
+        <v>1</v>
+      </c>
+      <c r="D78" s="46">
+        <f>D86</f>
+        <v>6</v>
+      </c>
+      <c r="E78" s="46">
+        <f>((3.5+4)/2/3.281)</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="F78" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G78" s="47">
+        <f>PRODUCT(C78:F78)</f>
+        <v>0.34288326729655594</v>
+      </c>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="24"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="44">
+        <v>1</v>
+      </c>
+      <c r="D79" s="46">
+        <f>D78</f>
+        <v>6</v>
+      </c>
+      <c r="E79" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F79" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G79" s="47">
+        <f>PRODUCT(C79:F79)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="24"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="44">
+        <v>1</v>
+      </c>
+      <c r="D80" s="46">
+        <f>D87</f>
+        <v>5.4</v>
+      </c>
+      <c r="E80" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F80" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G80" s="47">
+        <f>PRODUCT(C80:F80)</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="24"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="44">
+        <v>1</v>
+      </c>
+      <c r="D81" s="46">
+        <f>D80</f>
+        <v>5.4</v>
+      </c>
+      <c r="E81" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F81" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="G81" s="47">
+        <f>PRODUCT(C81:F81)</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="24"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="48"/>
+      <c r="B82" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="51"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53">
+        <f>SUM(G78:G81)</f>
+        <v>0.76288326729655598</v>
+      </c>
+      <c r="H82" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I82" s="53">
+        <v>10634.5</v>
+      </c>
+      <c r="J82" s="54">
+        <f>G82*I82</f>
+        <v>8112.8821060652244</v>
+      </c>
+      <c r="K82" s="44"/>
+    </row>
+    <row r="83" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="48"/>
+      <c r="B83" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="51"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="55">
+        <f>0.13*G82*((114907.3+6135.3)/15)</f>
+        <v>800.29190947394102</v>
+      </c>
+      <c r="K83" s="44"/>
+    </row>
+    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="48"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="44"/>
+    </row>
+    <row r="85" spans="1:22" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A85" s="56">
+        <v>12</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="57"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="42"/>
+    </row>
+    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="44">
+        <v>1</v>
+      </c>
+      <c r="D86" s="46">
+        <v>6</v>
+      </c>
+      <c r="E86" s="46">
+        <f>((((3.5+4)/2)/3.281)+0.5)/2</f>
+        <v>0.82147211216092653</v>
+      </c>
+      <c r="F86" s="46">
+        <f>(((89/12)+8)/2)/3.281</f>
+        <v>2.3493853499949204</v>
+      </c>
+      <c r="G86" s="47">
+        <f>PRODUCT(C86:F86)</f>
+        <v>11.579727274441588</v>
+      </c>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="24"/>
+      <c r="M86" s="1">
+        <f>89/12</f>
+        <v>7.416666666666667</v>
+      </c>
+      <c r="N86" s="1">
+        <f>7.5/2</f>
+        <v>3.75</v>
+      </c>
+      <c r="O86">
+        <f>N86/3.281</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="P86">
+        <f>(O86+0.5)/2</f>
+        <v>0.82147211216092653</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="44">
+        <v>1</v>
+      </c>
+      <c r="D87" s="46">
+        <v>5.4</v>
+      </c>
+      <c r="E87" s="46">
+        <f>(0.6+0.5)/2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F87" s="46">
+        <f>((3.5+4)/2/3.281)-0.05</f>
+        <v>1.092944224321853</v>
+      </c>
+      <c r="G87" s="47">
+        <f>PRODUCT(C87:F87)</f>
+        <v>3.2460443462359043</v>
+      </c>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="24"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="44">
+        <v>1</v>
+      </c>
+      <c r="D88" s="46">
+        <v>1</v>
+      </c>
+      <c r="E88" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F88" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="G88" s="47">
+        <f>PRODUCT(C88:F88)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="24"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="48"/>
+      <c r="B89" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="51"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="53">
+        <f>SUM(G86:G88)</f>
+        <v>15.075771620677493</v>
+      </c>
+      <c r="H89" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I89" s="53">
+        <v>9709.43</v>
+      </c>
+      <c r="J89" s="54">
+        <f>G89*I89</f>
+        <v>146377.14924695468</v>
+      </c>
+      <c r="K89" s="44"/>
+    </row>
+    <row r="90" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="48"/>
+      <c r="B90" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="51"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="55">
+        <f>0.13*G89*((27092.1)/5)</f>
+        <v>10619.292120438475</v>
+      </c>
+      <c r="K90" s="44"/>
+    </row>
+    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="48"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="44"/>
+    </row>
+    <row r="92" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="21">
+        <v>13</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="22">
+        <v>1</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="36">
+        <f>PRODUCT(C92:F92)</f>
+        <v>1</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I92" s="26">
+        <v>500</v>
+      </c>
+      <c r="J92" s="27">
+        <f>G92*I92</f>
+        <v>500</v>
+      </c>
+      <c r="K92" s="24"/>
+    </row>
+    <row r="93" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="24"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7">
+        <f>SUM(J10:J93)</f>
+        <v>469988.02996661171</v>
+      </c>
+      <c r="K94" s="4"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M95" s="31"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+    </row>
+    <row r="96" spans="1:22" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="73">
+        <f>J94</f>
+        <v>469988.02996661171</v>
+      </c>
+      <c r="D96" s="74"/>
+      <c r="E96" s="10">
+        <v>100</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="16"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+    </row>
+    <row r="97" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="77">
+        <v>400000</v>
+      </c>
+      <c r="D97" s="78"/>
+      <c r="E97" s="10"/>
+      <c r="M97" s="30"/>
+      <c r="N97" s="30"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="29"/>
+      <c r="V97" s="29"/>
+    </row>
+    <row r="98" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="77">
+        <f>C97-C100-C101</f>
+        <v>380000</v>
+      </c>
+      <c r="D98" s="78"/>
+      <c r="E98" s="10">
+        <f>C98/C96*100</f>
+        <v>80.853123009748884</v>
+      </c>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+    </row>
+    <row r="99" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="79">
+        <f>C96-C98</f>
+        <v>89988.029966611706</v>
+      </c>
+      <c r="D99" s="79"/>
+      <c r="E99" s="10">
+        <f>100-E98</f>
+        <v>19.146876990251116</v>
+      </c>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+    </row>
+    <row r="100" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="73">
+        <f>C97*0.03</f>
+        <v>12000</v>
+      </c>
+      <c r="D100" s="74"/>
+      <c r="E100" s="10">
+        <v>3</v>
+      </c>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="29"/>
+      <c r="V100" s="29"/>
+    </row>
+    <row r="101" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="73">
+        <f>C97*0.02</f>
+        <v>8000</v>
+      </c>
+      <c r="D101" s="74"/>
+      <c r="E101" s="10">
+        <v>2</v>
+      </c>
+      <c r="M101" s="29"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="29"/>
+      <c r="U101" s="29"/>
+      <c r="V101" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:G6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B59" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By: </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
         <v>40</v>
@@ -7865,7 +10162,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>41</v>
@@ -7894,7 +10191,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39" t="s">
         <v>44</v>
@@ -7924,10 +10221,10 @@
       <c r="K12" s="11"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="40">
         <v>3</v>
@@ -7953,13 +10250,13 @@
       <c r="K13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="40">
-        <f t="shared" ref="C14:C20" si="2">2*3</f>
+        <f t="shared" ref="C14:C19" si="2">2*3</f>
         <v>6</v>
       </c>
       <c r="D14" s="10">
@@ -7983,7 +10280,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40">
@@ -8011,7 +10308,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40">
@@ -8039,7 +10336,7 @@
       <c r="K16" s="11"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39" t="s">
         <v>42</v>
@@ -8069,7 +10366,7 @@
       <c r="K17" s="11"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40">
@@ -8097,7 +10394,7 @@
       <c r="K18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40">
@@ -8125,7 +10422,7 @@
       <c r="K19" s="11"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="39" t="s">
         <v>45</v>
@@ -8154,7 +10451,7 @@
       <c r="K20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="39" t="s">
         <v>25</v>
@@ -8179,7 +10476,7 @@
       </c>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="39" t="s">
         <v>34</v>
@@ -8197,7 +10494,7 @@
       </c>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="37"/>
       <c r="C23" s="22"/>
@@ -8210,7 +10507,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>2</v>
       </c>
@@ -8228,7 +10525,7 @@
       <c r="K24" s="11"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="39"/>
       <c r="C25" s="40">
@@ -8253,7 +10550,7 @@
       <c r="K25" s="11"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="39" t="s">
         <v>25</v>
@@ -8278,7 +10575,7 @@
       </c>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="39" t="s">
         <v>34</v>
@@ -8296,7 +10593,7 @@
       </c>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="39"/>
       <c r="C28" s="22"/>
@@ -8309,7 +10606,7 @@
       <c r="J28" s="27"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>3</v>
       </c>
@@ -8326,7 +10623,7 @@
       <c r="J29" s="27"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="39" t="s">
         <v>36</v>
@@ -8353,7 +10650,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="39" t="s">
         <v>25</v>
@@ -8378,7 +10675,7 @@
       </c>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="39"/>
       <c r="C32" s="22"/>
@@ -8391,7 +10688,7 @@
       <c r="J32" s="27"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>4</v>
       </c>
@@ -8408,7 +10705,7 @@
       <c r="J33" s="27"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="39" t="s">
         <v>36</v>
@@ -8435,7 +10732,7 @@
       <c r="J34" s="27"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="39" t="s">
         <v>49</v>
@@ -8461,7 +10758,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="39" t="s">
         <v>25</v>
@@ -8486,7 +10783,7 @@
       </c>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="39" t="s">
         <v>34</v>
@@ -8504,7 +10801,7 @@
       </c>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="39"/>
       <c r="C38" s="22"/>
@@ -8517,7 +10814,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>5</v>
       </c>
@@ -8534,7 +10831,7 @@
       <c r="J39" s="27"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="39" t="s">
         <v>36</v>
@@ -8563,7 +10860,7 @@
       <c r="J40" s="27"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="39" t="s">
         <v>25</v>
@@ -8588,7 +10885,7 @@
       </c>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
         <v>34</v>
@@ -8606,7 +10903,7 @@
       </c>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="39"/>
       <c r="C43" s="22"/>
@@ -8619,7 +10916,7 @@
       <c r="J43" s="27"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>6</v>
       </c>
@@ -8636,7 +10933,7 @@
       <c r="J44" s="27"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="39" t="s">
         <v>50</v>
@@ -8665,7 +10962,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="39"/>
       <c r="C46" s="22">
@@ -8690,7 +10987,7 @@
       <c r="J46" s="27"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="39" t="s">
         <v>49</v>
@@ -8718,7 +11015,7 @@
       <c r="J47" s="27"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="39" t="s">
         <v>25</v>
@@ -8743,7 +11040,7 @@
       </c>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="39" t="s">
         <v>34</v>
@@ -8761,7 +11058,7 @@
       </c>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="39"/>
       <c r="C50" s="22"/>
@@ -8774,7 +11071,7 @@
       <c r="J50" s="27"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>7</v>
       </c>
@@ -8791,7 +11088,7 @@
       <c r="J51" s="27"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="39" t="s">
         <v>50</v>
@@ -8819,7 +11116,7 @@
       <c r="J52" s="27"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="39"/>
       <c r="C53" s="22">
@@ -8844,7 +11141,7 @@
       <c r="J53" s="27"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
         <v>51</v>
@@ -8871,7 +11168,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="39"/>
       <c r="C55" s="22">
@@ -8896,7 +11193,7 @@
       <c r="J55" s="27"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="39" t="s">
         <v>25</v>
@@ -8921,7 +11218,7 @@
       </c>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="39" t="s">
         <v>34</v>
@@ -8939,7 +11236,7 @@
       </c>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="39"/>
       <c r="C58" s="22"/>
@@ -8952,7 +11249,7 @@
       <c r="J58" s="27"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>8</v>
       </c>
@@ -8969,7 +11266,7 @@
       <c r="J59" s="27"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="39" t="s">
         <v>51</v>
@@ -8995,7 +11292,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="39"/>
       <c r="C61" s="22">
@@ -9019,7 +11316,7 @@
       <c r="J61" s="27"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="39" t="s">
         <v>25</v>
@@ -9044,7 +11341,7 @@
       </c>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="39" t="s">
         <v>34</v>
@@ -9062,7 +11359,7 @@
       </c>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="37"/>
       <c r="C64" s="22"/>
@@ -9075,7 +11372,7 @@
       <c r="J64" s="27"/>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:19" ht="138" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>9</v>
       </c>
@@ -9098,7 +11395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="45" t="s">
         <v>56</v>
@@ -9133,7 +11430,7 @@
       <c r="R66" s="49"/>
       <c r="S66" s="49"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="45" t="s">
         <v>57</v>
@@ -9165,7 +11462,7 @@
       <c r="R67" s="49"/>
       <c r="S67" s="49"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="45" t="s">
         <v>59</v>
@@ -9190,7 +11487,7 @@
       <c r="R68" s="49"/>
       <c r="S68" s="49"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="45"/>
       <c r="C69" s="22"/>
@@ -9210,7 +11507,7 @@
       <c r="R69" s="49"/>
       <c r="S69" s="49"/>
     </row>
-    <row r="70" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>10</v>
       </c>
@@ -9234,7 +11531,7 @@
       <c r="R70" s="49"/>
       <c r="S70" s="49"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="45" t="s">
         <v>60</v>
@@ -9269,7 +11566,7 @@
       <c r="R71" s="49"/>
       <c r="S71" s="49"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48"/>
       <c r="B72" s="45" t="s">
         <v>57</v>
@@ -9294,7 +11591,7 @@
       </c>
       <c r="K72" s="44"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="48"/>
       <c r="B73" s="45" t="s">
         <v>59</v>
@@ -9312,7 +11609,7 @@
       </c>
       <c r="K73" s="44"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="48"/>
       <c r="B74" s="45"/>
       <c r="C74" s="51"/>
@@ -9325,7 +11622,7 @@
       <c r="J74" s="55"/>
       <c r="K74" s="44"/>
     </row>
-    <row r="75" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>11</v>
       </c>
@@ -9349,7 +11646,7 @@
       <c r="R75" s="49"/>
       <c r="S75" s="49"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="45" t="s">
         <v>56</v>
@@ -9384,7 +11681,7 @@
       <c r="R76" s="49"/>
       <c r="S76" s="49"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="45"/>
       <c r="C77" s="44">
@@ -9416,7 +11713,7 @@
       <c r="R77" s="49"/>
       <c r="S77" s="49"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
       <c r="B78" s="45" t="s">
         <v>57</v>
@@ -9441,7 +11738,7 @@
       </c>
       <c r="K78" s="44"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48"/>
       <c r="B79" s="45" t="s">
         <v>59</v>
@@ -9459,7 +11756,7 @@
       </c>
       <c r="K79" s="44"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48"/>
       <c r="B80" s="45"/>
       <c r="C80" s="51"/>
@@ -9472,7 +11769,7 @@
       <c r="J80" s="55"/>
       <c r="K80" s="44"/>
     </row>
-    <row r="81" spans="1:31" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="56">
         <v>12</v>
       </c>
@@ -9489,7 +11786,7 @@
       <c r="J81" s="55"/>
       <c r="K81" s="42"/>
     </row>
-    <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="45" t="s">
         <v>56</v>
@@ -9523,7 +11820,7 @@
       <c r="R82" s="49"/>
       <c r="S82" s="49"/>
     </row>
-    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="48"/>
       <c r="B83" s="45" t="s">
         <v>57</v>
@@ -9548,7 +11845,7 @@
       </c>
       <c r="K83" s="44"/>
     </row>
-    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48"/>
       <c r="B84" s="45" t="s">
         <v>59</v>
@@ -9566,7 +11863,7 @@
       </c>
       <c r="K84" s="44"/>
     </row>
-    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="48"/>
       <c r="B85" s="45"/>
       <c r="C85" s="51"/>
@@ -9579,7 +11876,7 @@
       <c r="J85" s="54"/>
       <c r="K85" s="44"/>
     </row>
-    <row r="86" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>13</v>
       </c>
@@ -9608,7 +11905,7 @@
       </c>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="39"/>
       <c r="C87" s="22"/>
@@ -9621,7 +11918,7 @@
       <c r="J87" s="27"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="20" t="s">
         <v>16</v>
@@ -9642,7 +11939,7 @@
       <c r="P88" s="32"/>
       <c r="Q88" s="32"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M89" s="29"/>
       <c r="N89" s="30"/>
       <c r="O89" s="30"/>
@@ -9662,15 +11959,15 @@
       <c r="AD89" s="29"/>
       <c r="AE89" s="29"/>
     </row>
-    <row r="90" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="79">
+      <c r="C90" s="73">
         <f>J88</f>
         <v>469525.84438020881</v>
       </c>
-      <c r="D90" s="80"/>
+      <c r="D90" s="74"/>
       <c r="E90" s="10">
         <v>100</v>
       </c>
@@ -9700,14 +11997,14 @@
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="82">
+      <c r="C91" s="77">
         <v>400000</v>
       </c>
-      <c r="D91" s="83"/>
+      <c r="D91" s="78"/>
       <c r="E91" s="10"/>
       <c r="M91" s="29"/>
       <c r="N91" s="30"/>
@@ -9729,15 +12026,15 @@
       <c r="AD91" s="29"/>
       <c r="AE91" s="29"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="82">
+      <c r="C92" s="77">
         <f>C91-C94-C95</f>
         <v>380000</v>
       </c>
-      <c r="D92" s="83"/>
+      <c r="D92" s="78"/>
       <c r="E92" s="10">
         <f>C92/C90*100</f>
         <v>80.932712128256497</v>
@@ -9762,15 +12059,15 @@
       <c r="AD92" s="29"/>
       <c r="AE92" s="29"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="84">
+      <c r="C93" s="79">
         <f>C90-C92</f>
         <v>89525.844380208815</v>
       </c>
-      <c r="D93" s="84"/>
+      <c r="D93" s="79"/>
       <c r="E93" s="10">
         <f>100-E92</f>
         <v>19.067287871743503</v>
@@ -9795,15 +12092,15 @@
       <c r="AD93" s="29"/>
       <c r="AE93" s="29"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="79">
+      <c r="C94" s="73">
         <f>C91*0.03</f>
         <v>12000</v>
       </c>
-      <c r="D94" s="80"/>
+      <c r="D94" s="74"/>
       <c r="E94" s="10">
         <v>3</v>
       </c>
@@ -9827,15 +12124,15 @@
       <c r="AD94" s="29"/>
       <c r="AE94" s="29"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="79">
+      <c r="C95" s="73">
         <f>C91*0.02</f>
         <v>8000</v>
       </c>
-      <c r="D95" s="80"/>
+      <c r="D95" s="74"/>
       <c r="E95" s="10">
         <v>2</v>
       </c>
@@ -9861,6 +12158,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="A7:F7"/>
@@ -9869,13 +12173,6 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1"/>
